--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -324,7 +324,7 @@
 Chicken and ricotta cannelloni baked in a rich tomato sauce 
 Malavsian satay chicken with Asian greens (LG)
 Mushroom Bolognese with angel hair pasta (V)
-Selection of rice, vegetables &amp; potatc
+Selection of rice, vegetables &amp; potato
 Selection of ice-cream cups (GF)</t>
   </si>
   <si>
@@ -575,7 +575,8 @@
 House battered fish and chips with sweet potato fries (DF)
 Thai style chicken with Hakkien noodles (DF)
 Spaghetti squash bake with seasonal veg and a rich creamy sauce (V)
-Selection of rice, vegetables and potato</t>
+Selection of rice, vegetables and potato
+Eton Mess with fresh seasonal berries, meringue and chantilly cream</t>
   </si>
 </sst>
 </file>
@@ -595,7 +596,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1267,7 +1268,7 @@
       </c>
     </row>
     <row r="5" ht="198.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">

--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Monday</t>
   </si>
@@ -39,38 +39,41 @@
     <t>Breakfast</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresh juices, selection of milks, espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
+    <t xml:space="preserve">Selection of cereals &amp; gluten free cereal
 Porridge with accompaniments
-Congee, pickles, dried shallot and vingegar(GF,DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection of canned fruits(LG,DF)
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs(LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fresh juices, selection of milks, espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
+    <t xml:space="preserve">Selection of cereals &amp; gluten free cereal
 Porridge with accompaniments
-Congee, pickles, dried shallot and vingegar(GF,DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection of canned fruits(LG,DF)
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs(LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
-Poached eggs, beef bacon, roasted fresh tomates, baked beans and tomato spaghetti(DF)
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads
+Eggs, pork bacon, baked beans, spaghetti, hash browns
 </t>
   </si>
   <si>
-    <t>Fresh juices, selection of milks, espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
+    <t>Selection of cereals &amp; gluten free cereal
 Porridge with accompaniments
-Congee, pickles, dried shallot and vingegar(GF,DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection of canned fruits(LG,DF)
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs(LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
-Scrambled eggs, beef bacon, beef sausages, baked beans nd tomato spaghetti(DF)</t>
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection of cereals &amp; gluten free cereal
+Porridge with accompaniments
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads
+Eggs, sausage patty, baked beans, hash browns &amp; English muffin
+</t>
   </si>
   <si>
     <t>Brunch</t>
@@ -80,307 +83,267 @@
 </t>
   </si>
   <si>
-    <t>Scrambled eggs, beef bacon, roasted mushrooms, baked beans and tomato spaghetti(DF)
-Waffles with maple syrup</t>
-  </si>
-  <si>
-    <t>Poached eggs, beef beacon, hash brown and baked beans
-Corn fritters(DF)</t>
+    <t xml:space="preserve">Eggs, turkey bacon, roasted tomato. baked beans, spaghetti
+Waffles with maple syrup
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Eggs, turkey bacon, baked beans, spaghetti, hash browns
+Buttermilk Pancakes
+</t>
   </si>
   <si>
     <t>Lunch</t>
   </si>
   <si>
-    <t xml:space="preserve">Thai BBQ chicken salad with rainbow slaw, bean sprouts, cucumber, rice noodles, red onion, fried onion, mint, lime(LG,DF)
-Selection of seasonal fruits, fresh gardens components and breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced salami, pickles, avocado, sauerkraut, cucumber(LG,DF)
-Chicken and leek pie
-Mushroom and kale frittata(V,LG)
+    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Chicken &amp; leek pie with puff pastry
+Mediterranean casserole with green peas, eggplant, celery(LG, VG)
+Mashed potato with peas &amp; gravy(V,LG)
+Tuscan tomato &amp; capsicum soup(LG,VG)
+Chickpea and quinoa tabouleh with lemon, tomato &amp; parsley salad(LG,VG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Chicken schnitzel with peas, chat potato &amp; rich tomato sauce
+Grilled tofu tagine with mint couscous (V, DF)
+Potato and seeded mustard salad with sweet potato, roasted carrots &amp; dill (V, LG)
 </t>
   </si>
   <si>
-    <t>Chicken noodle soup(DF,LG)
-Spiced sweet potato salad with carred corn, pickled radish, green beans, fresh mint and ranch dressing(LG)
-Selection of seasonal fruits, fresh garden components and breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced roast beef, roasted peppers, pickles, red cabbage(DF,LG)
-Herb-crumbed chicken breast schnitzel with mushy peas and brown gravy(DF)
-Baharat-spiced tofu with falafel, zucchini hummus and quinoa(V,DF)</t>
-  </si>
-  <si>
-    <t>Miso fish salad with soy beans, green peas and broccoli with barley, baby spinach(DF)
-Selection of seasonal fruits and fresh garden components(LG,DF)
-Pulled beef wrap with sriracha mayonnaise, dill cucumber, roasted red peppers baby tatsoi(DF)
-Mushrooms in thyme and garlic baguette with sausteed kale, pecorino and creamy sauce(V)
-Roasted free range chicken ciabatta with garlic aioli, iceberg lettuce, pickled red cabbage, guindila chillies(DF)
-Sea salt crisps and sweet potato crisps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roasted peaches and bocconcini salad with green beans, pomegranates basil, baby gem leaves and yoghurt(V)
-Selection of seasonal fruits, fresh garden components and breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced pastrami, cucumber, avocado, spinach, tuna(DF,LG)
-Peri peri chicken with red rice, green beans and spicy peri peri sauce(DF,LG)
-Yellow lentil and paneer dal with roti canai and stir fried bok choy(V,DF)
+    <t xml:space="preserve">SANDWICH DAY:
+1. Choose your bread
+2. Pick your protein
+3. Add your salad
+4. Finish with your sauce
+5. Wrap or Fold
+Butternut pumpkin &amp; coconut soup (LG,VG)
+Pasta salad with cherry tomatoes, bocconcini, radicchio, kalamata olives and pesto dressing (V)
 </t>
   </si>
   <si>
-    <t>Minestrone soup(DF,GF)
-Roasted harissa chicken salad wit hcucumber, ginger, chili &amp; rainbow slaw with fresh herbs(DF,LG)
-Selection of seasonal fruits, fresh gardens components and breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced turkey, egg, mushroom, red cabbage, tuna(DF,LG)
-Beef sausages with onion gravy and rosemary potatoes(DF,LG)
-Eggplant parmigiana - baked with mozzarella cheese and tomato sugo(V,LG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection of seasonal fruits and fresh garden components
-Heirloom tomato, cucumber and radicchio panzanella bread salad witorange, radish(DF)
-Lasagna of layered beef mince sauce, bechamel, fresh herbs, mozzarella and parsmean
-Vegetable gyoaza, green tea noodles, shitake - pickled ginger and soy(V,DF)
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Lasagna of layered beef mince sauce, bechamel, fresh herbs, mozzarella &amp; parmesan
+Baked zucchini with mozzarella cheese &amp; tomato sugo (V, LG)
+Roasted peaches &amp; bocconcini salad with green beans, basil, baby gem leaves &amp; pomegranates dressing (V, LG)
 </t>
   </si>
   <si>
-    <t>Selection of seasonal fruits and fresh garden components
-Marinated beef brisket in red bean, honey and soy salad with pickled daikon, wild rice, wasabi, aiolo and nori, togarashi spice(DF,GF)
-Spiced beef brisket with brown rice, smokey corn, black beans and pickled red cabbage(DF,GF)
-Four cheese ravioli, pumpkin, sage, pine nuts - brown butter sauce (V)</t>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Panko crumbed chicken with Japanese curry sauce(DF)
+Corn fritters with potato and apply curry sauce(LG,VG)
+Cream of cauliflower soup(V,LG)
+Roasted peaches and bocconcini salad with green beans, basil, baby gem leaves and pomegranate dressing (V, LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Fish and Chips with tartare sauce(DF)
+Roast vegetable lasagne(LG,VG)
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts and pumpkin seed (LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Lasagna of layered beef mince sauce, becamel, fresh herbs, mozzarella and parmesan
+Pastizi filled with spinach and ricotta (V)
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
+</t>
   </si>
   <si>
     <t>Dinner</t>
   </si>
   <si>
-    <t>Green power salad with avacado, spinach, green beans, celery, kale, broccolo, edamame, asparagus, snow pea, sprouts, pumpkin seed(LG,DF,V)
-Selection of fruits and garden components
-Baked market fish with eggplant caponata and couscous(DF)
-Fried chicken katsu with pickled ginger, kewpie mayonnaise, and toasted sesame seeds(DF)
-Ricotta and potato gnocchi with zucchini sauce, baby peas and mint(V)
+    <t xml:space="preserve">Baked market fish in lemongrass, coconut, ginger (LG,DF)
+Fried chicken bites with eggplant caponata (DF)
+Potato gnocchi with eggplant caponata (V,DF)
+Selection of rice, vegetables &amp; polenta
+Spinach and pear salad, with onion, rocket, watermelon, broccoli &amp; sultana (LG,VG)
+Selection of ice-cream cups (GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroccan lamb with sultans (LG,DF)
+Thai green chicken curry with bamboo shoots. Coriander &amp; coconut milk (LG, DF)
+Thai stir-fry with cauliflower, sweet potato, carrot, eggplant, chili &amp; coriander (LG,VG)
+Selection of rice, vegetables &amp; polenta
+Heirloom tomato, cucumber &amp; radicchio panzanella bread salad &amp; orange, radish (VG)
+Vanilla Brulee (LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet &amp; sour chicken with pineapple, red capsicum &amp; shallots (LG,DF)
+Baked Fish Tandoori (LG,DF)
+Tandoori Gobi with tofu &amp; cauliflower (LG, VG)
+Selection of rice, vegetables &amp; potato
+Minted tofu larb salad with toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing (LG, VG)
+Tiramisu with coffee jelly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Chicken Masala (LG, DF)
+Thai lamb (LG, DF)
+Chickpea and Cabbage (LG, VG)
+Naan bread, basmati rice &amp; assorted vegetables (V)
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach ,shredded carrot &amp; cabbage (VG, LG)
+Apple and Cinnamon Crumble
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs Pizza of the Week
+Meat Lover: turkey bacon, beef salami, beef sausage, mozzarella and tomato
+Basil, spinach, zucchini and ricotta(V)
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
+Selection of ice-cream cups(GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA NIGHT:
+1. Choose your pasta
+2. Pick your sauce
+3.Grab some garlic bread
+4. Sprinkle cheese
+5. Add some veggies
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
+Chocolate Brownie(LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy french dressing (V)
+Apple and Cinammon Crumble
+</t>
+  </si>
+  <si>
+    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef &amp; Mushroom pie with puff pastry
+Capsicum, zucchini and tomato casserole(VG)
+Mashed potato with peas &amp; gravy(V,LG)
+Tuscan tomato &amp; capsicum soup(LG,VG)
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea, capsicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef meatballs with creamy black pepper and onion sauce and mashed potato
+Eggs, tofu, kimchi, vegetables and brown fried rice(V,LG,DF)
+Chickpea and quinoa tabouleh with lemon, tomato and parsley salad(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH DAY:
+1. Choose your bread
+2. Pick your protein
+3. Add your salad
+4. Finish with your sauce
+5. Wrap or Fold
+Butternut pumpkin &amp; coconut soup (LG,VG)
+Minted tofu larb salad, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Mongolian beef and Singaporian noodles stir fry(DF)
+Chinese wombok and b ok choy ith Singaporean noodles stir fry (V, DF)
+On the side: chilli oil, fried shallot, soy sauce
+Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish(VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Spicy chicken Pad Thai (LG, DF, NO EGG)
+Puffed tofu Pad Thai (LG, VG)
+On the side: chili oil, fried shallot, pickled chili, bean sprouts
+Cream of cauliflower soup (V, LG)
+Greek salad with Roma tomato, Lebanese cucumber, Spanish onion, capsicum, kalamata olives &amp; feta (V, LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef sausages with a rich napolitana sauce and creamy mash potato (LG, DF)
+Nachos with spiced mushroom and tomato salsa with Mexican cheese (V, LG)
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket &amp; creamy French dressing (V, LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+BURGER DAY:
+Beef Burger ith shoestring fries, selection of sliced cheese, tomato, lettuce &amp; burger sauce
+Tofu/Veggie Burger with shoestring fries, selection of sliced cheese, tomato, lettuce &amp; burger sauce (V)
+Chili bean salad with chickpea, capsicum, cucumber, lime coriander &amp; corn (LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef stew cooked in a rich sauce(LG,DF)
+Crispy chicken stir frry with chili and basil(DF)
+Mushroom, tofu, cabbage and pea fried rice(LG,VG)
+Selection of vegetables and potato
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
+Mango and Coconut Saga(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khao soi chicken with egg noodle(DF)
+Fishermen pie with peas and corn
+Deep fry tofu with baby corn, green beans and thai basil(LG,VG)
 Selection of rice, vegetables and potato
-Selection of ice-cream cups(GF)</t>
-  </si>
-  <si>
-    <t>Chicken caesar saald with grilled chicken, beef bacon, baby cos, croutons, boiled egg, parmesan cheese, chives
-Selection of fruits and garden components
-Beef bolognese with penne pasta, parmesan cheese and basil
-Thai fish curry with steamed greens, baby corn(DF,LG)
-Indian butter squash(V,DF,LG)
-Selection of rice, vegetables and potato
-Butterscotch pudding with caramel sauce</t>
-  </si>
-  <si>
-    <t>Fusili pasta salad with basil pesto, cherry tomatoes, bocconcini, radicchio, kalamata olives, pine nuts(V)
-Selection of fruits and garden components
-Carne asada of tender flank steak with pumpkin seed sauce(LG)
-Sweet and sour chicken with pineapple, red capsicum, shallots(DF)
-Mushroom bolognese with penne pasta and basil(V,DF)
-Selection of rice, vegetables and potato
-Cheesecake with butter crumbs and bluerry coulis</t>
-  </si>
-  <si>
-    <t>Garden salad with poached chicken, green basil(DF,LG)
-Selectio nof fruits and garden components
-Moroccan lamb with golden raisins, harissa and lentil pilaf(LG,DF)
-Khao soi, chicken noodle curry with baby corn, snake beans and thai basil(DF,LG)
-Dry red curry of pumpkin, snake beans, lychees with pickled vegetables(V,DF,LG)
-Selection of rice, vegetables and potato
-Belgian chocolate brownie</t>
-  </si>
-  <si>
-    <t>Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives and feta(LG)
-Selection of fruits and garden components
-Lamb ragu orecchiette with parmesan
-Indian butter chicken with steamed jasmine rice(LG)
-Spinach and ricotta cannelloni with tomato sugo(V)
-Selection of rice, vegetables and potato
-Bread and butter pudding with custard</t>
-  </si>
-  <si>
-    <t>Rocket with crispy beef bacon, roma tomatoes(DF,GF)
-Selection of fruits and garden components
-Lemon and herb chicken breast fillet with capers and dill(DF)
-Seasame crusted market fish fillet with soba noodles, snow peas, shitake mushroom, ponzu(DF)
-Broccoli and kale with black beans, spiced corn and pickled red cabbage(V,DF,LG)
-Selection of rice, vegetables and potato
-Chocoloate mousse with mixed berry compote(LG)</t>
-  </si>
-  <si>
-    <t>Superfood salad with turmeric cauliflower, pumpkin, green bean, red quinoa, fresh mint, spinach and minted yoghurt(LG)
-Selection of fruits and garden components
-Spicy lamb balls with black mole, polenta and chimichurri(LG)
-Yellow chicken, roasted coconut, spiced yoghurt with green chilli relish(LG)
-Sweet potato and chickpea korma with coconut(V,LG,DF)
-Selection of rice, vegetables and potato
-Eton Mess with fresh seasonal berries, meringue and chantlly cream(LG)</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee &amp; selection orleas
-Selection of cereals including gluten free cereal
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (GF, DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection of canned fruits (LG, DF)
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks. espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (GF, DF)
-Fresh fruit salad of seasonal fruits, whole seasona fruits and selection of canned fruits
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
-Poached eggs, beef bacon, potato gems, baked beans &amp; tomato spaghetti (LG)</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (GF, DF)
-Fresh fruit salad of seasonal fruits, whole seasong fruits and selection of canned fruits
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee &amp; selection orleas
-Selection of cereals including gluten free cereal
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (GF, DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection of canned fruits (LG, DF)
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
-Scrambled eggs, beef sausages, roasted fresh tomatoes, baked beans &amp; tomato spaghetti (DF)</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee &amp; selection of teas
-Selection of cereals including gluten free cereal
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (GF, DF)
-Fresh fruit salad of seasonal fruits, whole seasong fruits and selection of canned fruits
-Natural yoghurt &amp; flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread</t>
-  </si>
-  <si>
-    <t>Scrambled eggs, beef bacon, roasted mushrooms, baked beans &amp; tomato spaghetti (DF) 
-Waffles with maple syrup</t>
-  </si>
-  <si>
-    <t>Poached eggs, beef bacon, hash browns &amp; backed beans (LG, DF)
-Corn fritters</t>
-  </si>
-  <si>
-    <t>Green power salad with avocado, spinach green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts, pumpkin seed (V, DF, GF)
-Selection of seasonal truits, tresh garder components &amp; breads, including gluten tree bread
-Beef pastrami, sliced cheese, sliced tomato, siced salami, pickles, avocado sauerkraut, cucumber (LG, DF)
-Beef &amp; mushroom pie
-Roasted vegetable &amp; feta frittata (V, LG)</t>
-  </si>
-  <si>
-    <t>Lentil soup (DF, LG)
-Chicken caesar salad with arilled chicken, beet bacon. baby cos, croutons, boiled egg, parmesa cheese, chives
-Selection of seasonal fruits, fresh garden components &amp; breads, including gluten free bread
-Beet pastrami, sliced cheese, sliced tomato, sliced roast beef, roasted peppers, pickles, red cabagge (LG, DF)
-Fish burgers with sweet potato fries, baby cos lettuce &amp; house made tartare sauce (DF)
-Spanakopita casserole with spinach &amp; feta cheese (V)</t>
-  </si>
-  <si>
-    <t>Fusilli pasta salad with basil pesto, cherry tomatoes, bocconcini, radicchio, kalamata olives, olive oil &amp; pine nuts (V)
-Selection of seasonal fruits &amp; fresh garden components
-Egg florentine wrap with baby spinach &amp; parmesan cheese (V)
-Shaved turkey on rye bread with cucumber, pickled red cabbage, spiced tomato kasoundi &amp; mixed leaves (DF)
-Chunky tuna panini with avocado, lemon, chive mayonnaise &amp; shaved fennel (DF)
-Sea salt crisps &amp; sweer potato crisps</t>
-  </si>
-  <si>
-    <t>Garden salad with poached chicken, green basil (DF, LG)
-Selection of seasonal fruits, fresh garden components &amp; breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced pastrami, cucumber, avocado, spinach, tuna (LG, DF)
-Charred beef with rice noodles, greens &amp; fiery sambal (Dr, LO)
-Warm lentil and potato salad with chat potatoes, avocado &amp; English spinach (V, LG, DF)</t>
-  </si>
-  <si>
-    <t>French onion soup
-Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives &amp; feta (LG)
-Selection of seasonal fruits, fresh garden components &amp; breads, including gluten free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced turkey, egg, mushroom, red cabagge, tuna (LG, DF)
-Real chicken broth with egg noodles, sliced Char Siu &amp; Asian greens (DF)
-Ramen noodle soup with tasty brown noodles &amp; Asian vegetables (V, DF)</t>
-  </si>
-  <si>
-    <t>Rocket with crispy beet bacon, roma tomatoes (DF, LG)
-Selection of seasonal truits &amp; fresh garden components
-Greek chicken avros with tzatziki &amp; wild rice
-Smoked tofu and hummus with tofu, pilaf rice &amp; pickled vegetables (V, LG, DF)</t>
-  </si>
-  <si>
-    <t>Superfood salas with tumeric cauliflower, pumpkin, green bean, red quinoa, fresh mint, spinach &amp; minted yoghurt (LG, DF)
-Selection of seasonal fruits &amp; fresh garden components 
-Chicken paella with veggies &amp; rice cooked in a saffron broth (LG, DF)
-Mexican stuffed peppers with tortilla chips, sour cream &amp; salsa (V, DF)</t>
-  </si>
-  <si>
-    <t>Thai BBQ chicken salad with rainbow slaw bean sprouts, cucumber, rice noodles, red onion fried onion, mint, lime &amp; Nam Jim dressing (DF, LG)
-Selection of fruits &amp; garden components
-Chicken and ricotta cannelloni baked in a rich tomato sauce 
-Malavsian satay chicken with Asian greens (LG)
-Mushroom Bolognese with angel hair pasta (V)
-Selection of rice, vegetables &amp; potato
-Selection of ice-cream cups (GF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiced sweet potalo salad with charred corn, pickled radish, green beans, fresh mint &amp; ranch dressing (LG)
-Selection of fruits &amp; garden components
-Chicken parmigiana with rich tomato sauce grilled cheese
-Steamed fish in ginger with a soba noodle stir fry (DF)
-Japanese Curry with potato &amp; carrots (V, LG)
-Selection or rice, vegetables &amp; potato
-Buttersotch pudding with caramel sauce </t>
-  </si>
-  <si>
-    <t>Miso fish salad with soy beans, green peas &amp; broccoli with barley, baby spinach &amp; ponzu
-dressing (DF)
-Selection of fruits &amp; garden comonents
-Home style lamb casserole with chunks of lamb stewed to tender (LG)
-Red curry beef with stir fry (LG)
-Lentil and mushroom pasta in a rich tomato sauce (V, DF)
-Selection of rice, vegetables &amp; potato
-Cheesecake with butter crumbs and blueberry coulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roasted peaches &amp; bocconcini salad will green beans, pomegranates basil, baby gen leaves &amp; yoghurt, miso dressing (LG)
-Selection of fruits &amp; garden components
-Basil and mustard beef with slow cooked potato (LG. DF)
-Lamb stir fry with chilli &amp; mint (LG)
-Spiced braised tofu with areens &amp; rice (V, LG, DF)
-Selection of rice, vegetables &amp; potato
-Belgium chocolate brownie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roasted harissa chicken salad with cucumber, ginger, chilli &amp; rainbow slaw with fresh herbs &amp; garlic toum dressing (DF, LG)
-Selection of fruits &amp; garden components 
-Jacket potato topped with Mexican ground beef, sour cream &amp; guacamole (DF, LG)
-Chicken Pad Siu with stir fry flat noodles &amp; crushed nuts (DF LG)
-Tofu Pad Siu with stir fry flat noodles &amp; crushed nuts (v, DF, LG)
-Selection of rice, vegetables &amp; potato
-Bread &amp; butter pudding with custard </t>
-  </si>
-  <si>
-    <t>Heirloom tomato, cucumber &amp; radicchio panzanella bread salad with orange, radish &amp; sherry dressing (DF)
-Selection of fruits &amp; garden components
-Pulled beef nachos topped with salsa, sour cream &amp; guacamole
-Soy and orange chicken stir fry with egg noodles (DF)
-Adobo mushroom tacos filled with onion, garlic &amp; herbs (V, DF)
-Selection of rice, vegetables &amp; potato
-Chocolate mousse with mixed berry compote (LG)</t>
-  </si>
-  <si>
-    <t>Marinated beef brisket in red bean, honey &amp; soy salas with pickled daikon, wild rice, wasabi ailo &amp; nori, togarashi spice (DF, GF)
-Selection of fruits &amp; garden components 
-Asparagus and chicken quiche with seasonal vegetables 
-Hainanese chicken served with fresh herbs &amp; Asian greens (DF, LG) 
-Mushroom and cashew cream pasta (V)
-Selection of rice, vegetables &amp; potato
-Eton Mess with fresh seasonal berries, meringue and chantilly cream (LG)</t>
+Potato and seeded mustard salad with sweet potato, roasted carrots and vill (V,LG)
+Cheesecake with butter crumbs and passionfruit jelly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lamb and chickpea Tagine(LG,DF)
+Korean glazed chicken with cabbage and capsicum(LG,DF)
+Moroccan spiced cauliflower with chickpea, apricot and zucchini(LG,VG)
+Selection of rice, vegetables and polenta
+Pasta salad with cherry tomatoes, bocconci, radicchio, kalamata olives and pesto dressing(V)
+Chai Tea Bread pudding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Tandoori Chicken (LG, DF)
+Slow cook Malaysian beef massaman (LG,DF)
+Paneer in lentil dahl(LG,VG)
+Naan bread, basmati rice &amp; assorted vegetables (V)
+Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn(LG,VG)
+Vanilla Brulee(LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs Pizza of the Week
+BBQ Chicken
+Roast capsicum, pumpkin harissa sauce, pepitas and feta cheese
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
+Matcha Bread Pudding
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA NIGHT:
+1. Choose your pasta
+2. Pick your sauce
+3.Grab some garlic bread
+4. Sprinkle cheese
+5. Add some veggies
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
+Lemon Meringue Tart
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed (LG, VG)
+Chocolate Brownie (LG)
+</t>
   </si>
   <si>
     <t>Fresh juices, selection of milks, espresso coffee and selection of teas
@@ -583,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -596,18 +559,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -630,13 +603,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -647,7 +623,7 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -917,14 +893,14 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -938,72 +914,72 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1058,95 +1034,95 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1193,3090 +1169,3090 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="288.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="123.0" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="264.0" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" ht="264.0" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" ht="198.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" ht="198.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6">
-      <c r="H6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7">
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8">
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9">
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10">
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11">
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12">
-      <c r="H12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13">
-      <c r="H13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="H14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15">
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="H16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="H17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="H18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="H19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="H20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21">
-      <c r="H21" s="7"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22">
-      <c r="H22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23">
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24">
-      <c r="H24" s="7"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25">
-      <c r="H25" s="7"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26">
-      <c r="H26" s="7"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27">
-      <c r="H27" s="7"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28">
-      <c r="H28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29">
-      <c r="H29" s="7"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30">
-      <c r="H30" s="7"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="H31" s="7"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32">
-      <c r="H32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="H33" s="7"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="H34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35">
-      <c r="H35" s="7"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36">
-      <c r="H36" s="7"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37">
-      <c r="H37" s="7"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38">
-      <c r="H38" s="7"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39">
-      <c r="H39" s="7"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40">
-      <c r="H40" s="7"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41">
-      <c r="H41" s="7"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42">
-      <c r="H42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43">
-      <c r="H43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44">
-      <c r="H44" s="7"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45">
-      <c r="H45" s="7"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46">
-      <c r="H46" s="7"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47">
-      <c r="H47" s="7"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48">
-      <c r="H48" s="7"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49">
-      <c r="H49" s="7"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50">
-      <c r="H50" s="7"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51">
-      <c r="H51" s="7"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52">
-      <c r="H52" s="7"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53">
-      <c r="H53" s="7"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54">
-      <c r="H54" s="7"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55">
-      <c r="H55" s="7"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56">
-      <c r="H56" s="7"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57">
-      <c r="H57" s="7"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58">
-      <c r="H58" s="7"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59">
-      <c r="H59" s="7"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60">
-      <c r="H60" s="7"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61">
-      <c r="H61" s="7"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62">
-      <c r="H62" s="7"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63">
-      <c r="H63" s="7"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64">
-      <c r="H64" s="7"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65">
-      <c r="H65" s="7"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66">
-      <c r="H66" s="7"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67">
-      <c r="H67" s="7"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68">
-      <c r="H68" s="7"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69">
-      <c r="H69" s="7"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70">
-      <c r="H70" s="7"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71">
-      <c r="H71" s="7"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72">
-      <c r="H72" s="7"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73">
-      <c r="H73" s="7"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74">
-      <c r="H74" s="7"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75">
-      <c r="H75" s="7"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76">
-      <c r="H76" s="7"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77">
-      <c r="H77" s="7"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78">
-      <c r="H78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79">
-      <c r="H79" s="7"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80">
-      <c r="H80" s="7"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81">
-      <c r="H81" s="7"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82">
-      <c r="H82" s="7"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83">
-      <c r="H83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84">
-      <c r="H84" s="7"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85">
-      <c r="H85" s="7"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86">
-      <c r="H86" s="7"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87">
-      <c r="H87" s="7"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88">
-      <c r="H88" s="7"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89">
-      <c r="H89" s="7"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90">
-      <c r="H90" s="7"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91">
-      <c r="H91" s="7"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92">
-      <c r="H92" s="7"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93">
-      <c r="H93" s="7"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94">
-      <c r="H94" s="7"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95">
-      <c r="H95" s="7"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96">
-      <c r="H96" s="7"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97">
-      <c r="H97" s="7"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98">
-      <c r="H98" s="7"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99">
-      <c r="H99" s="7"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100">
-      <c r="H100" s="7"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101">
-      <c r="H101" s="7"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102">
-      <c r="H102" s="7"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103">
-      <c r="H103" s="7"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104">
-      <c r="H104" s="7"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105">
-      <c r="H105" s="7"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106">
-      <c r="H106" s="7"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107">
-      <c r="H107" s="7"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108">
-      <c r="H108" s="7"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109">
-      <c r="H109" s="7"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110">
-      <c r="H110" s="7"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111">
-      <c r="H111" s="7"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112">
-      <c r="H112" s="7"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113">
-      <c r="H113" s="7"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114">
-      <c r="H114" s="7"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115">
-      <c r="H115" s="7"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116">
-      <c r="H116" s="7"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117">
-      <c r="H117" s="7"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118">
-      <c r="H118" s="7"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119">
-      <c r="H119" s="7"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120">
-      <c r="H120" s="7"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121">
-      <c r="H121" s="7"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122">
-      <c r="H122" s="7"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123">
-      <c r="H123" s="7"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124">
-      <c r="H124" s="7"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125">
-      <c r="H125" s="7"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126">
-      <c r="H126" s="7"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127">
-      <c r="H127" s="7"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128">
-      <c r="H128" s="7"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129">
-      <c r="H129" s="7"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130">
-      <c r="H130" s="7"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131">
-      <c r="H131" s="7"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132">
-      <c r="H132" s="7"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133">
-      <c r="H133" s="7"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134">
-      <c r="H134" s="7"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135">
-      <c r="H135" s="7"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136">
-      <c r="H136" s="7"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137">
-      <c r="H137" s="7"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138">
-      <c r="H138" s="7"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139">
-      <c r="H139" s="7"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140">
-      <c r="H140" s="7"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141">
-      <c r="H141" s="7"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142">
-      <c r="H142" s="7"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143">
-      <c r="H143" s="7"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144">
-      <c r="H144" s="7"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145">
-      <c r="H145" s="7"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146">
-      <c r="H146" s="7"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147">
-      <c r="H147" s="7"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148">
-      <c r="H148" s="7"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149">
-      <c r="H149" s="7"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150">
-      <c r="H150" s="7"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151">
-      <c r="H151" s="7"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152">
-      <c r="H152" s="7"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153">
-      <c r="H153" s="7"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154">
-      <c r="H154" s="7"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155">
-      <c r="H155" s="7"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156">
-      <c r="H156" s="7"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157">
-      <c r="H157" s="7"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158">
-      <c r="H158" s="7"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159">
-      <c r="H159" s="7"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160">
-      <c r="H160" s="7"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161">
-      <c r="H161" s="7"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162">
-      <c r="H162" s="7"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163">
-      <c r="H163" s="7"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164">
-      <c r="H164" s="7"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165">
-      <c r="H165" s="7"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166">
-      <c r="H166" s="7"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167">
-      <c r="H167" s="7"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168">
-      <c r="H168" s="7"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169">
-      <c r="H169" s="7"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170">
-      <c r="H170" s="7"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171">
-      <c r="H171" s="7"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172">
-      <c r="H172" s="7"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173">
-      <c r="H173" s="7"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174">
-      <c r="H174" s="7"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175">
-      <c r="H175" s="7"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176">
-      <c r="H176" s="7"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177">
-      <c r="H177" s="7"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178">
-      <c r="H178" s="7"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179">
-      <c r="H179" s="7"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180">
-      <c r="H180" s="7"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181">
-      <c r="H181" s="7"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182">
-      <c r="H182" s="7"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183">
-      <c r="H183" s="7"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184">
-      <c r="H184" s="7"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185">
-      <c r="H185" s="7"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186">
-      <c r="H186" s="7"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187">
-      <c r="H187" s="7"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188">
-      <c r="H188" s="7"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189">
-      <c r="H189" s="7"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190">
-      <c r="H190" s="7"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191">
-      <c r="H191" s="7"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192">
-      <c r="H192" s="7"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193">
-      <c r="H193" s="7"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194">
-      <c r="H194" s="7"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195">
-      <c r="H195" s="7"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196">
-      <c r="H196" s="7"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197">
-      <c r="H197" s="7"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198">
-      <c r="H198" s="7"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199">
-      <c r="H199" s="7"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200">
-      <c r="H200" s="7"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201">
-      <c r="H201" s="7"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202">
-      <c r="H202" s="7"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203">
-      <c r="H203" s="7"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204">
-      <c r="H204" s="7"/>
+      <c r="H204" s="8"/>
     </row>
     <row r="205">
-      <c r="H205" s="7"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206">
-      <c r="H206" s="7"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207">
-      <c r="H207" s="7"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208">
-      <c r="H208" s="7"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209">
-      <c r="H209" s="7"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210">
-      <c r="H210" s="7"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211">
-      <c r="H211" s="7"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212">
-      <c r="H212" s="7"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213">
-      <c r="H213" s="7"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214">
-      <c r="H214" s="7"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215">
-      <c r="H215" s="7"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216">
-      <c r="H216" s="7"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217">
-      <c r="H217" s="7"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218">
-      <c r="H218" s="7"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219">
-      <c r="H219" s="7"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220">
-      <c r="H220" s="7"/>
+      <c r="H220" s="8"/>
     </row>
     <row r="221">
-      <c r="H221" s="7"/>
+      <c r="H221" s="8"/>
     </row>
     <row r="222">
-      <c r="H222" s="7"/>
+      <c r="H222" s="8"/>
     </row>
     <row r="223">
-      <c r="H223" s="7"/>
+      <c r="H223" s="8"/>
     </row>
     <row r="224">
-      <c r="H224" s="7"/>
+      <c r="H224" s="8"/>
     </row>
     <row r="225">
-      <c r="H225" s="7"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226">
-      <c r="H226" s="7"/>
+      <c r="H226" s="8"/>
     </row>
     <row r="227">
-      <c r="H227" s="7"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228">
-      <c r="H228" s="7"/>
+      <c r="H228" s="8"/>
     </row>
     <row r="229">
-      <c r="H229" s="7"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230">
-      <c r="H230" s="7"/>
+      <c r="H230" s="8"/>
     </row>
     <row r="231">
-      <c r="H231" s="7"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232">
-      <c r="H232" s="7"/>
+      <c r="H232" s="8"/>
     </row>
     <row r="233">
-      <c r="H233" s="7"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234">
-      <c r="H234" s="7"/>
+      <c r="H234" s="8"/>
     </row>
     <row r="235">
-      <c r="H235" s="7"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236">
-      <c r="H236" s="7"/>
+      <c r="H236" s="8"/>
     </row>
     <row r="237">
-      <c r="H237" s="7"/>
+      <c r="H237" s="8"/>
     </row>
     <row r="238">
-      <c r="H238" s="7"/>
+      <c r="H238" s="8"/>
     </row>
     <row r="239">
-      <c r="H239" s="7"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240">
-      <c r="H240" s="7"/>
+      <c r="H240" s="8"/>
     </row>
     <row r="241">
-      <c r="H241" s="7"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242">
-      <c r="H242" s="7"/>
+      <c r="H242" s="8"/>
     </row>
     <row r="243">
-      <c r="H243" s="7"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244">
-      <c r="H244" s="7"/>
+      <c r="H244" s="8"/>
     </row>
     <row r="245">
-      <c r="H245" s="7"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246">
-      <c r="H246" s="7"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247">
-      <c r="H247" s="7"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248">
-      <c r="H248" s="7"/>
+      <c r="H248" s="8"/>
     </row>
     <row r="249">
-      <c r="H249" s="7"/>
+      <c r="H249" s="8"/>
     </row>
     <row r="250">
-      <c r="H250" s="7"/>
+      <c r="H250" s="8"/>
     </row>
     <row r="251">
-      <c r="H251" s="7"/>
+      <c r="H251" s="8"/>
     </row>
     <row r="252">
-      <c r="H252" s="7"/>
+      <c r="H252" s="8"/>
     </row>
     <row r="253">
-      <c r="H253" s="7"/>
+      <c r="H253" s="8"/>
     </row>
     <row r="254">
-      <c r="H254" s="7"/>
+      <c r="H254" s="8"/>
     </row>
     <row r="255">
-      <c r="H255" s="7"/>
+      <c r="H255" s="8"/>
     </row>
     <row r="256">
-      <c r="H256" s="7"/>
+      <c r="H256" s="8"/>
     </row>
     <row r="257">
-      <c r="H257" s="7"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258">
-      <c r="H258" s="7"/>
+      <c r="H258" s="8"/>
     </row>
     <row r="259">
-      <c r="H259" s="7"/>
+      <c r="H259" s="8"/>
     </row>
     <row r="260">
-      <c r="H260" s="7"/>
+      <c r="H260" s="8"/>
     </row>
     <row r="261">
-      <c r="H261" s="7"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262">
-      <c r="H262" s="7"/>
+      <c r="H262" s="8"/>
     </row>
     <row r="263">
-      <c r="H263" s="7"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264">
-      <c r="H264" s="7"/>
+      <c r="H264" s="8"/>
     </row>
     <row r="265">
-      <c r="H265" s="7"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266">
-      <c r="H266" s="7"/>
+      <c r="H266" s="8"/>
     </row>
     <row r="267">
-      <c r="H267" s="7"/>
+      <c r="H267" s="8"/>
     </row>
     <row r="268">
-      <c r="H268" s="7"/>
+      <c r="H268" s="8"/>
     </row>
     <row r="269">
-      <c r="H269" s="7"/>
+      <c r="H269" s="8"/>
     </row>
     <row r="270">
-      <c r="H270" s="7"/>
+      <c r="H270" s="8"/>
     </row>
     <row r="271">
-      <c r="H271" s="7"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272">
-      <c r="H272" s="7"/>
+      <c r="H272" s="8"/>
     </row>
     <row r="273">
-      <c r="H273" s="7"/>
+      <c r="H273" s="8"/>
     </row>
     <row r="274">
-      <c r="H274" s="7"/>
+      <c r="H274" s="8"/>
     </row>
     <row r="275">
-      <c r="H275" s="7"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276">
-      <c r="H276" s="7"/>
+      <c r="H276" s="8"/>
     </row>
     <row r="277">
-      <c r="H277" s="7"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278">
-      <c r="H278" s="7"/>
+      <c r="H278" s="8"/>
     </row>
     <row r="279">
-      <c r="H279" s="7"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280">
-      <c r="H280" s="7"/>
+      <c r="H280" s="8"/>
     </row>
     <row r="281">
-      <c r="H281" s="7"/>
+      <c r="H281" s="8"/>
     </row>
     <row r="282">
-      <c r="H282" s="7"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283">
-      <c r="H283" s="7"/>
+      <c r="H283" s="8"/>
     </row>
     <row r="284">
-      <c r="H284" s="7"/>
+      <c r="H284" s="8"/>
     </row>
     <row r="285">
-      <c r="H285" s="7"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286">
-      <c r="H286" s="7"/>
+      <c r="H286" s="8"/>
     </row>
     <row r="287">
-      <c r="H287" s="7"/>
+      <c r="H287" s="8"/>
     </row>
     <row r="288">
-      <c r="H288" s="7"/>
+      <c r="H288" s="8"/>
     </row>
     <row r="289">
-      <c r="H289" s="7"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290">
-      <c r="H290" s="7"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291">
-      <c r="H291" s="7"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292">
-      <c r="H292" s="7"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293">
-      <c r="H293" s="7"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294">
-      <c r="H294" s="7"/>
+      <c r="H294" s="8"/>
     </row>
     <row r="295">
-      <c r="H295" s="7"/>
+      <c r="H295" s="8"/>
     </row>
     <row r="296">
-      <c r="H296" s="7"/>
+      <c r="H296" s="8"/>
     </row>
     <row r="297">
-      <c r="H297" s="7"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298">
-      <c r="H298" s="7"/>
+      <c r="H298" s="8"/>
     </row>
     <row r="299">
-      <c r="H299" s="7"/>
+      <c r="H299" s="8"/>
     </row>
     <row r="300">
-      <c r="H300" s="7"/>
+      <c r="H300" s="8"/>
     </row>
     <row r="301">
-      <c r="H301" s="7"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302">
-      <c r="H302" s="7"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303">
-      <c r="H303" s="7"/>
+      <c r="H303" s="8"/>
     </row>
     <row r="304">
-      <c r="H304" s="7"/>
+      <c r="H304" s="8"/>
     </row>
     <row r="305">
-      <c r="H305" s="7"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306">
-      <c r="H306" s="7"/>
+      <c r="H306" s="8"/>
     </row>
     <row r="307">
-      <c r="H307" s="7"/>
+      <c r="H307" s="8"/>
     </row>
     <row r="308">
-      <c r="H308" s="7"/>
+      <c r="H308" s="8"/>
     </row>
     <row r="309">
-      <c r="H309" s="7"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310">
-      <c r="H310" s="7"/>
+      <c r="H310" s="8"/>
     </row>
     <row r="311">
-      <c r="H311" s="7"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312">
-      <c r="H312" s="7"/>
+      <c r="H312" s="8"/>
     </row>
     <row r="313">
-      <c r="H313" s="7"/>
+      <c r="H313" s="8"/>
     </row>
     <row r="314">
-      <c r="H314" s="7"/>
+      <c r="H314" s="8"/>
     </row>
     <row r="315">
-      <c r="H315" s="7"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316">
-      <c r="H316" s="7"/>
+      <c r="H316" s="8"/>
     </row>
     <row r="317">
-      <c r="H317" s="7"/>
+      <c r="H317" s="8"/>
     </row>
     <row r="318">
-      <c r="H318" s="7"/>
+      <c r="H318" s="8"/>
     </row>
     <row r="319">
-      <c r="H319" s="7"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320">
-      <c r="H320" s="7"/>
+      <c r="H320" s="8"/>
     </row>
     <row r="321">
-      <c r="H321" s="7"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322">
-      <c r="H322" s="7"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323">
-      <c r="H323" s="7"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324">
-      <c r="H324" s="7"/>
+      <c r="H324" s="8"/>
     </row>
     <row r="325">
-      <c r="H325" s="7"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326">
-      <c r="H326" s="7"/>
+      <c r="H326" s="8"/>
     </row>
     <row r="327">
-      <c r="H327" s="7"/>
+      <c r="H327" s="8"/>
     </row>
     <row r="328">
-      <c r="H328" s="7"/>
+      <c r="H328" s="8"/>
     </row>
     <row r="329">
-      <c r="H329" s="7"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330">
-      <c r="H330" s="7"/>
+      <c r="H330" s="8"/>
     </row>
     <row r="331">
-      <c r="H331" s="7"/>
+      <c r="H331" s="8"/>
     </row>
     <row r="332">
-      <c r="H332" s="7"/>
+      <c r="H332" s="8"/>
     </row>
     <row r="333">
-      <c r="H333" s="7"/>
+      <c r="H333" s="8"/>
     </row>
     <row r="334">
-      <c r="H334" s="7"/>
+      <c r="H334" s="8"/>
     </row>
     <row r="335">
-      <c r="H335" s="7"/>
+      <c r="H335" s="8"/>
     </row>
     <row r="336">
-      <c r="H336" s="7"/>
+      <c r="H336" s="8"/>
     </row>
     <row r="337">
-      <c r="H337" s="7"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338">
-      <c r="H338" s="7"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339">
-      <c r="H339" s="7"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340">
-      <c r="H340" s="7"/>
+      <c r="H340" s="8"/>
     </row>
     <row r="341">
-      <c r="H341" s="7"/>
+      <c r="H341" s="8"/>
     </row>
     <row r="342">
-      <c r="H342" s="7"/>
+      <c r="H342" s="8"/>
     </row>
     <row r="343">
-      <c r="H343" s="7"/>
+      <c r="H343" s="8"/>
     </row>
     <row r="344">
-      <c r="H344" s="7"/>
+      <c r="H344" s="8"/>
     </row>
     <row r="345">
-      <c r="H345" s="7"/>
+      <c r="H345" s="8"/>
     </row>
     <row r="346">
-      <c r="H346" s="7"/>
+      <c r="H346" s="8"/>
     </row>
     <row r="347">
-      <c r="H347" s="7"/>
+      <c r="H347" s="8"/>
     </row>
     <row r="348">
-      <c r="H348" s="7"/>
+      <c r="H348" s="8"/>
     </row>
     <row r="349">
-      <c r="H349" s="7"/>
+      <c r="H349" s="8"/>
     </row>
     <row r="350">
-      <c r="H350" s="7"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351">
-      <c r="H351" s="7"/>
+      <c r="H351" s="8"/>
     </row>
     <row r="352">
-      <c r="H352" s="7"/>
+      <c r="H352" s="8"/>
     </row>
     <row r="353">
-      <c r="H353" s="7"/>
+      <c r="H353" s="8"/>
     </row>
     <row r="354">
-      <c r="H354" s="7"/>
+      <c r="H354" s="8"/>
     </row>
     <row r="355">
-      <c r="H355" s="7"/>
+      <c r="H355" s="8"/>
     </row>
     <row r="356">
-      <c r="H356" s="7"/>
+      <c r="H356" s="8"/>
     </row>
     <row r="357">
-      <c r="H357" s="7"/>
+      <c r="H357" s="8"/>
     </row>
     <row r="358">
-      <c r="H358" s="7"/>
+      <c r="H358" s="8"/>
     </row>
     <row r="359">
-      <c r="H359" s="7"/>
+      <c r="H359" s="8"/>
     </row>
     <row r="360">
-      <c r="H360" s="7"/>
+      <c r="H360" s="8"/>
     </row>
     <row r="361">
-      <c r="H361" s="7"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362">
-      <c r="H362" s="7"/>
+      <c r="H362" s="8"/>
     </row>
     <row r="363">
-      <c r="H363" s="7"/>
+      <c r="H363" s="8"/>
     </row>
     <row r="364">
-      <c r="H364" s="7"/>
+      <c r="H364" s="8"/>
     </row>
     <row r="365">
-      <c r="H365" s="7"/>
+      <c r="H365" s="8"/>
     </row>
     <row r="366">
-      <c r="H366" s="7"/>
+      <c r="H366" s="8"/>
     </row>
     <row r="367">
-      <c r="H367" s="7"/>
+      <c r="H367" s="8"/>
     </row>
     <row r="368">
-      <c r="H368" s="7"/>
+      <c r="H368" s="8"/>
     </row>
     <row r="369">
-      <c r="H369" s="7"/>
+      <c r="H369" s="8"/>
     </row>
     <row r="370">
-      <c r="H370" s="7"/>
+      <c r="H370" s="8"/>
     </row>
     <row r="371">
-      <c r="H371" s="7"/>
+      <c r="H371" s="8"/>
     </row>
     <row r="372">
-      <c r="H372" s="7"/>
+      <c r="H372" s="8"/>
     </row>
     <row r="373">
-      <c r="H373" s="7"/>
+      <c r="H373" s="8"/>
     </row>
     <row r="374">
-      <c r="H374" s="7"/>
+      <c r="H374" s="8"/>
     </row>
     <row r="375">
-      <c r="H375" s="7"/>
+      <c r="H375" s="8"/>
     </row>
     <row r="376">
-      <c r="H376" s="7"/>
+      <c r="H376" s="8"/>
     </row>
     <row r="377">
-      <c r="H377" s="7"/>
+      <c r="H377" s="8"/>
     </row>
     <row r="378">
-      <c r="H378" s="7"/>
+      <c r="H378" s="8"/>
     </row>
     <row r="379">
-      <c r="H379" s="7"/>
+      <c r="H379" s="8"/>
     </row>
     <row r="380">
-      <c r="H380" s="7"/>
+      <c r="H380" s="8"/>
     </row>
     <row r="381">
-      <c r="H381" s="7"/>
+      <c r="H381" s="8"/>
     </row>
     <row r="382">
-      <c r="H382" s="7"/>
+      <c r="H382" s="8"/>
     </row>
     <row r="383">
-      <c r="H383" s="7"/>
+      <c r="H383" s="8"/>
     </row>
     <row r="384">
-      <c r="H384" s="7"/>
+      <c r="H384" s="8"/>
     </row>
     <row r="385">
-      <c r="H385" s="7"/>
+      <c r="H385" s="8"/>
     </row>
     <row r="386">
-      <c r="H386" s="7"/>
+      <c r="H386" s="8"/>
     </row>
     <row r="387">
-      <c r="H387" s="7"/>
+      <c r="H387" s="8"/>
     </row>
     <row r="388">
-      <c r="H388" s="7"/>
+      <c r="H388" s="8"/>
     </row>
     <row r="389">
-      <c r="H389" s="7"/>
+      <c r="H389" s="8"/>
     </row>
     <row r="390">
-      <c r="H390" s="7"/>
+      <c r="H390" s="8"/>
     </row>
     <row r="391">
-      <c r="H391" s="7"/>
+      <c r="H391" s="8"/>
     </row>
     <row r="392">
-      <c r="H392" s="7"/>
+      <c r="H392" s="8"/>
     </row>
     <row r="393">
-      <c r="H393" s="7"/>
+      <c r="H393" s="8"/>
     </row>
     <row r="394">
-      <c r="H394" s="7"/>
+      <c r="H394" s="8"/>
     </row>
     <row r="395">
-      <c r="H395" s="7"/>
+      <c r="H395" s="8"/>
     </row>
     <row r="396">
-      <c r="H396" s="7"/>
+      <c r="H396" s="8"/>
     </row>
     <row r="397">
-      <c r="H397" s="7"/>
+      <c r="H397" s="8"/>
     </row>
     <row r="398">
-      <c r="H398" s="7"/>
+      <c r="H398" s="8"/>
     </row>
     <row r="399">
-      <c r="H399" s="7"/>
+      <c r="H399" s="8"/>
     </row>
     <row r="400">
-      <c r="H400" s="7"/>
+      <c r="H400" s="8"/>
     </row>
     <row r="401">
-      <c r="H401" s="7"/>
+      <c r="H401" s="8"/>
     </row>
     <row r="402">
-      <c r="H402" s="7"/>
+      <c r="H402" s="8"/>
     </row>
     <row r="403">
-      <c r="H403" s="7"/>
+      <c r="H403" s="8"/>
     </row>
     <row r="404">
-      <c r="H404" s="7"/>
+      <c r="H404" s="8"/>
     </row>
     <row r="405">
-      <c r="H405" s="7"/>
+      <c r="H405" s="8"/>
     </row>
     <row r="406">
-      <c r="H406" s="7"/>
+      <c r="H406" s="8"/>
     </row>
     <row r="407">
-      <c r="H407" s="7"/>
+      <c r="H407" s="8"/>
     </row>
     <row r="408">
-      <c r="H408" s="7"/>
+      <c r="H408" s="8"/>
     </row>
     <row r="409">
-      <c r="H409" s="7"/>
+      <c r="H409" s="8"/>
     </row>
     <row r="410">
-      <c r="H410" s="7"/>
+      <c r="H410" s="8"/>
     </row>
     <row r="411">
-      <c r="H411" s="7"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412">
-      <c r="H412" s="7"/>
+      <c r="H412" s="8"/>
     </row>
     <row r="413">
-      <c r="H413" s="7"/>
+      <c r="H413" s="8"/>
     </row>
     <row r="414">
-      <c r="H414" s="7"/>
+      <c r="H414" s="8"/>
     </row>
     <row r="415">
-      <c r="H415" s="7"/>
+      <c r="H415" s="8"/>
     </row>
     <row r="416">
-      <c r="H416" s="7"/>
+      <c r="H416" s="8"/>
     </row>
     <row r="417">
-      <c r="H417" s="7"/>
+      <c r="H417" s="8"/>
     </row>
     <row r="418">
-      <c r="H418" s="7"/>
+      <c r="H418" s="8"/>
     </row>
     <row r="419">
-      <c r="H419" s="7"/>
+      <c r="H419" s="8"/>
     </row>
     <row r="420">
-      <c r="H420" s="7"/>
+      <c r="H420" s="8"/>
     </row>
     <row r="421">
-      <c r="H421" s="7"/>
+      <c r="H421" s="8"/>
     </row>
     <row r="422">
-      <c r="H422" s="7"/>
+      <c r="H422" s="8"/>
     </row>
     <row r="423">
-      <c r="H423" s="7"/>
+      <c r="H423" s="8"/>
     </row>
     <row r="424">
-      <c r="H424" s="7"/>
+      <c r="H424" s="8"/>
     </row>
     <row r="425">
-      <c r="H425" s="7"/>
+      <c r="H425" s="8"/>
     </row>
     <row r="426">
-      <c r="H426" s="7"/>
+      <c r="H426" s="8"/>
     </row>
     <row r="427">
-      <c r="H427" s="7"/>
+      <c r="H427" s="8"/>
     </row>
     <row r="428">
-      <c r="H428" s="7"/>
+      <c r="H428" s="8"/>
     </row>
     <row r="429">
-      <c r="H429" s="7"/>
+      <c r="H429" s="8"/>
     </row>
     <row r="430">
-      <c r="H430" s="7"/>
+      <c r="H430" s="8"/>
     </row>
     <row r="431">
-      <c r="H431" s="7"/>
+      <c r="H431" s="8"/>
     </row>
     <row r="432">
-      <c r="H432" s="7"/>
+      <c r="H432" s="8"/>
     </row>
     <row r="433">
-      <c r="H433" s="7"/>
+      <c r="H433" s="8"/>
     </row>
     <row r="434">
-      <c r="H434" s="7"/>
+      <c r="H434" s="8"/>
     </row>
     <row r="435">
-      <c r="H435" s="7"/>
+      <c r="H435" s="8"/>
     </row>
     <row r="436">
-      <c r="H436" s="7"/>
+      <c r="H436" s="8"/>
     </row>
     <row r="437">
-      <c r="H437" s="7"/>
+      <c r="H437" s="8"/>
     </row>
     <row r="438">
-      <c r="H438" s="7"/>
+      <c r="H438" s="8"/>
     </row>
     <row r="439">
-      <c r="H439" s="7"/>
+      <c r="H439" s="8"/>
     </row>
     <row r="440">
-      <c r="H440" s="7"/>
+      <c r="H440" s="8"/>
     </row>
     <row r="441">
-      <c r="H441" s="7"/>
+      <c r="H441" s="8"/>
     </row>
     <row r="442">
-      <c r="H442" s="7"/>
+      <c r="H442" s="8"/>
     </row>
     <row r="443">
-      <c r="H443" s="7"/>
+      <c r="H443" s="8"/>
     </row>
     <row r="444">
-      <c r="H444" s="7"/>
+      <c r="H444" s="8"/>
     </row>
     <row r="445">
-      <c r="H445" s="7"/>
+      <c r="H445" s="8"/>
     </row>
     <row r="446">
-      <c r="H446" s="7"/>
+      <c r="H446" s="8"/>
     </row>
     <row r="447">
-      <c r="H447" s="7"/>
+      <c r="H447" s="8"/>
     </row>
     <row r="448">
-      <c r="H448" s="7"/>
+      <c r="H448" s="8"/>
     </row>
     <row r="449">
-      <c r="H449" s="7"/>
+      <c r="H449" s="8"/>
     </row>
     <row r="450">
-      <c r="H450" s="7"/>
+      <c r="H450" s="8"/>
     </row>
     <row r="451">
-      <c r="H451" s="7"/>
+      <c r="H451" s="8"/>
     </row>
     <row r="452">
-      <c r="H452" s="7"/>
+      <c r="H452" s="8"/>
     </row>
     <row r="453">
-      <c r="H453" s="7"/>
+      <c r="H453" s="8"/>
     </row>
     <row r="454">
-      <c r="H454" s="7"/>
+      <c r="H454" s="8"/>
     </row>
     <row r="455">
-      <c r="H455" s="7"/>
+      <c r="H455" s="8"/>
     </row>
     <row r="456">
-      <c r="H456" s="7"/>
+      <c r="H456" s="8"/>
     </row>
     <row r="457">
-      <c r="H457" s="7"/>
+      <c r="H457" s="8"/>
     </row>
     <row r="458">
-      <c r="H458" s="7"/>
+      <c r="H458" s="8"/>
     </row>
     <row r="459">
-      <c r="H459" s="7"/>
+      <c r="H459" s="8"/>
     </row>
     <row r="460">
-      <c r="H460" s="7"/>
+      <c r="H460" s="8"/>
     </row>
     <row r="461">
-      <c r="H461" s="7"/>
+      <c r="H461" s="8"/>
     </row>
     <row r="462">
-      <c r="H462" s="7"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463">
-      <c r="H463" s="7"/>
+      <c r="H463" s="8"/>
     </row>
     <row r="464">
-      <c r="H464" s="7"/>
+      <c r="H464" s="8"/>
     </row>
     <row r="465">
-      <c r="H465" s="7"/>
+      <c r="H465" s="8"/>
     </row>
     <row r="466">
-      <c r="H466" s="7"/>
+      <c r="H466" s="8"/>
     </row>
     <row r="467">
-      <c r="H467" s="7"/>
+      <c r="H467" s="8"/>
     </row>
     <row r="468">
-      <c r="H468" s="7"/>
+      <c r="H468" s="8"/>
     </row>
     <row r="469">
-      <c r="H469" s="7"/>
+      <c r="H469" s="8"/>
     </row>
     <row r="470">
-      <c r="H470" s="7"/>
+      <c r="H470" s="8"/>
     </row>
     <row r="471">
-      <c r="H471" s="7"/>
+      <c r="H471" s="8"/>
     </row>
     <row r="472">
-      <c r="H472" s="7"/>
+      <c r="H472" s="8"/>
     </row>
     <row r="473">
-      <c r="H473" s="7"/>
+      <c r="H473" s="8"/>
     </row>
     <row r="474">
-      <c r="H474" s="7"/>
+      <c r="H474" s="8"/>
     </row>
     <row r="475">
-      <c r="H475" s="7"/>
+      <c r="H475" s="8"/>
     </row>
     <row r="476">
-      <c r="H476" s="7"/>
+      <c r="H476" s="8"/>
     </row>
     <row r="477">
-      <c r="H477" s="7"/>
+      <c r="H477" s="8"/>
     </row>
     <row r="478">
-      <c r="H478" s="7"/>
+      <c r="H478" s="8"/>
     </row>
     <row r="479">
-      <c r="H479" s="7"/>
+      <c r="H479" s="8"/>
     </row>
     <row r="480">
-      <c r="H480" s="7"/>
+      <c r="H480" s="8"/>
     </row>
     <row r="481">
-      <c r="H481" s="7"/>
+      <c r="H481" s="8"/>
     </row>
     <row r="482">
-      <c r="H482" s="7"/>
+      <c r="H482" s="8"/>
     </row>
     <row r="483">
-      <c r="H483" s="7"/>
+      <c r="H483" s="8"/>
     </row>
     <row r="484">
-      <c r="H484" s="7"/>
+      <c r="H484" s="8"/>
     </row>
     <row r="485">
-      <c r="H485" s="7"/>
+      <c r="H485" s="8"/>
     </row>
     <row r="486">
-      <c r="H486" s="7"/>
+      <c r="H486" s="8"/>
     </row>
     <row r="487">
-      <c r="H487" s="7"/>
+      <c r="H487" s="8"/>
     </row>
     <row r="488">
-      <c r="H488" s="7"/>
+      <c r="H488" s="8"/>
     </row>
     <row r="489">
-      <c r="H489" s="7"/>
+      <c r="H489" s="8"/>
     </row>
     <row r="490">
-      <c r="H490" s="7"/>
+      <c r="H490" s="8"/>
     </row>
     <row r="491">
-      <c r="H491" s="7"/>
+      <c r="H491" s="8"/>
     </row>
     <row r="492">
-      <c r="H492" s="7"/>
+      <c r="H492" s="8"/>
     </row>
     <row r="493">
-      <c r="H493" s="7"/>
+      <c r="H493" s="8"/>
     </row>
     <row r="494">
-      <c r="H494" s="7"/>
+      <c r="H494" s="8"/>
     </row>
     <row r="495">
-      <c r="H495" s="7"/>
+      <c r="H495" s="8"/>
     </row>
     <row r="496">
-      <c r="H496" s="7"/>
+      <c r="H496" s="8"/>
     </row>
     <row r="497">
-      <c r="H497" s="7"/>
+      <c r="H497" s="8"/>
     </row>
     <row r="498">
-      <c r="H498" s="7"/>
+      <c r="H498" s="8"/>
     </row>
     <row r="499">
-      <c r="H499" s="7"/>
+      <c r="H499" s="8"/>
     </row>
     <row r="500">
-      <c r="H500" s="7"/>
+      <c r="H500" s="8"/>
     </row>
     <row r="501">
-      <c r="H501" s="7"/>
+      <c r="H501" s="8"/>
     </row>
     <row r="502">
-      <c r="H502" s="7"/>
+      <c r="H502" s="8"/>
     </row>
     <row r="503">
-      <c r="H503" s="7"/>
+      <c r="H503" s="8"/>
     </row>
     <row r="504">
-      <c r="H504" s="7"/>
+      <c r="H504" s="8"/>
     </row>
     <row r="505">
-      <c r="H505" s="7"/>
+      <c r="H505" s="8"/>
     </row>
     <row r="506">
-      <c r="H506" s="7"/>
+      <c r="H506" s="8"/>
     </row>
     <row r="507">
-      <c r="H507" s="7"/>
+      <c r="H507" s="8"/>
     </row>
     <row r="508">
-      <c r="H508" s="7"/>
+      <c r="H508" s="8"/>
     </row>
     <row r="509">
-      <c r="H509" s="7"/>
+      <c r="H509" s="8"/>
     </row>
     <row r="510">
-      <c r="H510" s="7"/>
+      <c r="H510" s="8"/>
     </row>
     <row r="511">
-      <c r="H511" s="7"/>
+      <c r="H511" s="8"/>
     </row>
     <row r="512">
-      <c r="H512" s="7"/>
+      <c r="H512" s="8"/>
     </row>
     <row r="513">
-      <c r="H513" s="7"/>
+      <c r="H513" s="8"/>
     </row>
     <row r="514">
-      <c r="H514" s="7"/>
+      <c r="H514" s="8"/>
     </row>
     <row r="515">
-      <c r="H515" s="7"/>
+      <c r="H515" s="8"/>
     </row>
     <row r="516">
-      <c r="H516" s="7"/>
+      <c r="H516" s="8"/>
     </row>
     <row r="517">
-      <c r="H517" s="7"/>
+      <c r="H517" s="8"/>
     </row>
     <row r="518">
-      <c r="H518" s="7"/>
+      <c r="H518" s="8"/>
     </row>
     <row r="519">
-      <c r="H519" s="7"/>
+      <c r="H519" s="8"/>
     </row>
     <row r="520">
-      <c r="H520" s="7"/>
+      <c r="H520" s="8"/>
     </row>
     <row r="521">
-      <c r="H521" s="7"/>
+      <c r="H521" s="8"/>
     </row>
     <row r="522">
-      <c r="H522" s="7"/>
+      <c r="H522" s="8"/>
     </row>
     <row r="523">
-      <c r="H523" s="7"/>
+      <c r="H523" s="8"/>
     </row>
     <row r="524">
-      <c r="H524" s="7"/>
+      <c r="H524" s="8"/>
     </row>
     <row r="525">
-      <c r="H525" s="7"/>
+      <c r="H525" s="8"/>
     </row>
     <row r="526">
-      <c r="H526" s="7"/>
+      <c r="H526" s="8"/>
     </row>
     <row r="527">
-      <c r="H527" s="7"/>
+      <c r="H527" s="8"/>
     </row>
     <row r="528">
-      <c r="H528" s="7"/>
+      <c r="H528" s="8"/>
     </row>
     <row r="529">
-      <c r="H529" s="7"/>
+      <c r="H529" s="8"/>
     </row>
     <row r="530">
-      <c r="H530" s="7"/>
+      <c r="H530" s="8"/>
     </row>
     <row r="531">
-      <c r="H531" s="7"/>
+      <c r="H531" s="8"/>
     </row>
     <row r="532">
-      <c r="H532" s="7"/>
+      <c r="H532" s="8"/>
     </row>
     <row r="533">
-      <c r="H533" s="7"/>
+      <c r="H533" s="8"/>
     </row>
     <row r="534">
-      <c r="H534" s="7"/>
+      <c r="H534" s="8"/>
     </row>
     <row r="535">
-      <c r="H535" s="7"/>
+      <c r="H535" s="8"/>
     </row>
     <row r="536">
-      <c r="H536" s="7"/>
+      <c r="H536" s="8"/>
     </row>
     <row r="537">
-      <c r="H537" s="7"/>
+      <c r="H537" s="8"/>
     </row>
     <row r="538">
-      <c r="H538" s="7"/>
+      <c r="H538" s="8"/>
     </row>
     <row r="539">
-      <c r="H539" s="7"/>
+      <c r="H539" s="8"/>
     </row>
     <row r="540">
-      <c r="H540" s="7"/>
+      <c r="H540" s="8"/>
     </row>
     <row r="541">
-      <c r="H541" s="7"/>
+      <c r="H541" s="8"/>
     </row>
     <row r="542">
-      <c r="H542" s="7"/>
+      <c r="H542" s="8"/>
     </row>
     <row r="543">
-      <c r="H543" s="7"/>
+      <c r="H543" s="8"/>
     </row>
     <row r="544">
-      <c r="H544" s="7"/>
+      <c r="H544" s="8"/>
     </row>
     <row r="545">
-      <c r="H545" s="7"/>
+      <c r="H545" s="8"/>
     </row>
     <row r="546">
-      <c r="H546" s="7"/>
+      <c r="H546" s="8"/>
     </row>
     <row r="547">
-      <c r="H547" s="7"/>
+      <c r="H547" s="8"/>
     </row>
     <row r="548">
-      <c r="H548" s="7"/>
+      <c r="H548" s="8"/>
     </row>
     <row r="549">
-      <c r="H549" s="7"/>
+      <c r="H549" s="8"/>
     </row>
     <row r="550">
-      <c r="H550" s="7"/>
+      <c r="H550" s="8"/>
     </row>
     <row r="551">
-      <c r="H551" s="7"/>
+      <c r="H551" s="8"/>
     </row>
     <row r="552">
-      <c r="H552" s="7"/>
+      <c r="H552" s="8"/>
     </row>
     <row r="553">
-      <c r="H553" s="7"/>
+      <c r="H553" s="8"/>
     </row>
     <row r="554">
-      <c r="H554" s="7"/>
+      <c r="H554" s="8"/>
     </row>
     <row r="555">
-      <c r="H555" s="7"/>
+      <c r="H555" s="8"/>
     </row>
     <row r="556">
-      <c r="H556" s="7"/>
+      <c r="H556" s="8"/>
     </row>
     <row r="557">
-      <c r="H557" s="7"/>
+      <c r="H557" s="8"/>
     </row>
     <row r="558">
-      <c r="H558" s="7"/>
+      <c r="H558" s="8"/>
     </row>
     <row r="559">
-      <c r="H559" s="7"/>
+      <c r="H559" s="8"/>
     </row>
     <row r="560">
-      <c r="H560" s="7"/>
+      <c r="H560" s="8"/>
     </row>
     <row r="561">
-      <c r="H561" s="7"/>
+      <c r="H561" s="8"/>
     </row>
     <row r="562">
-      <c r="H562" s="7"/>
+      <c r="H562" s="8"/>
     </row>
     <row r="563">
-      <c r="H563" s="7"/>
+      <c r="H563" s="8"/>
     </row>
     <row r="564">
-      <c r="H564" s="7"/>
+      <c r="H564" s="8"/>
     </row>
     <row r="565">
-      <c r="H565" s="7"/>
+      <c r="H565" s="8"/>
     </row>
     <row r="566">
-      <c r="H566" s="7"/>
+      <c r="H566" s="8"/>
     </row>
     <row r="567">
-      <c r="H567" s="7"/>
+      <c r="H567" s="8"/>
     </row>
     <row r="568">
-      <c r="H568" s="7"/>
+      <c r="H568" s="8"/>
     </row>
     <row r="569">
-      <c r="H569" s="7"/>
+      <c r="H569" s="8"/>
     </row>
     <row r="570">
-      <c r="H570" s="7"/>
+      <c r="H570" s="8"/>
     </row>
     <row r="571">
-      <c r="H571" s="7"/>
+      <c r="H571" s="8"/>
     </row>
     <row r="572">
-      <c r="H572" s="7"/>
+      <c r="H572" s="8"/>
     </row>
     <row r="573">
-      <c r="H573" s="7"/>
+      <c r="H573" s="8"/>
     </row>
     <row r="574">
-      <c r="H574" s="7"/>
+      <c r="H574" s="8"/>
     </row>
     <row r="575">
-      <c r="H575" s="7"/>
+      <c r="H575" s="8"/>
     </row>
     <row r="576">
-      <c r="H576" s="7"/>
+      <c r="H576" s="8"/>
     </row>
     <row r="577">
-      <c r="H577" s="7"/>
+      <c r="H577" s="8"/>
     </row>
     <row r="578">
-      <c r="H578" s="7"/>
+      <c r="H578" s="8"/>
     </row>
     <row r="579">
-      <c r="H579" s="7"/>
+      <c r="H579" s="8"/>
     </row>
     <row r="580">
-      <c r="H580" s="7"/>
+      <c r="H580" s="8"/>
     </row>
     <row r="581">
-      <c r="H581" s="7"/>
+      <c r="H581" s="8"/>
     </row>
     <row r="582">
-      <c r="H582" s="7"/>
+      <c r="H582" s="8"/>
     </row>
     <row r="583">
-      <c r="H583" s="7"/>
+      <c r="H583" s="8"/>
     </row>
     <row r="584">
-      <c r="H584" s="7"/>
+      <c r="H584" s="8"/>
     </row>
     <row r="585">
-      <c r="H585" s="7"/>
+      <c r="H585" s="8"/>
     </row>
     <row r="586">
-      <c r="H586" s="7"/>
+      <c r="H586" s="8"/>
     </row>
     <row r="587">
-      <c r="H587" s="7"/>
+      <c r="H587" s="8"/>
     </row>
     <row r="588">
-      <c r="H588" s="7"/>
+      <c r="H588" s="8"/>
     </row>
     <row r="589">
-      <c r="H589" s="7"/>
+      <c r="H589" s="8"/>
     </row>
     <row r="590">
-      <c r="H590" s="7"/>
+      <c r="H590" s="8"/>
     </row>
     <row r="591">
-      <c r="H591" s="7"/>
+      <c r="H591" s="8"/>
     </row>
     <row r="592">
-      <c r="H592" s="7"/>
+      <c r="H592" s="8"/>
     </row>
     <row r="593">
-      <c r="H593" s="7"/>
+      <c r="H593" s="8"/>
     </row>
     <row r="594">
-      <c r="H594" s="7"/>
+      <c r="H594" s="8"/>
     </row>
     <row r="595">
-      <c r="H595" s="7"/>
+      <c r="H595" s="8"/>
     </row>
     <row r="596">
-      <c r="H596" s="7"/>
+      <c r="H596" s="8"/>
     </row>
     <row r="597">
-      <c r="H597" s="7"/>
+      <c r="H597" s="8"/>
     </row>
     <row r="598">
-      <c r="H598" s="7"/>
+      <c r="H598" s="8"/>
     </row>
     <row r="599">
-      <c r="H599" s="7"/>
+      <c r="H599" s="8"/>
     </row>
     <row r="600">
-      <c r="H600" s="7"/>
+      <c r="H600" s="8"/>
     </row>
     <row r="601">
-      <c r="H601" s="7"/>
+      <c r="H601" s="8"/>
     </row>
     <row r="602">
-      <c r="H602" s="7"/>
+      <c r="H602" s="8"/>
     </row>
     <row r="603">
-      <c r="H603" s="7"/>
+      <c r="H603" s="8"/>
     </row>
     <row r="604">
-      <c r="H604" s="7"/>
+      <c r="H604" s="8"/>
     </row>
     <row r="605">
-      <c r="H605" s="7"/>
+      <c r="H605" s="8"/>
     </row>
     <row r="606">
-      <c r="H606" s="7"/>
+      <c r="H606" s="8"/>
     </row>
     <row r="607">
-      <c r="H607" s="7"/>
+      <c r="H607" s="8"/>
     </row>
     <row r="608">
-      <c r="H608" s="7"/>
+      <c r="H608" s="8"/>
     </row>
     <row r="609">
-      <c r="H609" s="7"/>
+      <c r="H609" s="8"/>
     </row>
     <row r="610">
-      <c r="H610" s="7"/>
+      <c r="H610" s="8"/>
     </row>
     <row r="611">
-      <c r="H611" s="7"/>
+      <c r="H611" s="8"/>
     </row>
     <row r="612">
-      <c r="H612" s="7"/>
+      <c r="H612" s="8"/>
     </row>
     <row r="613">
-      <c r="H613" s="7"/>
+      <c r="H613" s="8"/>
     </row>
     <row r="614">
-      <c r="H614" s="7"/>
+      <c r="H614" s="8"/>
     </row>
     <row r="615">
-      <c r="H615" s="7"/>
+      <c r="H615" s="8"/>
     </row>
     <row r="616">
-      <c r="H616" s="7"/>
+      <c r="H616" s="8"/>
     </row>
     <row r="617">
-      <c r="H617" s="7"/>
+      <c r="H617" s="8"/>
     </row>
     <row r="618">
-      <c r="H618" s="7"/>
+      <c r="H618" s="8"/>
     </row>
     <row r="619">
-      <c r="H619" s="7"/>
+      <c r="H619" s="8"/>
     </row>
     <row r="620">
-      <c r="H620" s="7"/>
+      <c r="H620" s="8"/>
     </row>
     <row r="621">
-      <c r="H621" s="7"/>
+      <c r="H621" s="8"/>
     </row>
     <row r="622">
-      <c r="H622" s="7"/>
+      <c r="H622" s="8"/>
     </row>
     <row r="623">
-      <c r="H623" s="7"/>
+      <c r="H623" s="8"/>
     </row>
     <row r="624">
-      <c r="H624" s="7"/>
+      <c r="H624" s="8"/>
     </row>
     <row r="625">
-      <c r="H625" s="7"/>
+      <c r="H625" s="8"/>
     </row>
     <row r="626">
-      <c r="H626" s="7"/>
+      <c r="H626" s="8"/>
     </row>
     <row r="627">
-      <c r="H627" s="7"/>
+      <c r="H627" s="8"/>
     </row>
     <row r="628">
-      <c r="H628" s="7"/>
+      <c r="H628" s="8"/>
     </row>
     <row r="629">
-      <c r="H629" s="7"/>
+      <c r="H629" s="8"/>
     </row>
     <row r="630">
-      <c r="H630" s="7"/>
+      <c r="H630" s="8"/>
     </row>
     <row r="631">
-      <c r="H631" s="7"/>
+      <c r="H631" s="8"/>
     </row>
     <row r="632">
-      <c r="H632" s="7"/>
+      <c r="H632" s="8"/>
     </row>
     <row r="633">
-      <c r="H633" s="7"/>
+      <c r="H633" s="8"/>
     </row>
     <row r="634">
-      <c r="H634" s="7"/>
+      <c r="H634" s="8"/>
     </row>
     <row r="635">
-      <c r="H635" s="7"/>
+      <c r="H635" s="8"/>
     </row>
     <row r="636">
-      <c r="H636" s="7"/>
+      <c r="H636" s="8"/>
     </row>
     <row r="637">
-      <c r="H637" s="7"/>
+      <c r="H637" s="8"/>
     </row>
     <row r="638">
-      <c r="H638" s="7"/>
+      <c r="H638" s="8"/>
     </row>
     <row r="639">
-      <c r="H639" s="7"/>
+      <c r="H639" s="8"/>
     </row>
     <row r="640">
-      <c r="H640" s="7"/>
+      <c r="H640" s="8"/>
     </row>
     <row r="641">
-      <c r="H641" s="7"/>
+      <c r="H641" s="8"/>
     </row>
     <row r="642">
-      <c r="H642" s="7"/>
+      <c r="H642" s="8"/>
     </row>
     <row r="643">
-      <c r="H643" s="7"/>
+      <c r="H643" s="8"/>
     </row>
     <row r="644">
-      <c r="H644" s="7"/>
+      <c r="H644" s="8"/>
     </row>
     <row r="645">
-      <c r="H645" s="7"/>
+      <c r="H645" s="8"/>
     </row>
     <row r="646">
-      <c r="H646" s="7"/>
+      <c r="H646" s="8"/>
     </row>
     <row r="647">
-      <c r="H647" s="7"/>
+      <c r="H647" s="8"/>
     </row>
     <row r="648">
-      <c r="H648" s="7"/>
+      <c r="H648" s="8"/>
     </row>
     <row r="649">
-      <c r="H649" s="7"/>
+      <c r="H649" s="8"/>
     </row>
     <row r="650">
-      <c r="H650" s="7"/>
+      <c r="H650" s="8"/>
     </row>
     <row r="651">
-      <c r="H651" s="7"/>
+      <c r="H651" s="8"/>
     </row>
     <row r="652">
-      <c r="H652" s="7"/>
+      <c r="H652" s="8"/>
     </row>
     <row r="653">
-      <c r="H653" s="7"/>
+      <c r="H653" s="8"/>
     </row>
     <row r="654">
-      <c r="H654" s="7"/>
+      <c r="H654" s="8"/>
     </row>
     <row r="655">
-      <c r="H655" s="7"/>
+      <c r="H655" s="8"/>
     </row>
     <row r="656">
-      <c r="H656" s="7"/>
+      <c r="H656" s="8"/>
     </row>
     <row r="657">
-      <c r="H657" s="7"/>
+      <c r="H657" s="8"/>
     </row>
     <row r="658">
-      <c r="H658" s="7"/>
+      <c r="H658" s="8"/>
     </row>
     <row r="659">
-      <c r="H659" s="7"/>
+      <c r="H659" s="8"/>
     </row>
     <row r="660">
-      <c r="H660" s="7"/>
+      <c r="H660" s="8"/>
     </row>
     <row r="661">
-      <c r="H661" s="7"/>
+      <c r="H661" s="8"/>
     </row>
     <row r="662">
-      <c r="H662" s="7"/>
+      <c r="H662" s="8"/>
     </row>
     <row r="663">
-      <c r="H663" s="7"/>
+      <c r="H663" s="8"/>
     </row>
     <row r="664">
-      <c r="H664" s="7"/>
+      <c r="H664" s="8"/>
     </row>
     <row r="665">
-      <c r="H665" s="7"/>
+      <c r="H665" s="8"/>
     </row>
     <row r="666">
-      <c r="H666" s="7"/>
+      <c r="H666" s="8"/>
     </row>
     <row r="667">
-      <c r="H667" s="7"/>
+      <c r="H667" s="8"/>
     </row>
     <row r="668">
-      <c r="H668" s="7"/>
+      <c r="H668" s="8"/>
     </row>
     <row r="669">
-      <c r="H669" s="7"/>
+      <c r="H669" s="8"/>
     </row>
     <row r="670">
-      <c r="H670" s="7"/>
+      <c r="H670" s="8"/>
     </row>
     <row r="671">
-      <c r="H671" s="7"/>
+      <c r="H671" s="8"/>
     </row>
     <row r="672">
-      <c r="H672" s="7"/>
+      <c r="H672" s="8"/>
     </row>
     <row r="673">
-      <c r="H673" s="7"/>
+      <c r="H673" s="8"/>
     </row>
     <row r="674">
-      <c r="H674" s="7"/>
+      <c r="H674" s="8"/>
     </row>
     <row r="675">
-      <c r="H675" s="7"/>
+      <c r="H675" s="8"/>
     </row>
     <row r="676">
-      <c r="H676" s="7"/>
+      <c r="H676" s="8"/>
     </row>
     <row r="677">
-      <c r="H677" s="7"/>
+      <c r="H677" s="8"/>
     </row>
     <row r="678">
-      <c r="H678" s="7"/>
+      <c r="H678" s="8"/>
     </row>
     <row r="679">
-      <c r="H679" s="7"/>
+      <c r="H679" s="8"/>
     </row>
     <row r="680">
-      <c r="H680" s="7"/>
+      <c r="H680" s="8"/>
     </row>
     <row r="681">
-      <c r="H681" s="7"/>
+      <c r="H681" s="8"/>
     </row>
     <row r="682">
-      <c r="H682" s="7"/>
+      <c r="H682" s="8"/>
     </row>
     <row r="683">
-      <c r="H683" s="7"/>
+      <c r="H683" s="8"/>
     </row>
     <row r="684">
-      <c r="H684" s="7"/>
+      <c r="H684" s="8"/>
     </row>
     <row r="685">
-      <c r="H685" s="7"/>
+      <c r="H685" s="8"/>
     </row>
     <row r="686">
-      <c r="H686" s="7"/>
+      <c r="H686" s="8"/>
     </row>
     <row r="687">
-      <c r="H687" s="7"/>
+      <c r="H687" s="8"/>
     </row>
     <row r="688">
-      <c r="H688" s="7"/>
+      <c r="H688" s="8"/>
     </row>
     <row r="689">
-      <c r="H689" s="7"/>
+      <c r="H689" s="8"/>
     </row>
     <row r="690">
-      <c r="H690" s="7"/>
+      <c r="H690" s="8"/>
     </row>
     <row r="691">
-      <c r="H691" s="7"/>
+      <c r="H691" s="8"/>
     </row>
     <row r="692">
-      <c r="H692" s="7"/>
+      <c r="H692" s="8"/>
     </row>
     <row r="693">
-      <c r="H693" s="7"/>
+      <c r="H693" s="8"/>
     </row>
     <row r="694">
-      <c r="H694" s="7"/>
+      <c r="H694" s="8"/>
     </row>
     <row r="695">
-      <c r="H695" s="7"/>
+      <c r="H695" s="8"/>
     </row>
     <row r="696">
-      <c r="H696" s="7"/>
+      <c r="H696" s="8"/>
     </row>
     <row r="697">
-      <c r="H697" s="7"/>
+      <c r="H697" s="8"/>
     </row>
     <row r="698">
-      <c r="H698" s="7"/>
+      <c r="H698" s="8"/>
     </row>
     <row r="699">
-      <c r="H699" s="7"/>
+      <c r="H699" s="8"/>
     </row>
     <row r="700">
-      <c r="H700" s="7"/>
+      <c r="H700" s="8"/>
     </row>
     <row r="701">
-      <c r="H701" s="7"/>
+      <c r="H701" s="8"/>
     </row>
     <row r="702">
-      <c r="H702" s="7"/>
+      <c r="H702" s="8"/>
     </row>
     <row r="703">
-      <c r="H703" s="7"/>
+      <c r="H703" s="8"/>
     </row>
     <row r="704">
-      <c r="H704" s="7"/>
+      <c r="H704" s="8"/>
     </row>
     <row r="705">
-      <c r="H705" s="7"/>
+      <c r="H705" s="8"/>
     </row>
     <row r="706">
-      <c r="H706" s="7"/>
+      <c r="H706" s="8"/>
     </row>
     <row r="707">
-      <c r="H707" s="7"/>
+      <c r="H707" s="8"/>
     </row>
     <row r="708">
-      <c r="H708" s="7"/>
+      <c r="H708" s="8"/>
     </row>
     <row r="709">
-      <c r="H709" s="7"/>
+      <c r="H709" s="8"/>
     </row>
     <row r="710">
-      <c r="H710" s="7"/>
+      <c r="H710" s="8"/>
     </row>
     <row r="711">
-      <c r="H711" s="7"/>
+      <c r="H711" s="8"/>
     </row>
     <row r="712">
-      <c r="H712" s="7"/>
+      <c r="H712" s="8"/>
     </row>
     <row r="713">
-      <c r="H713" s="7"/>
+      <c r="H713" s="8"/>
     </row>
     <row r="714">
-      <c r="H714" s="7"/>
+      <c r="H714" s="8"/>
     </row>
     <row r="715">
-      <c r="H715" s="7"/>
+      <c r="H715" s="8"/>
     </row>
     <row r="716">
-      <c r="H716" s="7"/>
+      <c r="H716" s="8"/>
     </row>
     <row r="717">
-      <c r="H717" s="7"/>
+      <c r="H717" s="8"/>
     </row>
     <row r="718">
-      <c r="H718" s="7"/>
+      <c r="H718" s="8"/>
     </row>
     <row r="719">
-      <c r="H719" s="7"/>
+      <c r="H719" s="8"/>
     </row>
     <row r="720">
-      <c r="H720" s="7"/>
+      <c r="H720" s="8"/>
     </row>
     <row r="721">
-      <c r="H721" s="7"/>
+      <c r="H721" s="8"/>
     </row>
     <row r="722">
-      <c r="H722" s="7"/>
+      <c r="H722" s="8"/>
     </row>
     <row r="723">
-      <c r="H723" s="7"/>
+      <c r="H723" s="8"/>
     </row>
     <row r="724">
-      <c r="H724" s="7"/>
+      <c r="H724" s="8"/>
     </row>
     <row r="725">
-      <c r="H725" s="7"/>
+      <c r="H725" s="8"/>
     </row>
     <row r="726">
-      <c r="H726" s="7"/>
+      <c r="H726" s="8"/>
     </row>
     <row r="727">
-      <c r="H727" s="7"/>
+      <c r="H727" s="8"/>
     </row>
     <row r="728">
-      <c r="H728" s="7"/>
+      <c r="H728" s="8"/>
     </row>
     <row r="729">
-      <c r="H729" s="7"/>
+      <c r="H729" s="8"/>
     </row>
     <row r="730">
-      <c r="H730" s="7"/>
+      <c r="H730" s="8"/>
     </row>
     <row r="731">
-      <c r="H731" s="7"/>
+      <c r="H731" s="8"/>
     </row>
     <row r="732">
-      <c r="H732" s="7"/>
+      <c r="H732" s="8"/>
     </row>
     <row r="733">
-      <c r="H733" s="7"/>
+      <c r="H733" s="8"/>
     </row>
     <row r="734">
-      <c r="H734" s="7"/>
+      <c r="H734" s="8"/>
     </row>
     <row r="735">
-      <c r="H735" s="7"/>
+      <c r="H735" s="8"/>
     </row>
     <row r="736">
-      <c r="H736" s="7"/>
+      <c r="H736" s="8"/>
     </row>
     <row r="737">
-      <c r="H737" s="7"/>
+      <c r="H737" s="8"/>
     </row>
     <row r="738">
-      <c r="H738" s="7"/>
+      <c r="H738" s="8"/>
     </row>
     <row r="739">
-      <c r="H739" s="7"/>
+      <c r="H739" s="8"/>
     </row>
     <row r="740">
-      <c r="H740" s="7"/>
+      <c r="H740" s="8"/>
     </row>
     <row r="741">
-      <c r="H741" s="7"/>
+      <c r="H741" s="8"/>
     </row>
     <row r="742">
-      <c r="H742" s="7"/>
+      <c r="H742" s="8"/>
     </row>
     <row r="743">
-      <c r="H743" s="7"/>
+      <c r="H743" s="8"/>
     </row>
     <row r="744">
-      <c r="H744" s="7"/>
+      <c r="H744" s="8"/>
     </row>
     <row r="745">
-      <c r="H745" s="7"/>
+      <c r="H745" s="8"/>
     </row>
     <row r="746">
-      <c r="H746" s="7"/>
+      <c r="H746" s="8"/>
     </row>
     <row r="747">
-      <c r="H747" s="7"/>
+      <c r="H747" s="8"/>
     </row>
     <row r="748">
-      <c r="H748" s="7"/>
+      <c r="H748" s="8"/>
     </row>
     <row r="749">
-      <c r="H749" s="7"/>
+      <c r="H749" s="8"/>
     </row>
     <row r="750">
-      <c r="H750" s="7"/>
+      <c r="H750" s="8"/>
     </row>
     <row r="751">
-      <c r="H751" s="7"/>
+      <c r="H751" s="8"/>
     </row>
     <row r="752">
-      <c r="H752" s="7"/>
+      <c r="H752" s="8"/>
     </row>
     <row r="753">
-      <c r="H753" s="7"/>
+      <c r="H753" s="8"/>
     </row>
     <row r="754">
-      <c r="H754" s="7"/>
+      <c r="H754" s="8"/>
     </row>
     <row r="755">
-      <c r="H755" s="7"/>
+      <c r="H755" s="8"/>
     </row>
     <row r="756">
-      <c r="H756" s="7"/>
+      <c r="H756" s="8"/>
     </row>
     <row r="757">
-      <c r="H757" s="7"/>
+      <c r="H757" s="8"/>
     </row>
     <row r="758">
-      <c r="H758" s="7"/>
+      <c r="H758" s="8"/>
     </row>
     <row r="759">
-      <c r="H759" s="7"/>
+      <c r="H759" s="8"/>
     </row>
     <row r="760">
-      <c r="H760" s="7"/>
+      <c r="H760" s="8"/>
     </row>
     <row r="761">
-      <c r="H761" s="7"/>
+      <c r="H761" s="8"/>
     </row>
     <row r="762">
-      <c r="H762" s="7"/>
+      <c r="H762" s="8"/>
     </row>
     <row r="763">
-      <c r="H763" s="7"/>
+      <c r="H763" s="8"/>
     </row>
     <row r="764">
-      <c r="H764" s="7"/>
+      <c r="H764" s="8"/>
     </row>
     <row r="765">
-      <c r="H765" s="7"/>
+      <c r="H765" s="8"/>
     </row>
     <row r="766">
-      <c r="H766" s="7"/>
+      <c r="H766" s="8"/>
     </row>
     <row r="767">
-      <c r="H767" s="7"/>
+      <c r="H767" s="8"/>
     </row>
     <row r="768">
-      <c r="H768" s="7"/>
+      <c r="H768" s="8"/>
     </row>
     <row r="769">
-      <c r="H769" s="7"/>
+      <c r="H769" s="8"/>
     </row>
     <row r="770">
-      <c r="H770" s="7"/>
+      <c r="H770" s="8"/>
     </row>
     <row r="771">
-      <c r="H771" s="7"/>
+      <c r="H771" s="8"/>
     </row>
     <row r="772">
-      <c r="H772" s="7"/>
+      <c r="H772" s="8"/>
     </row>
     <row r="773">
-      <c r="H773" s="7"/>
+      <c r="H773" s="8"/>
     </row>
     <row r="774">
-      <c r="H774" s="7"/>
+      <c r="H774" s="8"/>
     </row>
     <row r="775">
-      <c r="H775" s="7"/>
+      <c r="H775" s="8"/>
     </row>
     <row r="776">
-      <c r="H776" s="7"/>
+      <c r="H776" s="8"/>
     </row>
     <row r="777">
-      <c r="H777" s="7"/>
+      <c r="H777" s="8"/>
     </row>
     <row r="778">
-      <c r="H778" s="7"/>
+      <c r="H778" s="8"/>
     </row>
     <row r="779">
-      <c r="H779" s="7"/>
+      <c r="H779" s="8"/>
     </row>
     <row r="780">
-      <c r="H780" s="7"/>
+      <c r="H780" s="8"/>
     </row>
     <row r="781">
-      <c r="H781" s="7"/>
+      <c r="H781" s="8"/>
     </row>
     <row r="782">
-      <c r="H782" s="7"/>
+      <c r="H782" s="8"/>
     </row>
     <row r="783">
-      <c r="H783" s="7"/>
+      <c r="H783" s="8"/>
     </row>
     <row r="784">
-      <c r="H784" s="7"/>
+      <c r="H784" s="8"/>
     </row>
     <row r="785">
-      <c r="H785" s="7"/>
+      <c r="H785" s="8"/>
     </row>
     <row r="786">
-      <c r="H786" s="7"/>
+      <c r="H786" s="8"/>
     </row>
     <row r="787">
-      <c r="H787" s="7"/>
+      <c r="H787" s="8"/>
     </row>
     <row r="788">
-      <c r="H788" s="7"/>
+      <c r="H788" s="8"/>
     </row>
     <row r="789">
-      <c r="H789" s="7"/>
+      <c r="H789" s="8"/>
     </row>
     <row r="790">
-      <c r="H790" s="7"/>
+      <c r="H790" s="8"/>
     </row>
     <row r="791">
-      <c r="H791" s="7"/>
+      <c r="H791" s="8"/>
     </row>
     <row r="792">
-      <c r="H792" s="7"/>
+      <c r="H792" s="8"/>
     </row>
     <row r="793">
-      <c r="H793" s="7"/>
+      <c r="H793" s="8"/>
     </row>
     <row r="794">
-      <c r="H794" s="7"/>
+      <c r="H794" s="8"/>
     </row>
     <row r="795">
-      <c r="H795" s="7"/>
+      <c r="H795" s="8"/>
     </row>
     <row r="796">
-      <c r="H796" s="7"/>
+      <c r="H796" s="8"/>
     </row>
     <row r="797">
-      <c r="H797" s="7"/>
+      <c r="H797" s="8"/>
     </row>
     <row r="798">
-      <c r="H798" s="7"/>
+      <c r="H798" s="8"/>
     </row>
     <row r="799">
-      <c r="H799" s="7"/>
+      <c r="H799" s="8"/>
     </row>
     <row r="800">
-      <c r="H800" s="7"/>
+      <c r="H800" s="8"/>
     </row>
     <row r="801">
-      <c r="H801" s="7"/>
+      <c r="H801" s="8"/>
     </row>
     <row r="802">
-      <c r="H802" s="7"/>
+      <c r="H802" s="8"/>
     </row>
     <row r="803">
-      <c r="H803" s="7"/>
+      <c r="H803" s="8"/>
     </row>
     <row r="804">
-      <c r="H804" s="7"/>
+      <c r="H804" s="8"/>
     </row>
     <row r="805">
-      <c r="H805" s="7"/>
+      <c r="H805" s="8"/>
     </row>
     <row r="806">
-      <c r="H806" s="7"/>
+      <c r="H806" s="8"/>
     </row>
     <row r="807">
-      <c r="H807" s="7"/>
+      <c r="H807" s="8"/>
     </row>
     <row r="808">
-      <c r="H808" s="7"/>
+      <c r="H808" s="8"/>
     </row>
     <row r="809">
-      <c r="H809" s="7"/>
+      <c r="H809" s="8"/>
     </row>
     <row r="810">
-      <c r="H810" s="7"/>
+      <c r="H810" s="8"/>
     </row>
     <row r="811">
-      <c r="H811" s="7"/>
+      <c r="H811" s="8"/>
     </row>
     <row r="812">
-      <c r="H812" s="7"/>
+      <c r="H812" s="8"/>
     </row>
     <row r="813">
-      <c r="H813" s="7"/>
+      <c r="H813" s="8"/>
     </row>
     <row r="814">
-      <c r="H814" s="7"/>
+      <c r="H814" s="8"/>
     </row>
     <row r="815">
-      <c r="H815" s="7"/>
+      <c r="H815" s="8"/>
     </row>
     <row r="816">
-      <c r="H816" s="7"/>
+      <c r="H816" s="8"/>
     </row>
     <row r="817">
-      <c r="H817" s="7"/>
+      <c r="H817" s="8"/>
     </row>
     <row r="818">
-      <c r="H818" s="7"/>
+      <c r="H818" s="8"/>
     </row>
     <row r="819">
-      <c r="H819" s="7"/>
+      <c r="H819" s="8"/>
     </row>
     <row r="820">
-      <c r="H820" s="7"/>
+      <c r="H820" s="8"/>
     </row>
     <row r="821">
-      <c r="H821" s="7"/>
+      <c r="H821" s="8"/>
     </row>
     <row r="822">
-      <c r="H822" s="7"/>
+      <c r="H822" s="8"/>
     </row>
     <row r="823">
-      <c r="H823" s="7"/>
+      <c r="H823" s="8"/>
     </row>
     <row r="824">
-      <c r="H824" s="7"/>
+      <c r="H824" s="8"/>
     </row>
     <row r="825">
-      <c r="H825" s="7"/>
+      <c r="H825" s="8"/>
     </row>
     <row r="826">
-      <c r="H826" s="7"/>
+      <c r="H826" s="8"/>
     </row>
     <row r="827">
-      <c r="H827" s="7"/>
+      <c r="H827" s="8"/>
     </row>
     <row r="828">
-      <c r="H828" s="7"/>
+      <c r="H828" s="8"/>
     </row>
     <row r="829">
-      <c r="H829" s="7"/>
+      <c r="H829" s="8"/>
     </row>
     <row r="830">
-      <c r="H830" s="7"/>
+      <c r="H830" s="8"/>
     </row>
     <row r="831">
-      <c r="H831" s="7"/>
+      <c r="H831" s="8"/>
     </row>
     <row r="832">
-      <c r="H832" s="7"/>
+      <c r="H832" s="8"/>
     </row>
     <row r="833">
-      <c r="H833" s="7"/>
+      <c r="H833" s="8"/>
     </row>
     <row r="834">
-      <c r="H834" s="7"/>
+      <c r="H834" s="8"/>
     </row>
     <row r="835">
-      <c r="H835" s="7"/>
+      <c r="H835" s="8"/>
     </row>
     <row r="836">
-      <c r="H836" s="7"/>
+      <c r="H836" s="8"/>
     </row>
     <row r="837">
-      <c r="H837" s="7"/>
+      <c r="H837" s="8"/>
     </row>
     <row r="838">
-      <c r="H838" s="7"/>
+      <c r="H838" s="8"/>
     </row>
     <row r="839">
-      <c r="H839" s="7"/>
+      <c r="H839" s="8"/>
     </row>
     <row r="840">
-      <c r="H840" s="7"/>
+      <c r="H840" s="8"/>
     </row>
     <row r="841">
-      <c r="H841" s="7"/>
+      <c r="H841" s="8"/>
     </row>
     <row r="842">
-      <c r="H842" s="7"/>
+      <c r="H842" s="8"/>
     </row>
     <row r="843">
-      <c r="H843" s="7"/>
+      <c r="H843" s="8"/>
     </row>
     <row r="844">
-      <c r="H844" s="7"/>
+      <c r="H844" s="8"/>
     </row>
     <row r="845">
-      <c r="H845" s="7"/>
+      <c r="H845" s="8"/>
     </row>
     <row r="846">
-      <c r="H846" s="7"/>
+      <c r="H846" s="8"/>
     </row>
     <row r="847">
-      <c r="H847" s="7"/>
+      <c r="H847" s="8"/>
     </row>
     <row r="848">
-      <c r="H848" s="7"/>
+      <c r="H848" s="8"/>
     </row>
     <row r="849">
-      <c r="H849" s="7"/>
+      <c r="H849" s="8"/>
     </row>
     <row r="850">
-      <c r="H850" s="7"/>
+      <c r="H850" s="8"/>
     </row>
     <row r="851">
-      <c r="H851" s="7"/>
+      <c r="H851" s="8"/>
     </row>
     <row r="852">
-      <c r="H852" s="7"/>
+      <c r="H852" s="8"/>
     </row>
     <row r="853">
-      <c r="H853" s="7"/>
+      <c r="H853" s="8"/>
     </row>
     <row r="854">
-      <c r="H854" s="7"/>
+      <c r="H854" s="8"/>
     </row>
     <row r="855">
-      <c r="H855" s="7"/>
+      <c r="H855" s="8"/>
     </row>
     <row r="856">
-      <c r="H856" s="7"/>
+      <c r="H856" s="8"/>
     </row>
     <row r="857">
-      <c r="H857" s="7"/>
+      <c r="H857" s="8"/>
     </row>
     <row r="858">
-      <c r="H858" s="7"/>
+      <c r="H858" s="8"/>
     </row>
     <row r="859">
-      <c r="H859" s="7"/>
+      <c r="H859" s="8"/>
     </row>
     <row r="860">
-      <c r="H860" s="7"/>
+      <c r="H860" s="8"/>
     </row>
     <row r="861">
-      <c r="H861" s="7"/>
+      <c r="H861" s="8"/>
     </row>
     <row r="862">
-      <c r="H862" s="7"/>
+      <c r="H862" s="8"/>
     </row>
     <row r="863">
-      <c r="H863" s="7"/>
+      <c r="H863" s="8"/>
     </row>
     <row r="864">
-      <c r="H864" s="7"/>
+      <c r="H864" s="8"/>
     </row>
     <row r="865">
-      <c r="H865" s="7"/>
+      <c r="H865" s="8"/>
     </row>
     <row r="866">
-      <c r="H866" s="7"/>
+      <c r="H866" s="8"/>
     </row>
     <row r="867">
-      <c r="H867" s="7"/>
+      <c r="H867" s="8"/>
     </row>
     <row r="868">
-      <c r="H868" s="7"/>
+      <c r="H868" s="8"/>
     </row>
     <row r="869">
-      <c r="H869" s="7"/>
+      <c r="H869" s="8"/>
     </row>
     <row r="870">
-      <c r="H870" s="7"/>
+      <c r="H870" s="8"/>
     </row>
     <row r="871">
-      <c r="H871" s="7"/>
+      <c r="H871" s="8"/>
     </row>
     <row r="872">
-      <c r="H872" s="7"/>
+      <c r="H872" s="8"/>
     </row>
     <row r="873">
-      <c r="H873" s="7"/>
+      <c r="H873" s="8"/>
     </row>
     <row r="874">
-      <c r="H874" s="7"/>
+      <c r="H874" s="8"/>
     </row>
     <row r="875">
-      <c r="H875" s="7"/>
+      <c r="H875" s="8"/>
     </row>
     <row r="876">
-      <c r="H876" s="7"/>
+      <c r="H876" s="8"/>
     </row>
     <row r="877">
-      <c r="H877" s="7"/>
+      <c r="H877" s="8"/>
     </row>
     <row r="878">
-      <c r="H878" s="7"/>
+      <c r="H878" s="8"/>
     </row>
     <row r="879">
-      <c r="H879" s="7"/>
+      <c r="H879" s="8"/>
     </row>
     <row r="880">
-      <c r="H880" s="7"/>
+      <c r="H880" s="8"/>
     </row>
     <row r="881">
-      <c r="H881" s="7"/>
+      <c r="H881" s="8"/>
     </row>
     <row r="882">
-      <c r="H882" s="7"/>
+      <c r="H882" s="8"/>
     </row>
     <row r="883">
-      <c r="H883" s="7"/>
+      <c r="H883" s="8"/>
     </row>
     <row r="884">
-      <c r="H884" s="7"/>
+      <c r="H884" s="8"/>
     </row>
     <row r="885">
-      <c r="H885" s="7"/>
+      <c r="H885" s="8"/>
     </row>
     <row r="886">
-      <c r="H886" s="7"/>
+      <c r="H886" s="8"/>
     </row>
     <row r="887">
-      <c r="H887" s="7"/>
+      <c r="H887" s="8"/>
     </row>
     <row r="888">
-      <c r="H888" s="7"/>
+      <c r="H888" s="8"/>
     </row>
     <row r="889">
-      <c r="H889" s="7"/>
+      <c r="H889" s="8"/>
     </row>
     <row r="890">
-      <c r="H890" s="7"/>
+      <c r="H890" s="8"/>
     </row>
     <row r="891">
-      <c r="H891" s="7"/>
+      <c r="H891" s="8"/>
     </row>
     <row r="892">
-      <c r="H892" s="7"/>
+      <c r="H892" s="8"/>
     </row>
     <row r="893">
-      <c r="H893" s="7"/>
+      <c r="H893" s="8"/>
     </row>
     <row r="894">
-      <c r="H894" s="7"/>
+      <c r="H894" s="8"/>
     </row>
     <row r="895">
-      <c r="H895" s="7"/>
+      <c r="H895" s="8"/>
     </row>
     <row r="896">
-      <c r="H896" s="7"/>
+      <c r="H896" s="8"/>
     </row>
     <row r="897">
-      <c r="H897" s="7"/>
+      <c r="H897" s="8"/>
     </row>
     <row r="898">
-      <c r="H898" s="7"/>
+      <c r="H898" s="8"/>
     </row>
     <row r="899">
-      <c r="H899" s="7"/>
+      <c r="H899" s="8"/>
     </row>
     <row r="900">
-      <c r="H900" s="7"/>
+      <c r="H900" s="8"/>
     </row>
     <row r="901">
-      <c r="H901" s="7"/>
+      <c r="H901" s="8"/>
     </row>
     <row r="902">
-      <c r="H902" s="7"/>
+      <c r="H902" s="8"/>
     </row>
     <row r="903">
-      <c r="H903" s="7"/>
+      <c r="H903" s="8"/>
     </row>
     <row r="904">
-      <c r="H904" s="7"/>
+      <c r="H904" s="8"/>
     </row>
     <row r="905">
-      <c r="H905" s="7"/>
+      <c r="H905" s="8"/>
     </row>
     <row r="906">
-      <c r="H906" s="7"/>
+      <c r="H906" s="8"/>
     </row>
     <row r="907">
-      <c r="H907" s="7"/>
+      <c r="H907" s="8"/>
     </row>
     <row r="908">
-      <c r="H908" s="7"/>
+      <c r="H908" s="8"/>
     </row>
     <row r="909">
-      <c r="H909" s="7"/>
+      <c r="H909" s="8"/>
     </row>
     <row r="910">
-      <c r="H910" s="7"/>
+      <c r="H910" s="8"/>
     </row>
     <row r="911">
-      <c r="H911" s="7"/>
+      <c r="H911" s="8"/>
     </row>
     <row r="912">
-      <c r="H912" s="7"/>
+      <c r="H912" s="8"/>
     </row>
     <row r="913">
-      <c r="H913" s="7"/>
+      <c r="H913" s="8"/>
     </row>
     <row r="914">
-      <c r="H914" s="7"/>
+      <c r="H914" s="8"/>
     </row>
     <row r="915">
-      <c r="H915" s="7"/>
+      <c r="H915" s="8"/>
     </row>
     <row r="916">
-      <c r="H916" s="7"/>
+      <c r="H916" s="8"/>
     </row>
     <row r="917">
-      <c r="H917" s="7"/>
+      <c r="H917" s="8"/>
     </row>
     <row r="918">
-      <c r="H918" s="7"/>
+      <c r="H918" s="8"/>
     </row>
     <row r="919">
-      <c r="H919" s="7"/>
+      <c r="H919" s="8"/>
     </row>
     <row r="920">
-      <c r="H920" s="7"/>
+      <c r="H920" s="8"/>
     </row>
     <row r="921">
-      <c r="H921" s="7"/>
+      <c r="H921" s="8"/>
     </row>
     <row r="922">
-      <c r="H922" s="7"/>
+      <c r="H922" s="8"/>
     </row>
     <row r="923">
-      <c r="H923" s="7"/>
+      <c r="H923" s="8"/>
     </row>
     <row r="924">
-      <c r="H924" s="7"/>
+      <c r="H924" s="8"/>
     </row>
     <row r="925">
-      <c r="H925" s="7"/>
+      <c r="H925" s="8"/>
     </row>
     <row r="926">
-      <c r="H926" s="7"/>
+      <c r="H926" s="8"/>
     </row>
     <row r="927">
-      <c r="H927" s="7"/>
+      <c r="H927" s="8"/>
     </row>
     <row r="928">
-      <c r="H928" s="7"/>
+      <c r="H928" s="8"/>
     </row>
     <row r="929">
-      <c r="H929" s="7"/>
+      <c r="H929" s="8"/>
     </row>
     <row r="930">
-      <c r="H930" s="7"/>
+      <c r="H930" s="8"/>
     </row>
     <row r="931">
-      <c r="H931" s="7"/>
+      <c r="H931" s="8"/>
     </row>
     <row r="932">
-      <c r="H932" s="7"/>
+      <c r="H932" s="8"/>
     </row>
     <row r="933">
-      <c r="H933" s="7"/>
+      <c r="H933" s="8"/>
     </row>
     <row r="934">
-      <c r="H934" s="7"/>
+      <c r="H934" s="8"/>
     </row>
     <row r="935">
-      <c r="H935" s="7"/>
+      <c r="H935" s="8"/>
     </row>
     <row r="936">
-      <c r="H936" s="7"/>
+      <c r="H936" s="8"/>
     </row>
     <row r="937">
-      <c r="H937" s="7"/>
+      <c r="H937" s="8"/>
     </row>
     <row r="938">
-      <c r="H938" s="7"/>
+      <c r="H938" s="8"/>
     </row>
     <row r="939">
-      <c r="H939" s="7"/>
+      <c r="H939" s="8"/>
     </row>
     <row r="940">
-      <c r="H940" s="7"/>
+      <c r="H940" s="8"/>
     </row>
     <row r="941">
-      <c r="H941" s="7"/>
+      <c r="H941" s="8"/>
     </row>
     <row r="942">
-      <c r="H942" s="7"/>
+      <c r="H942" s="8"/>
     </row>
     <row r="943">
-      <c r="H943" s="7"/>
+      <c r="H943" s="8"/>
     </row>
     <row r="944">
-      <c r="H944" s="7"/>
+      <c r="H944" s="8"/>
     </row>
     <row r="945">
-      <c r="H945" s="7"/>
+      <c r="H945" s="8"/>
     </row>
     <row r="946">
-      <c r="H946" s="7"/>
+      <c r="H946" s="8"/>
     </row>
     <row r="947">
-      <c r="H947" s="7"/>
+      <c r="H947" s="8"/>
     </row>
     <row r="948">
-      <c r="H948" s="7"/>
+      <c r="H948" s="8"/>
     </row>
     <row r="949">
-      <c r="H949" s="7"/>
+      <c r="H949" s="8"/>
     </row>
     <row r="950">
-      <c r="H950" s="7"/>
+      <c r="H950" s="8"/>
     </row>
     <row r="951">
-      <c r="H951" s="7"/>
+      <c r="H951" s="8"/>
     </row>
     <row r="952">
-      <c r="H952" s="7"/>
+      <c r="H952" s="8"/>
     </row>
     <row r="953">
-      <c r="H953" s="7"/>
+      <c r="H953" s="8"/>
     </row>
     <row r="954">
-      <c r="H954" s="7"/>
+      <c r="H954" s="8"/>
     </row>
     <row r="955">
-      <c r="H955" s="7"/>
+      <c r="H955" s="8"/>
     </row>
     <row r="956">
-      <c r="H956" s="7"/>
+      <c r="H956" s="8"/>
     </row>
     <row r="957">
-      <c r="H957" s="7"/>
+      <c r="H957" s="8"/>
     </row>
     <row r="958">
-      <c r="H958" s="7"/>
+      <c r="H958" s="8"/>
     </row>
     <row r="959">
-      <c r="H959" s="7"/>
+      <c r="H959" s="8"/>
     </row>
     <row r="960">
-      <c r="H960" s="7"/>
+      <c r="H960" s="8"/>
     </row>
     <row r="961">
-      <c r="H961" s="7"/>
+      <c r="H961" s="8"/>
     </row>
     <row r="962">
-      <c r="H962" s="7"/>
+      <c r="H962" s="8"/>
     </row>
     <row r="963">
-      <c r="H963" s="7"/>
+      <c r="H963" s="8"/>
     </row>
     <row r="964">
-      <c r="H964" s="7"/>
+      <c r="H964" s="8"/>
     </row>
     <row r="965">
-      <c r="H965" s="7"/>
+      <c r="H965" s="8"/>
     </row>
     <row r="966">
-      <c r="H966" s="7"/>
+      <c r="H966" s="8"/>
     </row>
     <row r="967">
-      <c r="H967" s="7"/>
+      <c r="H967" s="8"/>
     </row>
     <row r="968">
-      <c r="H968" s="7"/>
+      <c r="H968" s="8"/>
     </row>
     <row r="969">
-      <c r="H969" s="7"/>
+      <c r="H969" s="8"/>
     </row>
     <row r="970">
-      <c r="H970" s="7"/>
+      <c r="H970" s="8"/>
     </row>
     <row r="971">
-      <c r="H971" s="7"/>
+      <c r="H971" s="8"/>
     </row>
     <row r="972">
-      <c r="H972" s="7"/>
+      <c r="H972" s="8"/>
     </row>
     <row r="973">
-      <c r="H973" s="7"/>
+      <c r="H973" s="8"/>
     </row>
     <row r="974">
-      <c r="H974" s="7"/>
+      <c r="H974" s="8"/>
     </row>
     <row r="975">
-      <c r="H975" s="7"/>
+      <c r="H975" s="8"/>
     </row>
     <row r="976">
-      <c r="H976" s="7"/>
+      <c r="H976" s="8"/>
     </row>
     <row r="977">
-      <c r="H977" s="7"/>
+      <c r="H977" s="8"/>
     </row>
     <row r="978">
-      <c r="H978" s="7"/>
+      <c r="H978" s="8"/>
     </row>
     <row r="979">
-      <c r="H979" s="7"/>
+      <c r="H979" s="8"/>
     </row>
     <row r="980">
-      <c r="H980" s="7"/>
+      <c r="H980" s="8"/>
     </row>
     <row r="981">
-      <c r="H981" s="7"/>
+      <c r="H981" s="8"/>
     </row>
     <row r="982">
-      <c r="H982" s="7"/>
+      <c r="H982" s="8"/>
     </row>
     <row r="983">
-      <c r="H983" s="7"/>
+      <c r="H983" s="8"/>
     </row>
     <row r="984">
-      <c r="H984" s="7"/>
+      <c r="H984" s="8"/>
     </row>
     <row r="985">
-      <c r="H985" s="7"/>
+      <c r="H985" s="8"/>
     </row>
     <row r="986">
-      <c r="H986" s="7"/>
+      <c r="H986" s="8"/>
     </row>
     <row r="987">
-      <c r="H987" s="7"/>
+      <c r="H987" s="8"/>
     </row>
     <row r="988">
-      <c r="H988" s="7"/>
+      <c r="H988" s="8"/>
     </row>
     <row r="989">
-      <c r="H989" s="7"/>
+      <c r="H989" s="8"/>
     </row>
     <row r="990">
-      <c r="H990" s="7"/>
+      <c r="H990" s="8"/>
     </row>
     <row r="991">
-      <c r="H991" s="7"/>
+      <c r="H991" s="8"/>
     </row>
     <row r="992">
-      <c r="H992" s="7"/>
+      <c r="H992" s="8"/>
     </row>
     <row r="993">
-      <c r="H993" s="7"/>
+      <c r="H993" s="8"/>
     </row>
     <row r="994">
-      <c r="H994" s="7"/>
+      <c r="H994" s="8"/>
     </row>
     <row r="995">
-      <c r="H995" s="7"/>
+      <c r="H995" s="8"/>
     </row>
     <row r="996">
-      <c r="H996" s="7"/>
+      <c r="H996" s="8"/>
     </row>
     <row r="997">
-      <c r="H997" s="7"/>
+      <c r="H997" s="8"/>
     </row>
     <row r="998">
-      <c r="H998" s="7"/>
+      <c r="H998" s="8"/>
     </row>
     <row r="999">
-      <c r="H999" s="7"/>
+      <c r="H999" s="8"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="7"/>
+      <c r="H1000" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -132,25 +132,25 @@
   </si>
   <si>
     <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Panko crumbed chicken with Japanese curry sauce(DF)
-Corn fritters with potato and apply curry sauce(LG,VG)
-Cream of cauliflower soup(V,LG)
-Roasted peaches and bocconcini salad with green beans, basil, baby gem leaves and pomegranate dressing (V, LG)
+Spicy chicken Pad Thai (LG, DF, NO EGG)
+Puffed tofu Pad Thai (LG, VG)
+On the side: chili oil, fried shallot, pickled chili, bean sprouts
+Cream of cauliflower soup (V, LG)
+Greek salad with Roma tomato, Lebanese cucumber, Spanish onion, capsicum, kalamata olives &amp; feta (V, LG)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Fish and Chips with tartare sauce(DF)
-Roast vegetable lasagne(LG,VG)
-Green power salad with avocado, spinach, green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts and pumpkin seed (LG,VG)
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef sausages with a rich napolitana sauce and creamy mash potato (LG, DF)
+Nachos with spiced mushroom and tomato salsa with Mexican cheese (V, LG)
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket &amp; creamy French dressing (V, LG)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Lasagna of layered beef mince sauce, becamel, fresh herbs, mozzarella and parmesan
-Pastizi filled with spinach and ricotta (V)
-Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
+Beef Burger with shoestring fries, selectio nof sliced cheese, tomato, lettuce and burger sauce
+Tofu/veggie burger with shoestring fries, selectio nof sliced cheese, tomato, lettuce and burger sauce(V)
+Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn (LG,VG)
 </t>
   </si>
   <si>
@@ -191,6 +191,129 @@
 Naan bread, basmati rice &amp; assorted vegetables (V)
 Garden salad with tomato, green lettuce, Spanish onion, baby spinach ,shredded carrot &amp; cabbage (VG, LG)
 Apple and Cinnamon Crumble
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs Pizza of the Week
+BBQ Chicken
+Roast capsicum, pumpkin harissa sauce, pepitas and feta cheese
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
+Matcha Bread Pudding
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA NIGHT:
+1. Choose your pasta
+2. Pick your sauce
+3.Grab some garlic bread
+4. Sprinkle cheese
+5. Add some veggies
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
+Lemon Meringue Tart
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed(LG,VG)
+Chocolate Brownie(LG)
+</t>
+  </si>
+  <si>
+    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef &amp; Mushroom pie with puff pastry
+Capsicum, zucchini and tomato casserole(VG)
+Mashed potato with peas &amp; gravy(V,LG)
+Tuscan tomato &amp; capsicum soup(LG,VG)
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea, capsicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef meatballs with creamy black pepper and onion sauce and mashed potato
+Eggs, tofu, kimchi, vegetables and brown fried rice(V,LG,DF)
+Chickpea and quinoa tabouleh with lemon, tomato and parsley salad(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH DAY:
+1. Choose your bread
+2. Pick your protein
+3. Add your salad
+4. Finish with your sauce
+5. Wrap or Fold
+Butternut pumpkin &amp; coconut soup (LG,VG)
+Minted tofu larb salad, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Mongolian beef and Singaporian noodles stir fry(DF)
+Chinese wombok and b ok choy ith Singaporean noodles stir fry (V, DF)
+On the side: chilli oil, fried shallot, soy sauce
+Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish(VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Panko crumbed chicken with Japanese curry sauce(DF)
+Corn fritters with potato and apply curry sauce(LG,VG)
+Cream of cauliflower soup(V,LG)
+Roasted peaches and bocconcini salad with green beans, basil, baby gem leaves and pomegranate dressing (V, LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Fish and Chips with tartare sauce(DF)
+Roast vegetable lasagne(LG,VG)
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts and pumpkin seed (LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Lasagna of layered beef mince sauce, becamel, fresh herbs, mozzarella and parmesan
+Pastizi filled with spinach and ricotta (V)
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef stew cooked in a rich sauce(LG,DF)
+Crispy chicken stir frry with chili and basil(DF)
+Mushroom, tofu, cabbage and pea fried rice(LG,VG)
+Selection of vegetables and potato
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
+Mango and Coconut Saga(LG,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khao soi chicken with egg noodle(DF)
+Fishermen pie with peas and corn
+Deep fry tofu with baby corn, green beans and thai basil(LG,VG)
+Selection of rice, vegetables and potato
+Potato and seeded mustard salad with sweet potato, roasted carrots and vill (V,LG)
+Cheesecake with butter crumbs and passionfruit jelly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lamb and chickpea Tagine(LG,DF)
+Korean glazed chicken with cabbage and capsicum(LG,DF)
+Moroccan spiced cauliflower with chickpea, apricot and zucchini(LG,VG)
+Selection of rice, vegetables and polenta
+Pasta salad with cherry tomatoes, bocconci, radicchio, kalamata olives and pesto dressing(V)
+Chai Tea Bread pudding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Tandoori Chicken (LG, DF)
+Slow cook Malaysian beef massaman (LG,DF)
+Paneer in lentil dahl(LG,VG)
+Naan bread, basmati rice &amp; assorted vegetables (V)
+Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn(LG,VG)
+Vanilla Brulee(LG)
 </t>
   </si>
   <si>
@@ -218,131 +341,6 @@
 Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
 Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy french dressing (V)
 Apple and Cinammon Crumble
-</t>
-  </si>
-  <si>
-    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef &amp; Mushroom pie with puff pastry
-Capsicum, zucchini and tomato casserole(VG)
-Mashed potato with peas &amp; gravy(V,LG)
-Tuscan tomato &amp; capsicum soup(LG,VG)
-Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea, capsicum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef meatballs with creamy black pepper and onion sauce and mashed potato
-Eggs, tofu, kimchi, vegetables and brown fried rice(V,LG,DF)
-Chickpea and quinoa tabouleh with lemon, tomato and parsley salad(LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDWICH DAY:
-1. Choose your bread
-2. Pick your protein
-3. Add your salad
-4. Finish with your sauce
-5. Wrap or Fold
-Butternut pumpkin &amp; coconut soup (LG,VG)
-Minted tofu larb salad, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing(LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Mongolian beef and Singaporian noodles stir fry(DF)
-Chinese wombok and b ok choy ith Singaporean noodles stir fry (V, DF)
-On the side: chilli oil, fried shallot, soy sauce
-Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish(VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Spicy chicken Pad Thai (LG, DF, NO EGG)
-Puffed tofu Pad Thai (LG, VG)
-On the side: chili oil, fried shallot, pickled chili, bean sprouts
-Cream of cauliflower soup (V, LG)
-Greek salad with Roma tomato, Lebanese cucumber, Spanish onion, capsicum, kalamata olives &amp; feta (V, LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef sausages with a rich napolitana sauce and creamy mash potato (LG, DF)
-Nachos with spiced mushroom and tomato salsa with Mexican cheese (V, LG)
-Waldorf salad: Iceberg, grape, celery, apple, onion, rocket &amp; creamy French dressing (V, LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-BURGER DAY:
-Beef Burger ith shoestring fries, selection of sliced cheese, tomato, lettuce &amp; burger sauce
-Tofu/Veggie Burger with shoestring fries, selection of sliced cheese, tomato, lettuce &amp; burger sauce (V)
-Chili bean salad with chickpea, capsicum, cucumber, lime coriander &amp; corn (LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beef stew cooked in a rich sauce(LG,DF)
-Crispy chicken stir frry with chili and basil(DF)
-Mushroom, tofu, cabbage and pea fried rice(LG,VG)
-Selection of vegetables and potato
-Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
-Mango and Coconut Saga(LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khao soi chicken with egg noodle(DF)
-Fishermen pie with peas and corn
-Deep fry tofu with baby corn, green beans and thai basil(LG,VG)
-Selection of rice, vegetables and potato
-Potato and seeded mustard salad with sweet potato, roasted carrots and vill (V,LG)
-Cheesecake with butter crumbs and passionfruit jelly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Lamb and chickpea Tagine(LG,DF)
-Korean glazed chicken with cabbage and capsicum(LG,DF)
-Moroccan spiced cauliflower with chickpea, apricot and zucchini(LG,VG)
-Selection of rice, vegetables and polenta
-Pasta salad with cherry tomatoes, bocconci, radicchio, kalamata olives and pesto dressing(V)
-Chai Tea Bread pudding.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRY NIGHT:
-Tandoori Chicken (LG, DF)
-Slow cook Malaysian beef massaman (LG,DF)
-Paneer in lentil dahl(LG,VG)
-Naan bread, basmati rice &amp; assorted vegetables (V)
-Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn(LG,VG)
-Vanilla Brulee(LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIZZA NIGHT:
-Chefs Pizza of the Week
-BBQ Chicken
-Roast capsicum, pumpkin harissa sauce, pepitas and feta cheese
-Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
-Matcha Bread Pudding
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA NIGHT:
-1. Choose your pasta
-2. Pick your sauce
-3.Grab some garlic bread
-4. Sprinkle cheese
-5. Add some veggies
-Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
-Lemon Meringue Tart
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEFS ROAST:
-Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
-Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed (LG, VG)
-Chocolate Brownie (LG)
 </t>
   </si>
   <si>
@@ -982,6 +980,26 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Monday</t>
   </si>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">
 Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
 Mongolian beef and Singaporian noodles stir fry(DF)
-Chinese wombok and b ok choy ith Singaporean noodles stir fry (V, DF)
+Chinese wombok and bok choy with Singaporean noodles stir fry (V, DF)
 On the side: chilli oil, fried shallot, soy sauce
 Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish(VG)
 </t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t xml:space="preserve">Beef stew cooked in a rich sauce(LG,DF)
-Crispy chicken stir frry with chili and basil(DF)
+Crispy chicken stir fry with chili and basil(DF)
 Mushroom, tofu, cabbage and pea fried rice(LG,VG)
 Selection of vegetables and potato
 Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
@@ -344,115 +344,44 @@
 </t>
   </si>
   <si>
-    <t>Fresh juices, selection of milks, espresso coffee and selection of teas
-Selection of cereals including gluten free cereals
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (LG, DF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection
-of canned fruits
-Natural yoghurt and flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee and selection of teas
-Selection of cereals including gluten free cereals
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (LG, GF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection
-of canned fruits
-Natural yoghurt and flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces 
-Scrambled eggs, beef bacon, hash browns, baked beans and tomato
-spaghetti (DF)</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee and selection of teas
-Selection of cereals including gluten free cereals
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (LG, GF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection
-of canned fruits
-Natural yoghurt and flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces</t>
-  </si>
-  <si>
-    <t>Fresh juices, selection of milks, espresso coffee and selection of teas
-Selection of cereals including gluten free cereals
-Porridge with accompaniments
-Congee, pickles, dried shallot and vinegar (LG, GF)
-Fresh fruit salad of seasonal fruits, whole seasonal fruits and selection
-of canned fruits
-Natural yoghurt and flavoured yoghurt with plums or cocoa nibs (LG)
-Selection of breads including gluten free bread
-Selection of condiments and sauces
-Poached eggs, beef bacon, potato gems, baked beans and tomato spaghetti (DF)</t>
-  </si>
-  <si>
-    <t>Scrambled eggs, beef bacon, roasted mushrooms, baked beans and 
-tomato spaghetti (DF)
-Waffles with maple syrup</t>
-  </si>
-  <si>
-    <t>Poached eggs, beef bacon, hash browns and baked beans (DF)
-Corn fritters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai BBQ chicken salad with rainbow slaw, bean sprouts, cucumber, rice, noodles,
-red onion, fried onion, mint, lime (DF, LG)
-Selection of seasonal fruits, fresh garden components and breads, including gluten
-free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced salami, pickles, avocado, 
-sauerkraut, cucumber (DF, LG)
-Shephard's Pie
-Miso mushroom and leek quiche (V)
+    <t xml:space="preserve">Sandwich bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Beef sausage roll
+Vegetarian sausage roll (V)
+Mashed potato with pea and gras (V,LG)
+Tuscan tomato and capsicum soup (LG,VG)
+Thai rainbow slaw, bean sprouts, cucumber, rice noodles, red onion, fried onion, mint, lime (LG,VG)
 </t>
   </si>
   <si>
-    <t>Butternut squash soup
-Spiced sweet potato salad with charred corn, pickled radish, green beans, fresh mint
-and ranch dressing (LG, V)
-Selection of seasonal fruits, fresh garden components and breads, including gluten
-free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced roast beef, roasted peppers, 
-pickles, red cabbage (LG, DF)
-Tandoori chicken, steamed rice and mint yoghurt (LG)
-Indian aloo gobhi with potatoes, cauliflower and wild rice (V, LG, DF)</t>
-  </si>
-  <si>
-    <t>Miso fish salad with soy beans, green peas and broccoli with barley, 
-baby spinach
-Selection of seasonal fruits and fresh garden components
-Eggplant chips wrap with miso hummus, alfalfa, slow and spiced yoghurt (V)
-Portugese roast chicken baguette with avocado, peri peri mayonnaise, 
-tomato and baby cos
-Pastrami focaccia with gruyere cheese, slaw pickles, spicy aioli and sea salt
-crisps
-Sea salt crisps and sweet potato crisps</t>
-  </si>
-  <si>
-    <t>Roasted peaches and bocconcini salad with green beans, pomegranates basil, baby
-gem leaves and yoghurt (LG)
-Selection of seasonal fruits, fresh garden components and breads, including gluten
-free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced pastrami, cucumber, avocado, 
-spinach, tuna (DF, LG)
-Creamy pesto chicken pasta with penne pasta, capsicum and green beans
-Cauliflower cheese pasta bake with fresh herbs and parmesancanai and stir fried 
-bok choy (V, LG)</t>
-  </si>
-  <si>
-    <t>Split pea and chicken soup
-Roasted harissa chicken salad with cucmber, ginger, chilli and rainbow slaw with 
-fresh herbs (LG,DF)
-Selection of seasonal fruits, fresh garden components and breads, including gluten
-free bread
-Beef pastrami, sliced cheese, sliced tomato, sliced turkey, egg, mushroom, 
-red cabbage, tuna (LG, DF)
-Korean fried chicken with roasted vegetables and fried rice (DF)
-Ricotta and mint fritters with a warm potato and baby pea salad (V)</t>
+    <t xml:space="preserve">Sandwich bar w/roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Chicken schnitzel parmigiana 
+Roasted eggplant topped with tomato &amp; melted cheese (V,LG)
+Beetroot, green beans, radicchio, kale salad with balsamic vinegar &amp; feta cheese (V, LG)
+</t>
+  </si>
+  <si>
+    <t>SANDWICH DAY:
+1. Choose your bread
+2. Pick your protein
+3. Add your salad
+4. Finish with your sauce
+5. Wrap or Fold
+Butternut pumpkin &amp; coconut soup (LG,VG)
+Chili bean salad with chickpea, capsicum, cucumber, lime, coriander &amp; corn(V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Quiche “Lorraine” with turkey bacon
+Vegetable quiche with leek, onion and swiss cheese (V)
+Minted tofu larb, toasted rice, cucumber, tomato, onion, shallot, gree  kale, coriander and naam jim dressing (LG,VG)
+</t>
+  </si>
+  <si>
+    <t>Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Beef meatballs with potato and salsa verde(DF)
+Roasted vegetable frittata (V,LG)
+Cream of cauliflower soup (V,LG)
+Chickpea and quinoa tabouleh with lemon, tomato, parsley salad (LG,VG)</t>
   </si>
   <si>
     <t>Heirloom tomato, cucumber and raddichio panzanella bread salad with 
@@ -463,81 +392,71 @@
 chips (V, LG)</t>
   </si>
   <si>
-    <t xml:space="preserve">Marinated beef brisket in red bean, honey and soy salad with pickled daikon,
-wild rice, wasabi aioli and nori, togarashi spice (DF, LG)
-Selection of seasonal fruits and fresh garden components
-BBQ chicken pizza on fresh afghan bread
-Spiced tomato Afghan pizza, with feta, tomato slices, potato and fresh
-lemon (V)
+    <t xml:space="preserve">
+BURGER DAY
+Chicken Burger with coleslaw, sweet potato chips, selection of sliced cheese, tomato and burger sauce (V)
+Tofu/Veggie Burger with coleslaw sweet potato chips, selection of sliced cheese, tomato and burger sauce (V)
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy French dressing (V,LG)
 </t>
   </si>
   <si>
-    <t>Green power salad with avocado, spinach, green beans, celery, kale, broccoli, 
-edamame, asparagus, snow pea sprouts, pumpkin seed (DF, LG)
-Selection of fruits and garden components
-Swedish meatballs with slow cooked potatoes in a rich red sauce (LG)
-Coconut and chilli beef stir fry (LG, DF)
-Eggplant parmigiana topped with tomato and melted cheese 
-Selection of rice, vegetables and tomato 
-Selection of Ice cream cups (GF)</t>
-  </si>
-  <si>
-    <t>Chicken caesar salad with grilled chicken, beef bacon, baby cos, croutons, boiled egg,
-parmesan cheese, chives
-Selection of fruits and garden components
-Beef osso Bucco slow cooked in a rich sauce 
-Crispy chicken stir fry with chilli and basil (DF)
-Omelette with stir fried mushroom and rice (V, GF)
-Selection of rice, vegetables and tomato 
-Butterscoth pudding with caramel sauce</t>
-  </si>
-  <si>
-    <t>Fusilli pasta salad with basil pesto, cherry tomatoes, bocconcini, radicchio, 
-kalamata olives, pine nuts (V)
-Selection of fruits and garden components, peppers
-Lamb stew, carrots and potatoes in a hearty broth (LG)
-Korean fish stir fry with pickles and seasonal greens
-Enchiladas with charred tomatillo salsa and creamy pinto beans (V, DF, LG)
+    <t xml:space="preserve">Beef ravioli with tomato, green bean and broccoli(DF)
+Stir-fried chicken with asparagus and oyster sauce(LG,DF)
+Chinese broccoli and green bean stir-fried rice (LG,VG)
+Selection of vegetables and potato
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, and pumpkin seed (LG,VG)
+Tiramisu with coffee jelly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basil and mustard beef with slow cooked potato(LG,DF)
+Yellow chicken in coconut sauce with cauliflower, cabbage and chickpea (LG,DF)
+Sweet potato frittata
 Selection of rice, vegetables and potato
-Cheesecake with butter crumbs and blueberry coulis</t>
-  </si>
-  <si>
-    <t>Garden salad with poached chicken, green basil
-Selection of fruits and garden components
-Bolognese lasagne with a creamy sauce and grilled cheese 
-Stir fried chicken with asparagus and oyster sauce (DF, LG)
-Turmeric and coconut braised cabbage with chickpeas (V)
-Selection of rice, vegetables and potato
-Belgium chocolate brownie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, 
-kalamata olives and feta (LG)
-Selection of fruits and garden components
-Shephard's pie, packet full of meat, seasoned vegetables and creamy mash potato
-Spicy stir-fried squid with snake beans and baby corn (DF)
-Butternut squash and green bean stew (V, DF, LG)
-Selection of rice, vegetables and potato
-Bread and butter pudding with custad </t>
-  </si>
-  <si>
-    <t>Rocket with crispy beef bacon, roma tomatoes (DF, LG)
-Selection of fruits and garden components
-Roast lamb with Bubble and Squeak and steamed seasonal vegetables (LG)
-Tofu stir-fry with cucumber and ginger salad (V, LG, DF)
-Creamy spinach and chickpeas with pickled cherry peppers (V, LG)
-Selection of rice, vegetables and potato 
-Chocolate mousse with mixed berry compote (LG)</t>
-  </si>
-  <si>
-    <t>Superfood salad with turmeric cauliflower, pumpkin, green bean, red quinoa, 
-fresh mint, spinach and minted yoghurt (LG)
-Selection of fruits and garden components
-House battered fish and chips with sweet potato fries (DF)
-Thai style chicken with Hakkien noodles (DF)
-Spaghetti squash bake with seasonal veg and a rich creamy sauce (V)
-Selection of rice, vegetables and potato
-Eton Mess with fresh seasonal berries, meringue and chantilly cream</t>
+Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives and feta (V,LG)
+Matcha Bread Pudding
+</t>
+  </si>
+  <si>
+    <t>Fish Laksa with rice noodle, shredded carrots and cabbage (LG,DF)
+Lasagna of layered beef mince sauce, bechamel, fresh herbs, mozzarella and parmesan
+Aloo Gobi (LG,VG)
+Selection of rice, vegetables and polenta
+Potato and seeded mustard salad with sweet potato, roasted carrots and dill (V,LG)
+Selection of ice-cream cups (GF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Thai green chicken (LG,DF)
+Beef Rogan Josh (LG,DF)
+Vegetable Korma (LG,VG)
+Naan bread, jasmin rice and assorted vegetables(V)
+Pasta salad with cherry tomatoes, bocconcini, radicchio, kalamta olives and a pesto dressing(V)
+Chocolate brownie (LG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs Pizza of the Week
+Hawaiian turkey bacon, pineapple and tomato
+Pesto, mushroom and broccoli (V)
+Superfood salad with turmeric cauliflower, pumpkin, green bean, red quinoa, fresh mint, spinach (LG,VG)
+Lemon Meringue Tart
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich Bar w/roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Indonesian “Mie Goreng” fried noodle with chicken, chili, sliced cucumber (DF)
+Fried soybean tempeh (LG,VG)
+On the side: Chili sambal oelek, fried shallot and prawn cracker
+Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish (VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables , polenta and gravy
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V,LG)
+</t>
   </si>
 </sst>
 </file>
@@ -601,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -614,12 +533,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1195,26 +1108,26 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="123.0" customHeight="1">
@@ -1228,11 +1141,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>51</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="264.0" customHeight="1">
@@ -1240,25 +1153,25 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" ht="198.75" customHeight="1">
@@ -1266,3011 +1179,3011 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="6">
-      <c r="H6" s="8"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7">
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8">
-      <c r="H8" s="8"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9">
-      <c r="H9" s="8"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10">
-      <c r="H10" s="8"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11">
-      <c r="H11" s="8"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12">
-      <c r="H12" s="8"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13">
-      <c r="H13" s="8"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14">
-      <c r="H14" s="8"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15">
-      <c r="H15" s="8"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16">
-      <c r="H16" s="8"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17">
-      <c r="H17" s="8"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18">
-      <c r="H18" s="8"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19">
-      <c r="H19" s="8"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20">
-      <c r="H20" s="8"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21">
-      <c r="H21" s="8"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22">
-      <c r="H22" s="8"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23">
-      <c r="H23" s="8"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24">
-      <c r="H24" s="8"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25">
-      <c r="H25" s="8"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26">
-      <c r="H26" s="8"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27">
-      <c r="H27" s="8"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28">
-      <c r="H28" s="8"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29">
-      <c r="H29" s="8"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30">
-      <c r="H30" s="8"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31">
-      <c r="H31" s="8"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32">
-      <c r="H32" s="8"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33">
-      <c r="H33" s="8"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34">
-      <c r="H34" s="8"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35">
-      <c r="H35" s="8"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36">
-      <c r="H36" s="8"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37">
-      <c r="H37" s="8"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38">
-      <c r="H38" s="8"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39">
-      <c r="H39" s="8"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40">
-      <c r="H40" s="8"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41">
-      <c r="H41" s="8"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42">
-      <c r="H42" s="8"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43">
-      <c r="H43" s="8"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44">
-      <c r="H44" s="8"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45">
-      <c r="H45" s="8"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46">
-      <c r="H46" s="8"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47">
-      <c r="H47" s="8"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48">
-      <c r="H48" s="8"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49">
-      <c r="H49" s="8"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50">
-      <c r="H50" s="8"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51">
-      <c r="H51" s="8"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52">
-      <c r="H52" s="8"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53">
-      <c r="H53" s="8"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54">
-      <c r="H54" s="8"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55">
-      <c r="H55" s="8"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56">
-      <c r="H56" s="8"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57">
-      <c r="H57" s="8"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58">
-      <c r="H58" s="8"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59">
-      <c r="H59" s="8"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60">
-      <c r="H60" s="8"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61">
-      <c r="H61" s="8"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62">
-      <c r="H62" s="8"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63">
-      <c r="H63" s="8"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64">
-      <c r="H64" s="8"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65">
-      <c r="H65" s="8"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66">
-      <c r="H66" s="8"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67">
-      <c r="H67" s="8"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68">
-      <c r="H68" s="8"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69">
-      <c r="H69" s="8"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70">
-      <c r="H70" s="8"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71">
-      <c r="H71" s="8"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72">
-      <c r="H72" s="8"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73">
-      <c r="H73" s="8"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74">
-      <c r="H74" s="8"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75">
-      <c r="H75" s="8"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76">
-      <c r="H76" s="8"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77">
-      <c r="H77" s="8"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78">
-      <c r="H78" s="8"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79">
-      <c r="H79" s="8"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80">
-      <c r="H80" s="8"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81">
-      <c r="H81" s="8"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82">
-      <c r="H82" s="8"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83">
-      <c r="H83" s="8"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84">
-      <c r="H84" s="8"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85">
-      <c r="H85" s="8"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86">
-      <c r="H86" s="8"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87">
-      <c r="H87" s="8"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88">
-      <c r="H88" s="8"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89">
-      <c r="H89" s="8"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90">
-      <c r="H90" s="8"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91">
-      <c r="H91" s="8"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92">
-      <c r="H92" s="8"/>
+      <c r="H92" s="6"/>
     </row>
     <row r="93">
-      <c r="H93" s="8"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94">
-      <c r="H94" s="8"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95">
-      <c r="H95" s="8"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96">
-      <c r="H96" s="8"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97">
-      <c r="H97" s="8"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98">
-      <c r="H98" s="8"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99">
-      <c r="H99" s="8"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100">
-      <c r="H100" s="8"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101">
-      <c r="H101" s="8"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102">
-      <c r="H102" s="8"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103">
-      <c r="H103" s="8"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104">
-      <c r="H104" s="8"/>
+      <c r="H104" s="6"/>
     </row>
     <row r="105">
-      <c r="H105" s="8"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106">
-      <c r="H106" s="8"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107">
-      <c r="H107" s="8"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108">
-      <c r="H108" s="8"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109">
-      <c r="H109" s="8"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110">
-      <c r="H110" s="8"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111">
-      <c r="H111" s="8"/>
+      <c r="H111" s="6"/>
     </row>
     <row r="112">
-      <c r="H112" s="8"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113">
-      <c r="H113" s="8"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114">
-      <c r="H114" s="8"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115">
-      <c r="H115" s="8"/>
+      <c r="H115" s="6"/>
     </row>
     <row r="116">
-      <c r="H116" s="8"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117">
-      <c r="H117" s="8"/>
+      <c r="H117" s="6"/>
     </row>
     <row r="118">
-      <c r="H118" s="8"/>
+      <c r="H118" s="6"/>
     </row>
     <row r="119">
-      <c r="H119" s="8"/>
+      <c r="H119" s="6"/>
     </row>
     <row r="120">
-      <c r="H120" s="8"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121">
-      <c r="H121" s="8"/>
+      <c r="H121" s="6"/>
     </row>
     <row r="122">
-      <c r="H122" s="8"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123">
-      <c r="H123" s="8"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124">
-      <c r="H124" s="8"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125">
-      <c r="H125" s="8"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126">
-      <c r="H126" s="8"/>
+      <c r="H126" s="6"/>
     </row>
     <row r="127">
-      <c r="H127" s="8"/>
+      <c r="H127" s="6"/>
     </row>
     <row r="128">
-      <c r="H128" s="8"/>
+      <c r="H128" s="6"/>
     </row>
     <row r="129">
-      <c r="H129" s="8"/>
+      <c r="H129" s="6"/>
     </row>
     <row r="130">
-      <c r="H130" s="8"/>
+      <c r="H130" s="6"/>
     </row>
     <row r="131">
-      <c r="H131" s="8"/>
+      <c r="H131" s="6"/>
     </row>
     <row r="132">
-      <c r="H132" s="8"/>
+      <c r="H132" s="6"/>
     </row>
     <row r="133">
-      <c r="H133" s="8"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134">
-      <c r="H134" s="8"/>
+      <c r="H134" s="6"/>
     </row>
     <row r="135">
-      <c r="H135" s="8"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136">
-      <c r="H136" s="8"/>
+      <c r="H136" s="6"/>
     </row>
     <row r="137">
-      <c r="H137" s="8"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138">
-      <c r="H138" s="8"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139">
-      <c r="H139" s="8"/>
+      <c r="H139" s="6"/>
     </row>
     <row r="140">
-      <c r="H140" s="8"/>
+      <c r="H140" s="6"/>
     </row>
     <row r="141">
-      <c r="H141" s="8"/>
+      <c r="H141" s="6"/>
     </row>
     <row r="142">
-      <c r="H142" s="8"/>
+      <c r="H142" s="6"/>
     </row>
     <row r="143">
-      <c r="H143" s="8"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144">
-      <c r="H144" s="8"/>
+      <c r="H144" s="6"/>
     </row>
     <row r="145">
-      <c r="H145" s="8"/>
+      <c r="H145" s="6"/>
     </row>
     <row r="146">
-      <c r="H146" s="8"/>
+      <c r="H146" s="6"/>
     </row>
     <row r="147">
-      <c r="H147" s="8"/>
+      <c r="H147" s="6"/>
     </row>
     <row r="148">
-      <c r="H148" s="8"/>
+      <c r="H148" s="6"/>
     </row>
     <row r="149">
-      <c r="H149" s="8"/>
+      <c r="H149" s="6"/>
     </row>
     <row r="150">
-      <c r="H150" s="8"/>
+      <c r="H150" s="6"/>
     </row>
     <row r="151">
-      <c r="H151" s="8"/>
+      <c r="H151" s="6"/>
     </row>
     <row r="152">
-      <c r="H152" s="8"/>
+      <c r="H152" s="6"/>
     </row>
     <row r="153">
-      <c r="H153" s="8"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154">
-      <c r="H154" s="8"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155">
-      <c r="H155" s="8"/>
+      <c r="H155" s="6"/>
     </row>
     <row r="156">
-      <c r="H156" s="8"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157">
-      <c r="H157" s="8"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158">
-      <c r="H158" s="8"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159">
-      <c r="H159" s="8"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160">
-      <c r="H160" s="8"/>
+      <c r="H160" s="6"/>
     </row>
     <row r="161">
-      <c r="H161" s="8"/>
+      <c r="H161" s="6"/>
     </row>
     <row r="162">
-      <c r="H162" s="8"/>
+      <c r="H162" s="6"/>
     </row>
     <row r="163">
-      <c r="H163" s="8"/>
+      <c r="H163" s="6"/>
     </row>
     <row r="164">
-      <c r="H164" s="8"/>
+      <c r="H164" s="6"/>
     </row>
     <row r="165">
-      <c r="H165" s="8"/>
+      <c r="H165" s="6"/>
     </row>
     <row r="166">
-      <c r="H166" s="8"/>
+      <c r="H166" s="6"/>
     </row>
     <row r="167">
-      <c r="H167" s="8"/>
+      <c r="H167" s="6"/>
     </row>
     <row r="168">
-      <c r="H168" s="8"/>
+      <c r="H168" s="6"/>
     </row>
     <row r="169">
-      <c r="H169" s="8"/>
+      <c r="H169" s="6"/>
     </row>
     <row r="170">
-      <c r="H170" s="8"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171">
-      <c r="H171" s="8"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172">
-      <c r="H172" s="8"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173">
-      <c r="H173" s="8"/>
+      <c r="H173" s="6"/>
     </row>
     <row r="174">
-      <c r="H174" s="8"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175">
-      <c r="H175" s="8"/>
+      <c r="H175" s="6"/>
     </row>
     <row r="176">
-      <c r="H176" s="8"/>
+      <c r="H176" s="6"/>
     </row>
     <row r="177">
-      <c r="H177" s="8"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178">
-      <c r="H178" s="8"/>
+      <c r="H178" s="6"/>
     </row>
     <row r="179">
-      <c r="H179" s="8"/>
+      <c r="H179" s="6"/>
     </row>
     <row r="180">
-      <c r="H180" s="8"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181">
-      <c r="H181" s="8"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182">
-      <c r="H182" s="8"/>
+      <c r="H182" s="6"/>
     </row>
     <row r="183">
-      <c r="H183" s="8"/>
+      <c r="H183" s="6"/>
     </row>
     <row r="184">
-      <c r="H184" s="8"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185">
-      <c r="H185" s="8"/>
+      <c r="H185" s="6"/>
     </row>
     <row r="186">
-      <c r="H186" s="8"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187">
-      <c r="H187" s="8"/>
+      <c r="H187" s="6"/>
     </row>
     <row r="188">
-      <c r="H188" s="8"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189">
-      <c r="H189" s="8"/>
+      <c r="H189" s="6"/>
     </row>
     <row r="190">
-      <c r="H190" s="8"/>
+      <c r="H190" s="6"/>
     </row>
     <row r="191">
-      <c r="H191" s="8"/>
+      <c r="H191" s="6"/>
     </row>
     <row r="192">
-      <c r="H192" s="8"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193">
-      <c r="H193" s="8"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194">
-      <c r="H194" s="8"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195">
-      <c r="H195" s="8"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196">
-      <c r="H196" s="8"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197">
-      <c r="H197" s="8"/>
+      <c r="H197" s="6"/>
     </row>
     <row r="198">
-      <c r="H198" s="8"/>
+      <c r="H198" s="6"/>
     </row>
     <row r="199">
-      <c r="H199" s="8"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200">
-      <c r="H200" s="8"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201">
-      <c r="H201" s="8"/>
+      <c r="H201" s="6"/>
     </row>
     <row r="202">
-      <c r="H202" s="8"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203">
-      <c r="H203" s="8"/>
+      <c r="H203" s="6"/>
     </row>
     <row r="204">
-      <c r="H204" s="8"/>
+      <c r="H204" s="6"/>
     </row>
     <row r="205">
-      <c r="H205" s="8"/>
+      <c r="H205" s="6"/>
     </row>
     <row r="206">
-      <c r="H206" s="8"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207">
-      <c r="H207" s="8"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208">
-      <c r="H208" s="8"/>
+      <c r="H208" s="6"/>
     </row>
     <row r="209">
-      <c r="H209" s="8"/>
+      <c r="H209" s="6"/>
     </row>
     <row r="210">
-      <c r="H210" s="8"/>
+      <c r="H210" s="6"/>
     </row>
     <row r="211">
-      <c r="H211" s="8"/>
+      <c r="H211" s="6"/>
     </row>
     <row r="212">
-      <c r="H212" s="8"/>
+      <c r="H212" s="6"/>
     </row>
     <row r="213">
-      <c r="H213" s="8"/>
+      <c r="H213" s="6"/>
     </row>
     <row r="214">
-      <c r="H214" s="8"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215">
-      <c r="H215" s="8"/>
+      <c r="H215" s="6"/>
     </row>
     <row r="216">
-      <c r="H216" s="8"/>
+      <c r="H216" s="6"/>
     </row>
     <row r="217">
-      <c r="H217" s="8"/>
+      <c r="H217" s="6"/>
     </row>
     <row r="218">
-      <c r="H218" s="8"/>
+      <c r="H218" s="6"/>
     </row>
     <row r="219">
-      <c r="H219" s="8"/>
+      <c r="H219" s="6"/>
     </row>
     <row r="220">
-      <c r="H220" s="8"/>
+      <c r="H220" s="6"/>
     </row>
     <row r="221">
-      <c r="H221" s="8"/>
+      <c r="H221" s="6"/>
     </row>
     <row r="222">
-      <c r="H222" s="8"/>
+      <c r="H222" s="6"/>
     </row>
     <row r="223">
-      <c r="H223" s="8"/>
+      <c r="H223" s="6"/>
     </row>
     <row r="224">
-      <c r="H224" s="8"/>
+      <c r="H224" s="6"/>
     </row>
     <row r="225">
-      <c r="H225" s="8"/>
+      <c r="H225" s="6"/>
     </row>
     <row r="226">
-      <c r="H226" s="8"/>
+      <c r="H226" s="6"/>
     </row>
     <row r="227">
-      <c r="H227" s="8"/>
+      <c r="H227" s="6"/>
     </row>
     <row r="228">
-      <c r="H228" s="8"/>
+      <c r="H228" s="6"/>
     </row>
     <row r="229">
-      <c r="H229" s="8"/>
+      <c r="H229" s="6"/>
     </row>
     <row r="230">
-      <c r="H230" s="8"/>
+      <c r="H230" s="6"/>
     </row>
     <row r="231">
-      <c r="H231" s="8"/>
+      <c r="H231" s="6"/>
     </row>
     <row r="232">
-      <c r="H232" s="8"/>
+      <c r="H232" s="6"/>
     </row>
     <row r="233">
-      <c r="H233" s="8"/>
+      <c r="H233" s="6"/>
     </row>
     <row r="234">
-      <c r="H234" s="8"/>
+      <c r="H234" s="6"/>
     </row>
     <row r="235">
-      <c r="H235" s="8"/>
+      <c r="H235" s="6"/>
     </row>
     <row r="236">
-      <c r="H236" s="8"/>
+      <c r="H236" s="6"/>
     </row>
     <row r="237">
-      <c r="H237" s="8"/>
+      <c r="H237" s="6"/>
     </row>
     <row r="238">
-      <c r="H238" s="8"/>
+      <c r="H238" s="6"/>
     </row>
     <row r="239">
-      <c r="H239" s="8"/>
+      <c r="H239" s="6"/>
     </row>
     <row r="240">
-      <c r="H240" s="8"/>
+      <c r="H240" s="6"/>
     </row>
     <row r="241">
-      <c r="H241" s="8"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242">
-      <c r="H242" s="8"/>
+      <c r="H242" s="6"/>
     </row>
     <row r="243">
-      <c r="H243" s="8"/>
+      <c r="H243" s="6"/>
     </row>
     <row r="244">
-      <c r="H244" s="8"/>
+      <c r="H244" s="6"/>
     </row>
     <row r="245">
-      <c r="H245" s="8"/>
+      <c r="H245" s="6"/>
     </row>
     <row r="246">
-      <c r="H246" s="8"/>
+      <c r="H246" s="6"/>
     </row>
     <row r="247">
-      <c r="H247" s="8"/>
+      <c r="H247" s="6"/>
     </row>
     <row r="248">
-      <c r="H248" s="8"/>
+      <c r="H248" s="6"/>
     </row>
     <row r="249">
-      <c r="H249" s="8"/>
+      <c r="H249" s="6"/>
     </row>
     <row r="250">
-      <c r="H250" s="8"/>
+      <c r="H250" s="6"/>
     </row>
     <row r="251">
-      <c r="H251" s="8"/>
+      <c r="H251" s="6"/>
     </row>
     <row r="252">
-      <c r="H252" s="8"/>
+      <c r="H252" s="6"/>
     </row>
     <row r="253">
-      <c r="H253" s="8"/>
+      <c r="H253" s="6"/>
     </row>
     <row r="254">
-      <c r="H254" s="8"/>
+      <c r="H254" s="6"/>
     </row>
     <row r="255">
-      <c r="H255" s="8"/>
+      <c r="H255" s="6"/>
     </row>
     <row r="256">
-      <c r="H256" s="8"/>
+      <c r="H256" s="6"/>
     </row>
     <row r="257">
-      <c r="H257" s="8"/>
+      <c r="H257" s="6"/>
     </row>
     <row r="258">
-      <c r="H258" s="8"/>
+      <c r="H258" s="6"/>
     </row>
     <row r="259">
-      <c r="H259" s="8"/>
+      <c r="H259" s="6"/>
     </row>
     <row r="260">
-      <c r="H260" s="8"/>
+      <c r="H260" s="6"/>
     </row>
     <row r="261">
-      <c r="H261" s="8"/>
+      <c r="H261" s="6"/>
     </row>
     <row r="262">
-      <c r="H262" s="8"/>
+      <c r="H262" s="6"/>
     </row>
     <row r="263">
-      <c r="H263" s="8"/>
+      <c r="H263" s="6"/>
     </row>
     <row r="264">
-      <c r="H264" s="8"/>
+      <c r="H264" s="6"/>
     </row>
     <row r="265">
-      <c r="H265" s="8"/>
+      <c r="H265" s="6"/>
     </row>
     <row r="266">
-      <c r="H266" s="8"/>
+      <c r="H266" s="6"/>
     </row>
     <row r="267">
-      <c r="H267" s="8"/>
+      <c r="H267" s="6"/>
     </row>
     <row r="268">
-      <c r="H268" s="8"/>
+      <c r="H268" s="6"/>
     </row>
     <row r="269">
-      <c r="H269" s="8"/>
+      <c r="H269" s="6"/>
     </row>
     <row r="270">
-      <c r="H270" s="8"/>
+      <c r="H270" s="6"/>
     </row>
     <row r="271">
-      <c r="H271" s="8"/>
+      <c r="H271" s="6"/>
     </row>
     <row r="272">
-      <c r="H272" s="8"/>
+      <c r="H272" s="6"/>
     </row>
     <row r="273">
-      <c r="H273" s="8"/>
+      <c r="H273" s="6"/>
     </row>
     <row r="274">
-      <c r="H274" s="8"/>
+      <c r="H274" s="6"/>
     </row>
     <row r="275">
-      <c r="H275" s="8"/>
+      <c r="H275" s="6"/>
     </row>
     <row r="276">
-      <c r="H276" s="8"/>
+      <c r="H276" s="6"/>
     </row>
     <row r="277">
-      <c r="H277" s="8"/>
+      <c r="H277" s="6"/>
     </row>
     <row r="278">
-      <c r="H278" s="8"/>
+      <c r="H278" s="6"/>
     </row>
     <row r="279">
-      <c r="H279" s="8"/>
+      <c r="H279" s="6"/>
     </row>
     <row r="280">
-      <c r="H280" s="8"/>
+      <c r="H280" s="6"/>
     </row>
     <row r="281">
-      <c r="H281" s="8"/>
+      <c r="H281" s="6"/>
     </row>
     <row r="282">
-      <c r="H282" s="8"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283">
-      <c r="H283" s="8"/>
+      <c r="H283" s="6"/>
     </row>
     <row r="284">
-      <c r="H284" s="8"/>
+      <c r="H284" s="6"/>
     </row>
     <row r="285">
-      <c r="H285" s="8"/>
+      <c r="H285" s="6"/>
     </row>
     <row r="286">
-      <c r="H286" s="8"/>
+      <c r="H286" s="6"/>
     </row>
     <row r="287">
-      <c r="H287" s="8"/>
+      <c r="H287" s="6"/>
     </row>
     <row r="288">
-      <c r="H288" s="8"/>
+      <c r="H288" s="6"/>
     </row>
     <row r="289">
-      <c r="H289" s="8"/>
+      <c r="H289" s="6"/>
     </row>
     <row r="290">
-      <c r="H290" s="8"/>
+      <c r="H290" s="6"/>
     </row>
     <row r="291">
-      <c r="H291" s="8"/>
+      <c r="H291" s="6"/>
     </row>
     <row r="292">
-      <c r="H292" s="8"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293">
-      <c r="H293" s="8"/>
+      <c r="H293" s="6"/>
     </row>
     <row r="294">
-      <c r="H294" s="8"/>
+      <c r="H294" s="6"/>
     </row>
     <row r="295">
-      <c r="H295" s="8"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296">
-      <c r="H296" s="8"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297">
-      <c r="H297" s="8"/>
+      <c r="H297" s="6"/>
     </row>
     <row r="298">
-      <c r="H298" s="8"/>
+      <c r="H298" s="6"/>
     </row>
     <row r="299">
-      <c r="H299" s="8"/>
+      <c r="H299" s="6"/>
     </row>
     <row r="300">
-      <c r="H300" s="8"/>
+      <c r="H300" s="6"/>
     </row>
     <row r="301">
-      <c r="H301" s="8"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302">
-      <c r="H302" s="8"/>
+      <c r="H302" s="6"/>
     </row>
     <row r="303">
-      <c r="H303" s="8"/>
+      <c r="H303" s="6"/>
     </row>
     <row r="304">
-      <c r="H304" s="8"/>
+      <c r="H304" s="6"/>
     </row>
     <row r="305">
-      <c r="H305" s="8"/>
+      <c r="H305" s="6"/>
     </row>
     <row r="306">
-      <c r="H306" s="8"/>
+      <c r="H306" s="6"/>
     </row>
     <row r="307">
-      <c r="H307" s="8"/>
+      <c r="H307" s="6"/>
     </row>
     <row r="308">
-      <c r="H308" s="8"/>
+      <c r="H308" s="6"/>
     </row>
     <row r="309">
-      <c r="H309" s="8"/>
+      <c r="H309" s="6"/>
     </row>
     <row r="310">
-      <c r="H310" s="8"/>
+      <c r="H310" s="6"/>
     </row>
     <row r="311">
-      <c r="H311" s="8"/>
+      <c r="H311" s="6"/>
     </row>
     <row r="312">
-      <c r="H312" s="8"/>
+      <c r="H312" s="6"/>
     </row>
     <row r="313">
-      <c r="H313" s="8"/>
+      <c r="H313" s="6"/>
     </row>
     <row r="314">
-      <c r="H314" s="8"/>
+      <c r="H314" s="6"/>
     </row>
     <row r="315">
-      <c r="H315" s="8"/>
+      <c r="H315" s="6"/>
     </row>
     <row r="316">
-      <c r="H316" s="8"/>
+      <c r="H316" s="6"/>
     </row>
     <row r="317">
-      <c r="H317" s="8"/>
+      <c r="H317" s="6"/>
     </row>
     <row r="318">
-      <c r="H318" s="8"/>
+      <c r="H318" s="6"/>
     </row>
     <row r="319">
-      <c r="H319" s="8"/>
+      <c r="H319" s="6"/>
     </row>
     <row r="320">
-      <c r="H320" s="8"/>
+      <c r="H320" s="6"/>
     </row>
     <row r="321">
-      <c r="H321" s="8"/>
+      <c r="H321" s="6"/>
     </row>
     <row r="322">
-      <c r="H322" s="8"/>
+      <c r="H322" s="6"/>
     </row>
     <row r="323">
-      <c r="H323" s="8"/>
+      <c r="H323" s="6"/>
     </row>
     <row r="324">
-      <c r="H324" s="8"/>
+      <c r="H324" s="6"/>
     </row>
     <row r="325">
-      <c r="H325" s="8"/>
+      <c r="H325" s="6"/>
     </row>
     <row r="326">
-      <c r="H326" s="8"/>
+      <c r="H326" s="6"/>
     </row>
     <row r="327">
-      <c r="H327" s="8"/>
+      <c r="H327" s="6"/>
     </row>
     <row r="328">
-      <c r="H328" s="8"/>
+      <c r="H328" s="6"/>
     </row>
     <row r="329">
-      <c r="H329" s="8"/>
+      <c r="H329" s="6"/>
     </row>
     <row r="330">
-      <c r="H330" s="8"/>
+      <c r="H330" s="6"/>
     </row>
     <row r="331">
-      <c r="H331" s="8"/>
+      <c r="H331" s="6"/>
     </row>
     <row r="332">
-      <c r="H332" s="8"/>
+      <c r="H332" s="6"/>
     </row>
     <row r="333">
-      <c r="H333" s="8"/>
+      <c r="H333" s="6"/>
     </row>
     <row r="334">
-      <c r="H334" s="8"/>
+      <c r="H334" s="6"/>
     </row>
     <row r="335">
-      <c r="H335" s="8"/>
+      <c r="H335" s="6"/>
     </row>
     <row r="336">
-      <c r="H336" s="8"/>
+      <c r="H336" s="6"/>
     </row>
     <row r="337">
-      <c r="H337" s="8"/>
+      <c r="H337" s="6"/>
     </row>
     <row r="338">
-      <c r="H338" s="8"/>
+      <c r="H338" s="6"/>
     </row>
     <row r="339">
-      <c r="H339" s="8"/>
+      <c r="H339" s="6"/>
     </row>
     <row r="340">
-      <c r="H340" s="8"/>
+      <c r="H340" s="6"/>
     </row>
     <row r="341">
-      <c r="H341" s="8"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342">
-      <c r="H342" s="8"/>
+      <c r="H342" s="6"/>
     </row>
     <row r="343">
-      <c r="H343" s="8"/>
+      <c r="H343" s="6"/>
     </row>
     <row r="344">
-      <c r="H344" s="8"/>
+      <c r="H344" s="6"/>
     </row>
     <row r="345">
-      <c r="H345" s="8"/>
+      <c r="H345" s="6"/>
     </row>
     <row r="346">
-      <c r="H346" s="8"/>
+      <c r="H346" s="6"/>
     </row>
     <row r="347">
-      <c r="H347" s="8"/>
+      <c r="H347" s="6"/>
     </row>
     <row r="348">
-      <c r="H348" s="8"/>
+      <c r="H348" s="6"/>
     </row>
     <row r="349">
-      <c r="H349" s="8"/>
+      <c r="H349" s="6"/>
     </row>
     <row r="350">
-      <c r="H350" s="8"/>
+      <c r="H350" s="6"/>
     </row>
     <row r="351">
-      <c r="H351" s="8"/>
+      <c r="H351" s="6"/>
     </row>
     <row r="352">
-      <c r="H352" s="8"/>
+      <c r="H352" s="6"/>
     </row>
     <row r="353">
-      <c r="H353" s="8"/>
+      <c r="H353" s="6"/>
     </row>
     <row r="354">
-      <c r="H354" s="8"/>
+      <c r="H354" s="6"/>
     </row>
     <row r="355">
-      <c r="H355" s="8"/>
+      <c r="H355" s="6"/>
     </row>
     <row r="356">
-      <c r="H356" s="8"/>
+      <c r="H356" s="6"/>
     </row>
     <row r="357">
-      <c r="H357" s="8"/>
+      <c r="H357" s="6"/>
     </row>
     <row r="358">
-      <c r="H358" s="8"/>
+      <c r="H358" s="6"/>
     </row>
     <row r="359">
-      <c r="H359" s="8"/>
+      <c r="H359" s="6"/>
     </row>
     <row r="360">
-      <c r="H360" s="8"/>
+      <c r="H360" s="6"/>
     </row>
     <row r="361">
-      <c r="H361" s="8"/>
+      <c r="H361" s="6"/>
     </row>
     <row r="362">
-      <c r="H362" s="8"/>
+      <c r="H362" s="6"/>
     </row>
     <row r="363">
-      <c r="H363" s="8"/>
+      <c r="H363" s="6"/>
     </row>
     <row r="364">
-      <c r="H364" s="8"/>
+      <c r="H364" s="6"/>
     </row>
     <row r="365">
-      <c r="H365" s="8"/>
+      <c r="H365" s="6"/>
     </row>
     <row r="366">
-      <c r="H366" s="8"/>
+      <c r="H366" s="6"/>
     </row>
     <row r="367">
-      <c r="H367" s="8"/>
+      <c r="H367" s="6"/>
     </row>
     <row r="368">
-      <c r="H368" s="8"/>
+      <c r="H368" s="6"/>
     </row>
     <row r="369">
-      <c r="H369" s="8"/>
+      <c r="H369" s="6"/>
     </row>
     <row r="370">
-      <c r="H370" s="8"/>
+      <c r="H370" s="6"/>
     </row>
     <row r="371">
-      <c r="H371" s="8"/>
+      <c r="H371" s="6"/>
     </row>
     <row r="372">
-      <c r="H372" s="8"/>
+      <c r="H372" s="6"/>
     </row>
     <row r="373">
-      <c r="H373" s="8"/>
+      <c r="H373" s="6"/>
     </row>
     <row r="374">
-      <c r="H374" s="8"/>
+      <c r="H374" s="6"/>
     </row>
     <row r="375">
-      <c r="H375" s="8"/>
+      <c r="H375" s="6"/>
     </row>
     <row r="376">
-      <c r="H376" s="8"/>
+      <c r="H376" s="6"/>
     </row>
     <row r="377">
-      <c r="H377" s="8"/>
+      <c r="H377" s="6"/>
     </row>
     <row r="378">
-      <c r="H378" s="8"/>
+      <c r="H378" s="6"/>
     </row>
     <row r="379">
-      <c r="H379" s="8"/>
+      <c r="H379" s="6"/>
     </row>
     <row r="380">
-      <c r="H380" s="8"/>
+      <c r="H380" s="6"/>
     </row>
     <row r="381">
-      <c r="H381" s="8"/>
+      <c r="H381" s="6"/>
     </row>
     <row r="382">
-      <c r="H382" s="8"/>
+      <c r="H382" s="6"/>
     </row>
     <row r="383">
-      <c r="H383" s="8"/>
+      <c r="H383" s="6"/>
     </row>
     <row r="384">
-      <c r="H384" s="8"/>
+      <c r="H384" s="6"/>
     </row>
     <row r="385">
-      <c r="H385" s="8"/>
+      <c r="H385" s="6"/>
     </row>
     <row r="386">
-      <c r="H386" s="8"/>
+      <c r="H386" s="6"/>
     </row>
     <row r="387">
-      <c r="H387" s="8"/>
+      <c r="H387" s="6"/>
     </row>
     <row r="388">
-      <c r="H388" s="8"/>
+      <c r="H388" s="6"/>
     </row>
     <row r="389">
-      <c r="H389" s="8"/>
+      <c r="H389" s="6"/>
     </row>
     <row r="390">
-      <c r="H390" s="8"/>
+      <c r="H390" s="6"/>
     </row>
     <row r="391">
-      <c r="H391" s="8"/>
+      <c r="H391" s="6"/>
     </row>
     <row r="392">
-      <c r="H392" s="8"/>
+      <c r="H392" s="6"/>
     </row>
     <row r="393">
-      <c r="H393" s="8"/>
+      <c r="H393" s="6"/>
     </row>
     <row r="394">
-      <c r="H394" s="8"/>
+      <c r="H394" s="6"/>
     </row>
     <row r="395">
-      <c r="H395" s="8"/>
+      <c r="H395" s="6"/>
     </row>
     <row r="396">
-      <c r="H396" s="8"/>
+      <c r="H396" s="6"/>
     </row>
     <row r="397">
-      <c r="H397" s="8"/>
+      <c r="H397" s="6"/>
     </row>
     <row r="398">
-      <c r="H398" s="8"/>
+      <c r="H398" s="6"/>
     </row>
     <row r="399">
-      <c r="H399" s="8"/>
+      <c r="H399" s="6"/>
     </row>
     <row r="400">
-      <c r="H400" s="8"/>
+      <c r="H400" s="6"/>
     </row>
     <row r="401">
-      <c r="H401" s="8"/>
+      <c r="H401" s="6"/>
     </row>
     <row r="402">
-      <c r="H402" s="8"/>
+      <c r="H402" s="6"/>
     </row>
     <row r="403">
-      <c r="H403" s="8"/>
+      <c r="H403" s="6"/>
     </row>
     <row r="404">
-      <c r="H404" s="8"/>
+      <c r="H404" s="6"/>
     </row>
     <row r="405">
-      <c r="H405" s="8"/>
+      <c r="H405" s="6"/>
     </row>
     <row r="406">
-      <c r="H406" s="8"/>
+      <c r="H406" s="6"/>
     </row>
     <row r="407">
-      <c r="H407" s="8"/>
+      <c r="H407" s="6"/>
     </row>
     <row r="408">
-      <c r="H408" s="8"/>
+      <c r="H408" s="6"/>
     </row>
     <row r="409">
-      <c r="H409" s="8"/>
+      <c r="H409" s="6"/>
     </row>
     <row r="410">
-      <c r="H410" s="8"/>
+      <c r="H410" s="6"/>
     </row>
     <row r="411">
-      <c r="H411" s="8"/>
+      <c r="H411" s="6"/>
     </row>
     <row r="412">
-      <c r="H412" s="8"/>
+      <c r="H412" s="6"/>
     </row>
     <row r="413">
-      <c r="H413" s="8"/>
+      <c r="H413" s="6"/>
     </row>
     <row r="414">
-      <c r="H414" s="8"/>
+      <c r="H414" s="6"/>
     </row>
     <row r="415">
-      <c r="H415" s="8"/>
+      <c r="H415" s="6"/>
     </row>
     <row r="416">
-      <c r="H416" s="8"/>
+      <c r="H416" s="6"/>
     </row>
     <row r="417">
-      <c r="H417" s="8"/>
+      <c r="H417" s="6"/>
     </row>
     <row r="418">
-      <c r="H418" s="8"/>
+      <c r="H418" s="6"/>
     </row>
     <row r="419">
-      <c r="H419" s="8"/>
+      <c r="H419" s="6"/>
     </row>
     <row r="420">
-      <c r="H420" s="8"/>
+      <c r="H420" s="6"/>
     </row>
     <row r="421">
-      <c r="H421" s="8"/>
+      <c r="H421" s="6"/>
     </row>
     <row r="422">
-      <c r="H422" s="8"/>
+      <c r="H422" s="6"/>
     </row>
     <row r="423">
-      <c r="H423" s="8"/>
+      <c r="H423" s="6"/>
     </row>
     <row r="424">
-      <c r="H424" s="8"/>
+      <c r="H424" s="6"/>
     </row>
     <row r="425">
-      <c r="H425" s="8"/>
+      <c r="H425" s="6"/>
     </row>
     <row r="426">
-      <c r="H426" s="8"/>
+      <c r="H426" s="6"/>
     </row>
     <row r="427">
-      <c r="H427" s="8"/>
+      <c r="H427" s="6"/>
     </row>
     <row r="428">
-      <c r="H428" s="8"/>
+      <c r="H428" s="6"/>
     </row>
     <row r="429">
-      <c r="H429" s="8"/>
+      <c r="H429" s="6"/>
     </row>
     <row r="430">
-      <c r="H430" s="8"/>
+      <c r="H430" s="6"/>
     </row>
     <row r="431">
-      <c r="H431" s="8"/>
+      <c r="H431" s="6"/>
     </row>
     <row r="432">
-      <c r="H432" s="8"/>
+      <c r="H432" s="6"/>
     </row>
     <row r="433">
-      <c r="H433" s="8"/>
+      <c r="H433" s="6"/>
     </row>
     <row r="434">
-      <c r="H434" s="8"/>
+      <c r="H434" s="6"/>
     </row>
     <row r="435">
-      <c r="H435" s="8"/>
+      <c r="H435" s="6"/>
     </row>
     <row r="436">
-      <c r="H436" s="8"/>
+      <c r="H436" s="6"/>
     </row>
     <row r="437">
-      <c r="H437" s="8"/>
+      <c r="H437" s="6"/>
     </row>
     <row r="438">
-      <c r="H438" s="8"/>
+      <c r="H438" s="6"/>
     </row>
     <row r="439">
-      <c r="H439" s="8"/>
+      <c r="H439" s="6"/>
     </row>
     <row r="440">
-      <c r="H440" s="8"/>
+      <c r="H440" s="6"/>
     </row>
     <row r="441">
-      <c r="H441" s="8"/>
+      <c r="H441" s="6"/>
     </row>
     <row r="442">
-      <c r="H442" s="8"/>
+      <c r="H442" s="6"/>
     </row>
     <row r="443">
-      <c r="H443" s="8"/>
+      <c r="H443" s="6"/>
     </row>
     <row r="444">
-      <c r="H444" s="8"/>
+      <c r="H444" s="6"/>
     </row>
     <row r="445">
-      <c r="H445" s="8"/>
+      <c r="H445" s="6"/>
     </row>
     <row r="446">
-      <c r="H446" s="8"/>
+      <c r="H446" s="6"/>
     </row>
     <row r="447">
-      <c r="H447" s="8"/>
+      <c r="H447" s="6"/>
     </row>
     <row r="448">
-      <c r="H448" s="8"/>
+      <c r="H448" s="6"/>
     </row>
     <row r="449">
-      <c r="H449" s="8"/>
+      <c r="H449" s="6"/>
     </row>
     <row r="450">
-      <c r="H450" s="8"/>
+      <c r="H450" s="6"/>
     </row>
     <row r="451">
-      <c r="H451" s="8"/>
+      <c r="H451" s="6"/>
     </row>
     <row r="452">
-      <c r="H452" s="8"/>
+      <c r="H452" s="6"/>
     </row>
     <row r="453">
-      <c r="H453" s="8"/>
+      <c r="H453" s="6"/>
     </row>
     <row r="454">
-      <c r="H454" s="8"/>
+      <c r="H454" s="6"/>
     </row>
     <row r="455">
-      <c r="H455" s="8"/>
+      <c r="H455" s="6"/>
     </row>
     <row r="456">
-      <c r="H456" s="8"/>
+      <c r="H456" s="6"/>
     </row>
     <row r="457">
-      <c r="H457" s="8"/>
+      <c r="H457" s="6"/>
     </row>
     <row r="458">
-      <c r="H458" s="8"/>
+      <c r="H458" s="6"/>
     </row>
     <row r="459">
-      <c r="H459" s="8"/>
+      <c r="H459" s="6"/>
     </row>
     <row r="460">
-      <c r="H460" s="8"/>
+      <c r="H460" s="6"/>
     </row>
     <row r="461">
-      <c r="H461" s="8"/>
+      <c r="H461" s="6"/>
     </row>
     <row r="462">
-      <c r="H462" s="8"/>
+      <c r="H462" s="6"/>
     </row>
     <row r="463">
-      <c r="H463" s="8"/>
+      <c r="H463" s="6"/>
     </row>
     <row r="464">
-      <c r="H464" s="8"/>
+      <c r="H464" s="6"/>
     </row>
     <row r="465">
-      <c r="H465" s="8"/>
+      <c r="H465" s="6"/>
     </row>
     <row r="466">
-      <c r="H466" s="8"/>
+      <c r="H466" s="6"/>
     </row>
     <row r="467">
-      <c r="H467" s="8"/>
+      <c r="H467" s="6"/>
     </row>
     <row r="468">
-      <c r="H468" s="8"/>
+      <c r="H468" s="6"/>
     </row>
     <row r="469">
-      <c r="H469" s="8"/>
+      <c r="H469" s="6"/>
     </row>
     <row r="470">
-      <c r="H470" s="8"/>
+      <c r="H470" s="6"/>
     </row>
     <row r="471">
-      <c r="H471" s="8"/>
+      <c r="H471" s="6"/>
     </row>
     <row r="472">
-      <c r="H472" s="8"/>
+      <c r="H472" s="6"/>
     </row>
     <row r="473">
-      <c r="H473" s="8"/>
+      <c r="H473" s="6"/>
     </row>
     <row r="474">
-      <c r="H474" s="8"/>
+      <c r="H474" s="6"/>
     </row>
     <row r="475">
-      <c r="H475" s="8"/>
+      <c r="H475" s="6"/>
     </row>
     <row r="476">
-      <c r="H476" s="8"/>
+      <c r="H476" s="6"/>
     </row>
     <row r="477">
-      <c r="H477" s="8"/>
+      <c r="H477" s="6"/>
     </row>
     <row r="478">
-      <c r="H478" s="8"/>
+      <c r="H478" s="6"/>
     </row>
     <row r="479">
-      <c r="H479" s="8"/>
+      <c r="H479" s="6"/>
     </row>
     <row r="480">
-      <c r="H480" s="8"/>
+      <c r="H480" s="6"/>
     </row>
     <row r="481">
-      <c r="H481" s="8"/>
+      <c r="H481" s="6"/>
     </row>
     <row r="482">
-      <c r="H482" s="8"/>
+      <c r="H482" s="6"/>
     </row>
     <row r="483">
-      <c r="H483" s="8"/>
+      <c r="H483" s="6"/>
     </row>
     <row r="484">
-      <c r="H484" s="8"/>
+      <c r="H484" s="6"/>
     </row>
     <row r="485">
-      <c r="H485" s="8"/>
+      <c r="H485" s="6"/>
     </row>
     <row r="486">
-      <c r="H486" s="8"/>
+      <c r="H486" s="6"/>
     </row>
     <row r="487">
-      <c r="H487" s="8"/>
+      <c r="H487" s="6"/>
     </row>
     <row r="488">
-      <c r="H488" s="8"/>
+      <c r="H488" s="6"/>
     </row>
     <row r="489">
-      <c r="H489" s="8"/>
+      <c r="H489" s="6"/>
     </row>
     <row r="490">
-      <c r="H490" s="8"/>
+      <c r="H490" s="6"/>
     </row>
     <row r="491">
-      <c r="H491" s="8"/>
+      <c r="H491" s="6"/>
     </row>
     <row r="492">
-      <c r="H492" s="8"/>
+      <c r="H492" s="6"/>
     </row>
     <row r="493">
-      <c r="H493" s="8"/>
+      <c r="H493" s="6"/>
     </row>
     <row r="494">
-      <c r="H494" s="8"/>
+      <c r="H494" s="6"/>
     </row>
     <row r="495">
-      <c r="H495" s="8"/>
+      <c r="H495" s="6"/>
     </row>
     <row r="496">
-      <c r="H496" s="8"/>
+      <c r="H496" s="6"/>
     </row>
     <row r="497">
-      <c r="H497" s="8"/>
+      <c r="H497" s="6"/>
     </row>
     <row r="498">
-      <c r="H498" s="8"/>
+      <c r="H498" s="6"/>
     </row>
     <row r="499">
-      <c r="H499" s="8"/>
+      <c r="H499" s="6"/>
     </row>
     <row r="500">
-      <c r="H500" s="8"/>
+      <c r="H500" s="6"/>
     </row>
     <row r="501">
-      <c r="H501" s="8"/>
+      <c r="H501" s="6"/>
     </row>
     <row r="502">
-      <c r="H502" s="8"/>
+      <c r="H502" s="6"/>
     </row>
     <row r="503">
-      <c r="H503" s="8"/>
+      <c r="H503" s="6"/>
     </row>
     <row r="504">
-      <c r="H504" s="8"/>
+      <c r="H504" s="6"/>
     </row>
     <row r="505">
-      <c r="H505" s="8"/>
+      <c r="H505" s="6"/>
     </row>
     <row r="506">
-      <c r="H506" s="8"/>
+      <c r="H506" s="6"/>
     </row>
     <row r="507">
-      <c r="H507" s="8"/>
+      <c r="H507" s="6"/>
     </row>
     <row r="508">
-      <c r="H508" s="8"/>
+      <c r="H508" s="6"/>
     </row>
     <row r="509">
-      <c r="H509" s="8"/>
+      <c r="H509" s="6"/>
     </row>
     <row r="510">
-      <c r="H510" s="8"/>
+      <c r="H510" s="6"/>
     </row>
     <row r="511">
-      <c r="H511" s="8"/>
+      <c r="H511" s="6"/>
     </row>
     <row r="512">
-      <c r="H512" s="8"/>
+      <c r="H512" s="6"/>
     </row>
     <row r="513">
-      <c r="H513" s="8"/>
+      <c r="H513" s="6"/>
     </row>
     <row r="514">
-      <c r="H514" s="8"/>
+      <c r="H514" s="6"/>
     </row>
     <row r="515">
-      <c r="H515" s="8"/>
+      <c r="H515" s="6"/>
     </row>
     <row r="516">
-      <c r="H516" s="8"/>
+      <c r="H516" s="6"/>
     </row>
     <row r="517">
-      <c r="H517" s="8"/>
+      <c r="H517" s="6"/>
     </row>
     <row r="518">
-      <c r="H518" s="8"/>
+      <c r="H518" s="6"/>
     </row>
     <row r="519">
-      <c r="H519" s="8"/>
+      <c r="H519" s="6"/>
     </row>
     <row r="520">
-      <c r="H520" s="8"/>
+      <c r="H520" s="6"/>
     </row>
     <row r="521">
-      <c r="H521" s="8"/>
+      <c r="H521" s="6"/>
     </row>
     <row r="522">
-      <c r="H522" s="8"/>
+      <c r="H522" s="6"/>
     </row>
     <row r="523">
-      <c r="H523" s="8"/>
+      <c r="H523" s="6"/>
     </row>
     <row r="524">
-      <c r="H524" s="8"/>
+      <c r="H524" s="6"/>
     </row>
     <row r="525">
-      <c r="H525" s="8"/>
+      <c r="H525" s="6"/>
     </row>
     <row r="526">
-      <c r="H526" s="8"/>
+      <c r="H526" s="6"/>
     </row>
     <row r="527">
-      <c r="H527" s="8"/>
+      <c r="H527" s="6"/>
     </row>
     <row r="528">
-      <c r="H528" s="8"/>
+      <c r="H528" s="6"/>
     </row>
     <row r="529">
-      <c r="H529" s="8"/>
+      <c r="H529" s="6"/>
     </row>
     <row r="530">
-      <c r="H530" s="8"/>
+      <c r="H530" s="6"/>
     </row>
     <row r="531">
-      <c r="H531" s="8"/>
+      <c r="H531" s="6"/>
     </row>
     <row r="532">
-      <c r="H532" s="8"/>
+      <c r="H532" s="6"/>
     </row>
     <row r="533">
-      <c r="H533" s="8"/>
+      <c r="H533" s="6"/>
     </row>
     <row r="534">
-      <c r="H534" s="8"/>
+      <c r="H534" s="6"/>
     </row>
     <row r="535">
-      <c r="H535" s="8"/>
+      <c r="H535" s="6"/>
     </row>
     <row r="536">
-      <c r="H536" s="8"/>
+      <c r="H536" s="6"/>
     </row>
     <row r="537">
-      <c r="H537" s="8"/>
+      <c r="H537" s="6"/>
     </row>
     <row r="538">
-      <c r="H538" s="8"/>
+      <c r="H538" s="6"/>
     </row>
     <row r="539">
-      <c r="H539" s="8"/>
+      <c r="H539" s="6"/>
     </row>
     <row r="540">
-      <c r="H540" s="8"/>
+      <c r="H540" s="6"/>
     </row>
     <row r="541">
-      <c r="H541" s="8"/>
+      <c r="H541" s="6"/>
     </row>
     <row r="542">
-      <c r="H542" s="8"/>
+      <c r="H542" s="6"/>
     </row>
     <row r="543">
-      <c r="H543" s="8"/>
+      <c r="H543" s="6"/>
     </row>
     <row r="544">
-      <c r="H544" s="8"/>
+      <c r="H544" s="6"/>
     </row>
     <row r="545">
-      <c r="H545" s="8"/>
+      <c r="H545" s="6"/>
     </row>
     <row r="546">
-      <c r="H546" s="8"/>
+      <c r="H546" s="6"/>
     </row>
     <row r="547">
-      <c r="H547" s="8"/>
+      <c r="H547" s="6"/>
     </row>
     <row r="548">
-      <c r="H548" s="8"/>
+      <c r="H548" s="6"/>
     </row>
     <row r="549">
-      <c r="H549" s="8"/>
+      <c r="H549" s="6"/>
     </row>
     <row r="550">
-      <c r="H550" s="8"/>
+      <c r="H550" s="6"/>
     </row>
     <row r="551">
-      <c r="H551" s="8"/>
+      <c r="H551" s="6"/>
     </row>
     <row r="552">
-      <c r="H552" s="8"/>
+      <c r="H552" s="6"/>
     </row>
     <row r="553">
-      <c r="H553" s="8"/>
+      <c r="H553" s="6"/>
     </row>
     <row r="554">
-      <c r="H554" s="8"/>
+      <c r="H554" s="6"/>
     </row>
     <row r="555">
-      <c r="H555" s="8"/>
+      <c r="H555" s="6"/>
     </row>
     <row r="556">
-      <c r="H556" s="8"/>
+      <c r="H556" s="6"/>
     </row>
     <row r="557">
-      <c r="H557" s="8"/>
+      <c r="H557" s="6"/>
     </row>
     <row r="558">
-      <c r="H558" s="8"/>
+      <c r="H558" s="6"/>
     </row>
     <row r="559">
-      <c r="H559" s="8"/>
+      <c r="H559" s="6"/>
     </row>
     <row r="560">
-      <c r="H560" s="8"/>
+      <c r="H560" s="6"/>
     </row>
     <row r="561">
-      <c r="H561" s="8"/>
+      <c r="H561" s="6"/>
     </row>
     <row r="562">
-      <c r="H562" s="8"/>
+      <c r="H562" s="6"/>
     </row>
     <row r="563">
-      <c r="H563" s="8"/>
+      <c r="H563" s="6"/>
     </row>
     <row r="564">
-      <c r="H564" s="8"/>
+      <c r="H564" s="6"/>
     </row>
     <row r="565">
-      <c r="H565" s="8"/>
+      <c r="H565" s="6"/>
     </row>
     <row r="566">
-      <c r="H566" s="8"/>
+      <c r="H566" s="6"/>
     </row>
     <row r="567">
-      <c r="H567" s="8"/>
+      <c r="H567" s="6"/>
     </row>
     <row r="568">
-      <c r="H568" s="8"/>
+      <c r="H568" s="6"/>
     </row>
     <row r="569">
-      <c r="H569" s="8"/>
+      <c r="H569" s="6"/>
     </row>
     <row r="570">
-      <c r="H570" s="8"/>
+      <c r="H570" s="6"/>
     </row>
     <row r="571">
-      <c r="H571" s="8"/>
+      <c r="H571" s="6"/>
     </row>
     <row r="572">
-      <c r="H572" s="8"/>
+      <c r="H572" s="6"/>
     </row>
     <row r="573">
-      <c r="H573" s="8"/>
+      <c r="H573" s="6"/>
     </row>
     <row r="574">
-      <c r="H574" s="8"/>
+      <c r="H574" s="6"/>
     </row>
     <row r="575">
-      <c r="H575" s="8"/>
+      <c r="H575" s="6"/>
     </row>
     <row r="576">
-      <c r="H576" s="8"/>
+      <c r="H576" s="6"/>
     </row>
     <row r="577">
-      <c r="H577" s="8"/>
+      <c r="H577" s="6"/>
     </row>
     <row r="578">
-      <c r="H578" s="8"/>
+      <c r="H578" s="6"/>
     </row>
     <row r="579">
-      <c r="H579" s="8"/>
+      <c r="H579" s="6"/>
     </row>
     <row r="580">
-      <c r="H580" s="8"/>
+      <c r="H580" s="6"/>
     </row>
     <row r="581">
-      <c r="H581" s="8"/>
+      <c r="H581" s="6"/>
     </row>
     <row r="582">
-      <c r="H582" s="8"/>
+      <c r="H582" s="6"/>
     </row>
     <row r="583">
-      <c r="H583" s="8"/>
+      <c r="H583" s="6"/>
     </row>
     <row r="584">
-      <c r="H584" s="8"/>
+      <c r="H584" s="6"/>
     </row>
     <row r="585">
-      <c r="H585" s="8"/>
+      <c r="H585" s="6"/>
     </row>
     <row r="586">
-      <c r="H586" s="8"/>
+      <c r="H586" s="6"/>
     </row>
     <row r="587">
-      <c r="H587" s="8"/>
+      <c r="H587" s="6"/>
     </row>
     <row r="588">
-      <c r="H588" s="8"/>
+      <c r="H588" s="6"/>
     </row>
     <row r="589">
-      <c r="H589" s="8"/>
+      <c r="H589" s="6"/>
     </row>
     <row r="590">
-      <c r="H590" s="8"/>
+      <c r="H590" s="6"/>
     </row>
     <row r="591">
-      <c r="H591" s="8"/>
+      <c r="H591" s="6"/>
     </row>
     <row r="592">
-      <c r="H592" s="8"/>
+      <c r="H592" s="6"/>
     </row>
     <row r="593">
-      <c r="H593" s="8"/>
+      <c r="H593" s="6"/>
     </row>
     <row r="594">
-      <c r="H594" s="8"/>
+      <c r="H594" s="6"/>
     </row>
     <row r="595">
-      <c r="H595" s="8"/>
+      <c r="H595" s="6"/>
     </row>
     <row r="596">
-      <c r="H596" s="8"/>
+      <c r="H596" s="6"/>
     </row>
     <row r="597">
-      <c r="H597" s="8"/>
+      <c r="H597" s="6"/>
     </row>
     <row r="598">
-      <c r="H598" s="8"/>
+      <c r="H598" s="6"/>
     </row>
     <row r="599">
-      <c r="H599" s="8"/>
+      <c r="H599" s="6"/>
     </row>
     <row r="600">
-      <c r="H600" s="8"/>
+      <c r="H600" s="6"/>
     </row>
     <row r="601">
-      <c r="H601" s="8"/>
+      <c r="H601" s="6"/>
     </row>
     <row r="602">
-      <c r="H602" s="8"/>
+      <c r="H602" s="6"/>
     </row>
     <row r="603">
-      <c r="H603" s="8"/>
+      <c r="H603" s="6"/>
     </row>
     <row r="604">
-      <c r="H604" s="8"/>
+      <c r="H604" s="6"/>
     </row>
     <row r="605">
-      <c r="H605" s="8"/>
+      <c r="H605" s="6"/>
     </row>
     <row r="606">
-      <c r="H606" s="8"/>
+      <c r="H606" s="6"/>
     </row>
     <row r="607">
-      <c r="H607" s="8"/>
+      <c r="H607" s="6"/>
     </row>
     <row r="608">
-      <c r="H608" s="8"/>
+      <c r="H608" s="6"/>
     </row>
     <row r="609">
-      <c r="H609" s="8"/>
+      <c r="H609" s="6"/>
     </row>
     <row r="610">
-      <c r="H610" s="8"/>
+      <c r="H610" s="6"/>
     </row>
     <row r="611">
-      <c r="H611" s="8"/>
+      <c r="H611" s="6"/>
     </row>
     <row r="612">
-      <c r="H612" s="8"/>
+      <c r="H612" s="6"/>
     </row>
     <row r="613">
-      <c r="H613" s="8"/>
+      <c r="H613" s="6"/>
     </row>
     <row r="614">
-      <c r="H614" s="8"/>
+      <c r="H614" s="6"/>
     </row>
     <row r="615">
-      <c r="H615" s="8"/>
+      <c r="H615" s="6"/>
     </row>
     <row r="616">
-      <c r="H616" s="8"/>
+      <c r="H616" s="6"/>
     </row>
     <row r="617">
-      <c r="H617" s="8"/>
+      <c r="H617" s="6"/>
     </row>
     <row r="618">
-      <c r="H618" s="8"/>
+      <c r="H618" s="6"/>
     </row>
     <row r="619">
-      <c r="H619" s="8"/>
+      <c r="H619" s="6"/>
     </row>
     <row r="620">
-      <c r="H620" s="8"/>
+      <c r="H620" s="6"/>
     </row>
     <row r="621">
-      <c r="H621" s="8"/>
+      <c r="H621" s="6"/>
     </row>
     <row r="622">
-      <c r="H622" s="8"/>
+      <c r="H622" s="6"/>
     </row>
     <row r="623">
-      <c r="H623" s="8"/>
+      <c r="H623" s="6"/>
     </row>
     <row r="624">
-      <c r="H624" s="8"/>
+      <c r="H624" s="6"/>
     </row>
     <row r="625">
-      <c r="H625" s="8"/>
+      <c r="H625" s="6"/>
     </row>
     <row r="626">
-      <c r="H626" s="8"/>
+      <c r="H626" s="6"/>
     </row>
     <row r="627">
-      <c r="H627" s="8"/>
+      <c r="H627" s="6"/>
     </row>
     <row r="628">
-      <c r="H628" s="8"/>
+      <c r="H628" s="6"/>
     </row>
     <row r="629">
-      <c r="H629" s="8"/>
+      <c r="H629" s="6"/>
     </row>
     <row r="630">
-      <c r="H630" s="8"/>
+      <c r="H630" s="6"/>
     </row>
     <row r="631">
-      <c r="H631" s="8"/>
+      <c r="H631" s="6"/>
     </row>
     <row r="632">
-      <c r="H632" s="8"/>
+      <c r="H632" s="6"/>
     </row>
     <row r="633">
-      <c r="H633" s="8"/>
+      <c r="H633" s="6"/>
     </row>
     <row r="634">
-      <c r="H634" s="8"/>
+      <c r="H634" s="6"/>
     </row>
     <row r="635">
-      <c r="H635" s="8"/>
+      <c r="H635" s="6"/>
     </row>
     <row r="636">
-      <c r="H636" s="8"/>
+      <c r="H636" s="6"/>
     </row>
     <row r="637">
-      <c r="H637" s="8"/>
+      <c r="H637" s="6"/>
     </row>
     <row r="638">
-      <c r="H638" s="8"/>
+      <c r="H638" s="6"/>
     </row>
     <row r="639">
-      <c r="H639" s="8"/>
+      <c r="H639" s="6"/>
     </row>
     <row r="640">
-      <c r="H640" s="8"/>
+      <c r="H640" s="6"/>
     </row>
     <row r="641">
-      <c r="H641" s="8"/>
+      <c r="H641" s="6"/>
     </row>
     <row r="642">
-      <c r="H642" s="8"/>
+      <c r="H642" s="6"/>
     </row>
     <row r="643">
-      <c r="H643" s="8"/>
+      <c r="H643" s="6"/>
     </row>
     <row r="644">
-      <c r="H644" s="8"/>
+      <c r="H644" s="6"/>
     </row>
     <row r="645">
-      <c r="H645" s="8"/>
+      <c r="H645" s="6"/>
     </row>
     <row r="646">
-      <c r="H646" s="8"/>
+      <c r="H646" s="6"/>
     </row>
     <row r="647">
-      <c r="H647" s="8"/>
+      <c r="H647" s="6"/>
     </row>
     <row r="648">
-      <c r="H648" s="8"/>
+      <c r="H648" s="6"/>
     </row>
     <row r="649">
-      <c r="H649" s="8"/>
+      <c r="H649" s="6"/>
     </row>
     <row r="650">
-      <c r="H650" s="8"/>
+      <c r="H650" s="6"/>
     </row>
     <row r="651">
-      <c r="H651" s="8"/>
+      <c r="H651" s="6"/>
     </row>
     <row r="652">
-      <c r="H652" s="8"/>
+      <c r="H652" s="6"/>
     </row>
     <row r="653">
-      <c r="H653" s="8"/>
+      <c r="H653" s="6"/>
     </row>
     <row r="654">
-      <c r="H654" s="8"/>
+      <c r="H654" s="6"/>
     </row>
     <row r="655">
-      <c r="H655" s="8"/>
+      <c r="H655" s="6"/>
     </row>
     <row r="656">
-      <c r="H656" s="8"/>
+      <c r="H656" s="6"/>
     </row>
     <row r="657">
-      <c r="H657" s="8"/>
+      <c r="H657" s="6"/>
     </row>
     <row r="658">
-      <c r="H658" s="8"/>
+      <c r="H658" s="6"/>
     </row>
     <row r="659">
-      <c r="H659" s="8"/>
+      <c r="H659" s="6"/>
     </row>
     <row r="660">
-      <c r="H660" s="8"/>
+      <c r="H660" s="6"/>
     </row>
     <row r="661">
-      <c r="H661" s="8"/>
+      <c r="H661" s="6"/>
     </row>
     <row r="662">
-      <c r="H662" s="8"/>
+      <c r="H662" s="6"/>
     </row>
     <row r="663">
-      <c r="H663" s="8"/>
+      <c r="H663" s="6"/>
     </row>
     <row r="664">
-      <c r="H664" s="8"/>
+      <c r="H664" s="6"/>
     </row>
     <row r="665">
-      <c r="H665" s="8"/>
+      <c r="H665" s="6"/>
     </row>
     <row r="666">
-      <c r="H666" s="8"/>
+      <c r="H666" s="6"/>
     </row>
     <row r="667">
-      <c r="H667" s="8"/>
+      <c r="H667" s="6"/>
     </row>
     <row r="668">
-      <c r="H668" s="8"/>
+      <c r="H668" s="6"/>
     </row>
     <row r="669">
-      <c r="H669" s="8"/>
+      <c r="H669" s="6"/>
     </row>
     <row r="670">
-      <c r="H670" s="8"/>
+      <c r="H670" s="6"/>
     </row>
     <row r="671">
-      <c r="H671" s="8"/>
+      <c r="H671" s="6"/>
     </row>
     <row r="672">
-      <c r="H672" s="8"/>
+      <c r="H672" s="6"/>
     </row>
     <row r="673">
-      <c r="H673" s="8"/>
+      <c r="H673" s="6"/>
     </row>
     <row r="674">
-      <c r="H674" s="8"/>
+      <c r="H674" s="6"/>
     </row>
     <row r="675">
-      <c r="H675" s="8"/>
+      <c r="H675" s="6"/>
     </row>
     <row r="676">
-      <c r="H676" s="8"/>
+      <c r="H676" s="6"/>
     </row>
     <row r="677">
-      <c r="H677" s="8"/>
+      <c r="H677" s="6"/>
     </row>
     <row r="678">
-      <c r="H678" s="8"/>
+      <c r="H678" s="6"/>
     </row>
     <row r="679">
-      <c r="H679" s="8"/>
+      <c r="H679" s="6"/>
     </row>
     <row r="680">
-      <c r="H680" s="8"/>
+      <c r="H680" s="6"/>
     </row>
     <row r="681">
-      <c r="H681" s="8"/>
+      <c r="H681" s="6"/>
     </row>
     <row r="682">
-      <c r="H682" s="8"/>
+      <c r="H682" s="6"/>
     </row>
     <row r="683">
-      <c r="H683" s="8"/>
+      <c r="H683" s="6"/>
     </row>
     <row r="684">
-      <c r="H684" s="8"/>
+      <c r="H684" s="6"/>
     </row>
     <row r="685">
-      <c r="H685" s="8"/>
+      <c r="H685" s="6"/>
     </row>
     <row r="686">
-      <c r="H686" s="8"/>
+      <c r="H686" s="6"/>
     </row>
     <row r="687">
-      <c r="H687" s="8"/>
+      <c r="H687" s="6"/>
     </row>
     <row r="688">
-      <c r="H688" s="8"/>
+      <c r="H688" s="6"/>
     </row>
     <row r="689">
-      <c r="H689" s="8"/>
+      <c r="H689" s="6"/>
     </row>
     <row r="690">
-      <c r="H690" s="8"/>
+      <c r="H690" s="6"/>
     </row>
     <row r="691">
-      <c r="H691" s="8"/>
+      <c r="H691" s="6"/>
     </row>
     <row r="692">
-      <c r="H692" s="8"/>
+      <c r="H692" s="6"/>
     </row>
     <row r="693">
-      <c r="H693" s="8"/>
+      <c r="H693" s="6"/>
     </row>
     <row r="694">
-      <c r="H694" s="8"/>
+      <c r="H694" s="6"/>
     </row>
     <row r="695">
-      <c r="H695" s="8"/>
+      <c r="H695" s="6"/>
     </row>
     <row r="696">
-      <c r="H696" s="8"/>
+      <c r="H696" s="6"/>
     </row>
     <row r="697">
-      <c r="H697" s="8"/>
+      <c r="H697" s="6"/>
     </row>
     <row r="698">
-      <c r="H698" s="8"/>
+      <c r="H698" s="6"/>
     </row>
     <row r="699">
-      <c r="H699" s="8"/>
+      <c r="H699" s="6"/>
     </row>
     <row r="700">
-      <c r="H700" s="8"/>
+      <c r="H700" s="6"/>
     </row>
     <row r="701">
-      <c r="H701" s="8"/>
+      <c r="H701" s="6"/>
     </row>
     <row r="702">
-      <c r="H702" s="8"/>
+      <c r="H702" s="6"/>
     </row>
     <row r="703">
-      <c r="H703" s="8"/>
+      <c r="H703" s="6"/>
     </row>
     <row r="704">
-      <c r="H704" s="8"/>
+      <c r="H704" s="6"/>
     </row>
     <row r="705">
-      <c r="H705" s="8"/>
+      <c r="H705" s="6"/>
     </row>
     <row r="706">
-      <c r="H706" s="8"/>
+      <c r="H706" s="6"/>
     </row>
     <row r="707">
-      <c r="H707" s="8"/>
+      <c r="H707" s="6"/>
     </row>
     <row r="708">
-      <c r="H708" s="8"/>
+      <c r="H708" s="6"/>
     </row>
     <row r="709">
-      <c r="H709" s="8"/>
+      <c r="H709" s="6"/>
     </row>
     <row r="710">
-      <c r="H710" s="8"/>
+      <c r="H710" s="6"/>
     </row>
     <row r="711">
-      <c r="H711" s="8"/>
+      <c r="H711" s="6"/>
     </row>
     <row r="712">
-      <c r="H712" s="8"/>
+      <c r="H712" s="6"/>
     </row>
     <row r="713">
-      <c r="H713" s="8"/>
+      <c r="H713" s="6"/>
     </row>
     <row r="714">
-      <c r="H714" s="8"/>
+      <c r="H714" s="6"/>
     </row>
     <row r="715">
-      <c r="H715" s="8"/>
+      <c r="H715" s="6"/>
     </row>
     <row r="716">
-      <c r="H716" s="8"/>
+      <c r="H716" s="6"/>
     </row>
     <row r="717">
-      <c r="H717" s="8"/>
+      <c r="H717" s="6"/>
     </row>
     <row r="718">
-      <c r="H718" s="8"/>
+      <c r="H718" s="6"/>
     </row>
     <row r="719">
-      <c r="H719" s="8"/>
+      <c r="H719" s="6"/>
     </row>
     <row r="720">
-      <c r="H720" s="8"/>
+      <c r="H720" s="6"/>
     </row>
     <row r="721">
-      <c r="H721" s="8"/>
+      <c r="H721" s="6"/>
     </row>
     <row r="722">
-      <c r="H722" s="8"/>
+      <c r="H722" s="6"/>
     </row>
     <row r="723">
-      <c r="H723" s="8"/>
+      <c r="H723" s="6"/>
     </row>
     <row r="724">
-      <c r="H724" s="8"/>
+      <c r="H724" s="6"/>
     </row>
     <row r="725">
-      <c r="H725" s="8"/>
+      <c r="H725" s="6"/>
     </row>
     <row r="726">
-      <c r="H726" s="8"/>
+      <c r="H726" s="6"/>
     </row>
     <row r="727">
-      <c r="H727" s="8"/>
+      <c r="H727" s="6"/>
     </row>
     <row r="728">
-      <c r="H728" s="8"/>
+      <c r="H728" s="6"/>
     </row>
     <row r="729">
-      <c r="H729" s="8"/>
+      <c r="H729" s="6"/>
     </row>
     <row r="730">
-      <c r="H730" s="8"/>
+      <c r="H730" s="6"/>
     </row>
     <row r="731">
-      <c r="H731" s="8"/>
+      <c r="H731" s="6"/>
     </row>
     <row r="732">
-      <c r="H732" s="8"/>
+      <c r="H732" s="6"/>
     </row>
     <row r="733">
-      <c r="H733" s="8"/>
+      <c r="H733" s="6"/>
     </row>
     <row r="734">
-      <c r="H734" s="8"/>
+      <c r="H734" s="6"/>
     </row>
     <row r="735">
-      <c r="H735" s="8"/>
+      <c r="H735" s="6"/>
     </row>
     <row r="736">
-      <c r="H736" s="8"/>
+      <c r="H736" s="6"/>
     </row>
     <row r="737">
-      <c r="H737" s="8"/>
+      <c r="H737" s="6"/>
     </row>
     <row r="738">
-      <c r="H738" s="8"/>
+      <c r="H738" s="6"/>
     </row>
     <row r="739">
-      <c r="H739" s="8"/>
+      <c r="H739" s="6"/>
     </row>
     <row r="740">
-      <c r="H740" s="8"/>
+      <c r="H740" s="6"/>
     </row>
     <row r="741">
-      <c r="H741" s="8"/>
+      <c r="H741" s="6"/>
     </row>
     <row r="742">
-      <c r="H742" s="8"/>
+      <c r="H742" s="6"/>
     </row>
     <row r="743">
-      <c r="H743" s="8"/>
+      <c r="H743" s="6"/>
     </row>
     <row r="744">
-      <c r="H744" s="8"/>
+      <c r="H744" s="6"/>
     </row>
     <row r="745">
-      <c r="H745" s="8"/>
+      <c r="H745" s="6"/>
     </row>
     <row r="746">
-      <c r="H746" s="8"/>
+      <c r="H746" s="6"/>
     </row>
     <row r="747">
-      <c r="H747" s="8"/>
+      <c r="H747" s="6"/>
     </row>
     <row r="748">
-      <c r="H748" s="8"/>
+      <c r="H748" s="6"/>
     </row>
     <row r="749">
-      <c r="H749" s="8"/>
+      <c r="H749" s="6"/>
     </row>
     <row r="750">
-      <c r="H750" s="8"/>
+      <c r="H750" s="6"/>
     </row>
     <row r="751">
-      <c r="H751" s="8"/>
+      <c r="H751" s="6"/>
     </row>
     <row r="752">
-      <c r="H752" s="8"/>
+      <c r="H752" s="6"/>
     </row>
     <row r="753">
-      <c r="H753" s="8"/>
+      <c r="H753" s="6"/>
     </row>
     <row r="754">
-      <c r="H754" s="8"/>
+      <c r="H754" s="6"/>
     </row>
     <row r="755">
-      <c r="H755" s="8"/>
+      <c r="H755" s="6"/>
     </row>
     <row r="756">
-      <c r="H756" s="8"/>
+      <c r="H756" s="6"/>
     </row>
     <row r="757">
-      <c r="H757" s="8"/>
+      <c r="H757" s="6"/>
     </row>
     <row r="758">
-      <c r="H758" s="8"/>
+      <c r="H758" s="6"/>
     </row>
     <row r="759">
-      <c r="H759" s="8"/>
+      <c r="H759" s="6"/>
     </row>
     <row r="760">
-      <c r="H760" s="8"/>
+      <c r="H760" s="6"/>
     </row>
     <row r="761">
-      <c r="H761" s="8"/>
+      <c r="H761" s="6"/>
     </row>
     <row r="762">
-      <c r="H762" s="8"/>
+      <c r="H762" s="6"/>
     </row>
     <row r="763">
-      <c r="H763" s="8"/>
+      <c r="H763" s="6"/>
     </row>
     <row r="764">
-      <c r="H764" s="8"/>
+      <c r="H764" s="6"/>
     </row>
     <row r="765">
-      <c r="H765" s="8"/>
+      <c r="H765" s="6"/>
     </row>
     <row r="766">
-      <c r="H766" s="8"/>
+      <c r="H766" s="6"/>
     </row>
     <row r="767">
-      <c r="H767" s="8"/>
+      <c r="H767" s="6"/>
     </row>
     <row r="768">
-      <c r="H768" s="8"/>
+      <c r="H768" s="6"/>
     </row>
     <row r="769">
-      <c r="H769" s="8"/>
+      <c r="H769" s="6"/>
     </row>
     <row r="770">
-      <c r="H770" s="8"/>
+      <c r="H770" s="6"/>
     </row>
     <row r="771">
-      <c r="H771" s="8"/>
+      <c r="H771" s="6"/>
     </row>
     <row r="772">
-      <c r="H772" s="8"/>
+      <c r="H772" s="6"/>
     </row>
     <row r="773">
-      <c r="H773" s="8"/>
+      <c r="H773" s="6"/>
     </row>
     <row r="774">
-      <c r="H774" s="8"/>
+      <c r="H774" s="6"/>
     </row>
     <row r="775">
-      <c r="H775" s="8"/>
+      <c r="H775" s="6"/>
     </row>
     <row r="776">
-      <c r="H776" s="8"/>
+      <c r="H776" s="6"/>
     </row>
     <row r="777">
-      <c r="H777" s="8"/>
+      <c r="H777" s="6"/>
     </row>
     <row r="778">
-      <c r="H778" s="8"/>
+      <c r="H778" s="6"/>
     </row>
     <row r="779">
-      <c r="H779" s="8"/>
+      <c r="H779" s="6"/>
     </row>
     <row r="780">
-      <c r="H780" s="8"/>
+      <c r="H780" s="6"/>
     </row>
     <row r="781">
-      <c r="H781" s="8"/>
+      <c r="H781" s="6"/>
     </row>
     <row r="782">
-      <c r="H782" s="8"/>
+      <c r="H782" s="6"/>
     </row>
     <row r="783">
-      <c r="H783" s="8"/>
+      <c r="H783" s="6"/>
     </row>
     <row r="784">
-      <c r="H784" s="8"/>
+      <c r="H784" s="6"/>
     </row>
     <row r="785">
-      <c r="H785" s="8"/>
+      <c r="H785" s="6"/>
     </row>
     <row r="786">
-      <c r="H786" s="8"/>
+      <c r="H786" s="6"/>
     </row>
     <row r="787">
-      <c r="H787" s="8"/>
+      <c r="H787" s="6"/>
     </row>
     <row r="788">
-      <c r="H788" s="8"/>
+      <c r="H788" s="6"/>
     </row>
     <row r="789">
-      <c r="H789" s="8"/>
+      <c r="H789" s="6"/>
     </row>
     <row r="790">
-      <c r="H790" s="8"/>
+      <c r="H790" s="6"/>
     </row>
     <row r="791">
-      <c r="H791" s="8"/>
+      <c r="H791" s="6"/>
     </row>
     <row r="792">
-      <c r="H792" s="8"/>
+      <c r="H792" s="6"/>
     </row>
     <row r="793">
-      <c r="H793" s="8"/>
+      <c r="H793" s="6"/>
     </row>
     <row r="794">
-      <c r="H794" s="8"/>
+      <c r="H794" s="6"/>
     </row>
     <row r="795">
-      <c r="H795" s="8"/>
+      <c r="H795" s="6"/>
     </row>
     <row r="796">
-      <c r="H796" s="8"/>
+      <c r="H796" s="6"/>
     </row>
     <row r="797">
-      <c r="H797" s="8"/>
+      <c r="H797" s="6"/>
     </row>
     <row r="798">
-      <c r="H798" s="8"/>
+      <c r="H798" s="6"/>
     </row>
     <row r="799">
-      <c r="H799" s="8"/>
+      <c r="H799" s="6"/>
     </row>
     <row r="800">
-      <c r="H800" s="8"/>
+      <c r="H800" s="6"/>
     </row>
     <row r="801">
-      <c r="H801" s="8"/>
+      <c r="H801" s="6"/>
     </row>
     <row r="802">
-      <c r="H802" s="8"/>
+      <c r="H802" s="6"/>
     </row>
     <row r="803">
-      <c r="H803" s="8"/>
+      <c r="H803" s="6"/>
     </row>
     <row r="804">
-      <c r="H804" s="8"/>
+      <c r="H804" s="6"/>
     </row>
     <row r="805">
-      <c r="H805" s="8"/>
+      <c r="H805" s="6"/>
     </row>
     <row r="806">
-      <c r="H806" s="8"/>
+      <c r="H806" s="6"/>
     </row>
     <row r="807">
-      <c r="H807" s="8"/>
+      <c r="H807" s="6"/>
     </row>
     <row r="808">
-      <c r="H808" s="8"/>
+      <c r="H808" s="6"/>
     </row>
     <row r="809">
-      <c r="H809" s="8"/>
+      <c r="H809" s="6"/>
     </row>
     <row r="810">
-      <c r="H810" s="8"/>
+      <c r="H810" s="6"/>
     </row>
     <row r="811">
-      <c r="H811" s="8"/>
+      <c r="H811" s="6"/>
     </row>
     <row r="812">
-      <c r="H812" s="8"/>
+      <c r="H812" s="6"/>
     </row>
     <row r="813">
-      <c r="H813" s="8"/>
+      <c r="H813" s="6"/>
     </row>
     <row r="814">
-      <c r="H814" s="8"/>
+      <c r="H814" s="6"/>
     </row>
     <row r="815">
-      <c r="H815" s="8"/>
+      <c r="H815" s="6"/>
     </row>
     <row r="816">
-      <c r="H816" s="8"/>
+      <c r="H816" s="6"/>
     </row>
     <row r="817">
-      <c r="H817" s="8"/>
+      <c r="H817" s="6"/>
     </row>
     <row r="818">
-      <c r="H818" s="8"/>
+      <c r="H818" s="6"/>
     </row>
     <row r="819">
-      <c r="H819" s="8"/>
+      <c r="H819" s="6"/>
     </row>
     <row r="820">
-      <c r="H820" s="8"/>
+      <c r="H820" s="6"/>
     </row>
     <row r="821">
-      <c r="H821" s="8"/>
+      <c r="H821" s="6"/>
     </row>
     <row r="822">
-      <c r="H822" s="8"/>
+      <c r="H822" s="6"/>
     </row>
     <row r="823">
-      <c r="H823" s="8"/>
+      <c r="H823" s="6"/>
     </row>
     <row r="824">
-      <c r="H824" s="8"/>
+      <c r="H824" s="6"/>
     </row>
     <row r="825">
-      <c r="H825" s="8"/>
+      <c r="H825" s="6"/>
     </row>
     <row r="826">
-      <c r="H826" s="8"/>
+      <c r="H826" s="6"/>
     </row>
     <row r="827">
-      <c r="H827" s="8"/>
+      <c r="H827" s="6"/>
     </row>
     <row r="828">
-      <c r="H828" s="8"/>
+      <c r="H828" s="6"/>
     </row>
     <row r="829">
-      <c r="H829" s="8"/>
+      <c r="H829" s="6"/>
     </row>
     <row r="830">
-      <c r="H830" s="8"/>
+      <c r="H830" s="6"/>
     </row>
     <row r="831">
-      <c r="H831" s="8"/>
+      <c r="H831" s="6"/>
     </row>
     <row r="832">
-      <c r="H832" s="8"/>
+      <c r="H832" s="6"/>
     </row>
     <row r="833">
-      <c r="H833" s="8"/>
+      <c r="H833" s="6"/>
     </row>
     <row r="834">
-      <c r="H834" s="8"/>
+      <c r="H834" s="6"/>
     </row>
     <row r="835">
-      <c r="H835" s="8"/>
+      <c r="H835" s="6"/>
     </row>
     <row r="836">
-      <c r="H836" s="8"/>
+      <c r="H836" s="6"/>
     </row>
     <row r="837">
-      <c r="H837" s="8"/>
+      <c r="H837" s="6"/>
     </row>
     <row r="838">
-      <c r="H838" s="8"/>
+      <c r="H838" s="6"/>
     </row>
     <row r="839">
-      <c r="H839" s="8"/>
+      <c r="H839" s="6"/>
     </row>
     <row r="840">
-      <c r="H840" s="8"/>
+      <c r="H840" s="6"/>
     </row>
     <row r="841">
-      <c r="H841" s="8"/>
+      <c r="H841" s="6"/>
     </row>
     <row r="842">
-      <c r="H842" s="8"/>
+      <c r="H842" s="6"/>
     </row>
     <row r="843">
-      <c r="H843" s="8"/>
+      <c r="H843" s="6"/>
     </row>
     <row r="844">
-      <c r="H844" s="8"/>
+      <c r="H844" s="6"/>
     </row>
     <row r="845">
-      <c r="H845" s="8"/>
+      <c r="H845" s="6"/>
     </row>
     <row r="846">
-      <c r="H846" s="8"/>
+      <c r="H846" s="6"/>
     </row>
     <row r="847">
-      <c r="H847" s="8"/>
+      <c r="H847" s="6"/>
     </row>
     <row r="848">
-      <c r="H848" s="8"/>
+      <c r="H848" s="6"/>
     </row>
     <row r="849">
-      <c r="H849" s="8"/>
+      <c r="H849" s="6"/>
     </row>
     <row r="850">
-      <c r="H850" s="8"/>
+      <c r="H850" s="6"/>
     </row>
     <row r="851">
-      <c r="H851" s="8"/>
+      <c r="H851" s="6"/>
     </row>
     <row r="852">
-      <c r="H852" s="8"/>
+      <c r="H852" s="6"/>
     </row>
     <row r="853">
-      <c r="H853" s="8"/>
+      <c r="H853" s="6"/>
     </row>
     <row r="854">
-      <c r="H854" s="8"/>
+      <c r="H854" s="6"/>
     </row>
     <row r="855">
-      <c r="H855" s="8"/>
+      <c r="H855" s="6"/>
     </row>
     <row r="856">
-      <c r="H856" s="8"/>
+      <c r="H856" s="6"/>
     </row>
     <row r="857">
-      <c r="H857" s="8"/>
+      <c r="H857" s="6"/>
     </row>
     <row r="858">
-      <c r="H858" s="8"/>
+      <c r="H858" s="6"/>
     </row>
     <row r="859">
-      <c r="H859" s="8"/>
+      <c r="H859" s="6"/>
     </row>
     <row r="860">
-      <c r="H860" s="8"/>
+      <c r="H860" s="6"/>
     </row>
     <row r="861">
-      <c r="H861" s="8"/>
+      <c r="H861" s="6"/>
     </row>
     <row r="862">
-      <c r="H862" s="8"/>
+      <c r="H862" s="6"/>
     </row>
     <row r="863">
-      <c r="H863" s="8"/>
+      <c r="H863" s="6"/>
     </row>
     <row r="864">
-      <c r="H864" s="8"/>
+      <c r="H864" s="6"/>
     </row>
     <row r="865">
-      <c r="H865" s="8"/>
+      <c r="H865" s="6"/>
     </row>
     <row r="866">
-      <c r="H866" s="8"/>
+      <c r="H866" s="6"/>
     </row>
     <row r="867">
-      <c r="H867" s="8"/>
+      <c r="H867" s="6"/>
     </row>
     <row r="868">
-      <c r="H868" s="8"/>
+      <c r="H868" s="6"/>
     </row>
     <row r="869">
-      <c r="H869" s="8"/>
+      <c r="H869" s="6"/>
     </row>
     <row r="870">
-      <c r="H870" s="8"/>
+      <c r="H870" s="6"/>
     </row>
     <row r="871">
-      <c r="H871" s="8"/>
+      <c r="H871" s="6"/>
     </row>
     <row r="872">
-      <c r="H872" s="8"/>
+      <c r="H872" s="6"/>
     </row>
     <row r="873">
-      <c r="H873" s="8"/>
+      <c r="H873" s="6"/>
     </row>
     <row r="874">
-      <c r="H874" s="8"/>
+      <c r="H874" s="6"/>
     </row>
     <row r="875">
-      <c r="H875" s="8"/>
+      <c r="H875" s="6"/>
     </row>
     <row r="876">
-      <c r="H876" s="8"/>
+      <c r="H876" s="6"/>
     </row>
     <row r="877">
-      <c r="H877" s="8"/>
+      <c r="H877" s="6"/>
     </row>
     <row r="878">
-      <c r="H878" s="8"/>
+      <c r="H878" s="6"/>
     </row>
     <row r="879">
-      <c r="H879" s="8"/>
+      <c r="H879" s="6"/>
     </row>
     <row r="880">
-      <c r="H880" s="8"/>
+      <c r="H880" s="6"/>
     </row>
     <row r="881">
-      <c r="H881" s="8"/>
+      <c r="H881" s="6"/>
     </row>
     <row r="882">
-      <c r="H882" s="8"/>
+      <c r="H882" s="6"/>
     </row>
     <row r="883">
-      <c r="H883" s="8"/>
+      <c r="H883" s="6"/>
     </row>
     <row r="884">
-      <c r="H884" s="8"/>
+      <c r="H884" s="6"/>
     </row>
     <row r="885">
-      <c r="H885" s="8"/>
+      <c r="H885" s="6"/>
     </row>
     <row r="886">
-      <c r="H886" s="8"/>
+      <c r="H886" s="6"/>
     </row>
     <row r="887">
-      <c r="H887" s="8"/>
+      <c r="H887" s="6"/>
     </row>
     <row r="888">
-      <c r="H888" s="8"/>
+      <c r="H888" s="6"/>
     </row>
     <row r="889">
-      <c r="H889" s="8"/>
+      <c r="H889" s="6"/>
     </row>
     <row r="890">
-      <c r="H890" s="8"/>
+      <c r="H890" s="6"/>
     </row>
     <row r="891">
-      <c r="H891" s="8"/>
+      <c r="H891" s="6"/>
     </row>
     <row r="892">
-      <c r="H892" s="8"/>
+      <c r="H892" s="6"/>
     </row>
     <row r="893">
-      <c r="H893" s="8"/>
+      <c r="H893" s="6"/>
     </row>
     <row r="894">
-      <c r="H894" s="8"/>
+      <c r="H894" s="6"/>
     </row>
     <row r="895">
-      <c r="H895" s="8"/>
+      <c r="H895" s="6"/>
     </row>
     <row r="896">
-      <c r="H896" s="8"/>
+      <c r="H896" s="6"/>
     </row>
     <row r="897">
-      <c r="H897" s="8"/>
+      <c r="H897" s="6"/>
     </row>
     <row r="898">
-      <c r="H898" s="8"/>
+      <c r="H898" s="6"/>
     </row>
     <row r="899">
-      <c r="H899" s="8"/>
+      <c r="H899" s="6"/>
     </row>
     <row r="900">
-      <c r="H900" s="8"/>
+      <c r="H900" s="6"/>
     </row>
     <row r="901">
-      <c r="H901" s="8"/>
+      <c r="H901" s="6"/>
     </row>
     <row r="902">
-      <c r="H902" s="8"/>
+      <c r="H902" s="6"/>
     </row>
     <row r="903">
-      <c r="H903" s="8"/>
+      <c r="H903" s="6"/>
     </row>
     <row r="904">
-      <c r="H904" s="8"/>
+      <c r="H904" s="6"/>
     </row>
     <row r="905">
-      <c r="H905" s="8"/>
+      <c r="H905" s="6"/>
     </row>
     <row r="906">
-      <c r="H906" s="8"/>
+      <c r="H906" s="6"/>
     </row>
     <row r="907">
-      <c r="H907" s="8"/>
+      <c r="H907" s="6"/>
     </row>
     <row r="908">
-      <c r="H908" s="8"/>
+      <c r="H908" s="6"/>
     </row>
     <row r="909">
-      <c r="H909" s="8"/>
+      <c r="H909" s="6"/>
     </row>
     <row r="910">
-      <c r="H910" s="8"/>
+      <c r="H910" s="6"/>
     </row>
     <row r="911">
-      <c r="H911" s="8"/>
+      <c r="H911" s="6"/>
     </row>
     <row r="912">
-      <c r="H912" s="8"/>
+      <c r="H912" s="6"/>
     </row>
     <row r="913">
-      <c r="H913" s="8"/>
+      <c r="H913" s="6"/>
     </row>
     <row r="914">
-      <c r="H914" s="8"/>
+      <c r="H914" s="6"/>
     </row>
     <row r="915">
-      <c r="H915" s="8"/>
+      <c r="H915" s="6"/>
     </row>
     <row r="916">
-      <c r="H916" s="8"/>
+      <c r="H916" s="6"/>
     </row>
     <row r="917">
-      <c r="H917" s="8"/>
+      <c r="H917" s="6"/>
     </row>
     <row r="918">
-      <c r="H918" s="8"/>
+      <c r="H918" s="6"/>
     </row>
     <row r="919">
-      <c r="H919" s="8"/>
+      <c r="H919" s="6"/>
     </row>
     <row r="920">
-      <c r="H920" s="8"/>
+      <c r="H920" s="6"/>
     </row>
     <row r="921">
-      <c r="H921" s="8"/>
+      <c r="H921" s="6"/>
     </row>
     <row r="922">
-      <c r="H922" s="8"/>
+      <c r="H922" s="6"/>
     </row>
     <row r="923">
-      <c r="H923" s="8"/>
+      <c r="H923" s="6"/>
     </row>
     <row r="924">
-      <c r="H924" s="8"/>
+      <c r="H924" s="6"/>
     </row>
     <row r="925">
-      <c r="H925" s="8"/>
+      <c r="H925" s="6"/>
     </row>
     <row r="926">
-      <c r="H926" s="8"/>
+      <c r="H926" s="6"/>
     </row>
     <row r="927">
-      <c r="H927" s="8"/>
+      <c r="H927" s="6"/>
     </row>
     <row r="928">
-      <c r="H928" s="8"/>
+      <c r="H928" s="6"/>
     </row>
     <row r="929">
-      <c r="H929" s="8"/>
+      <c r="H929" s="6"/>
     </row>
     <row r="930">
-      <c r="H930" s="8"/>
+      <c r="H930" s="6"/>
     </row>
     <row r="931">
-      <c r="H931" s="8"/>
+      <c r="H931" s="6"/>
     </row>
     <row r="932">
-      <c r="H932" s="8"/>
+      <c r="H932" s="6"/>
     </row>
     <row r="933">
-      <c r="H933" s="8"/>
+      <c r="H933" s="6"/>
     </row>
     <row r="934">
-      <c r="H934" s="8"/>
+      <c r="H934" s="6"/>
     </row>
     <row r="935">
-      <c r="H935" s="8"/>
+      <c r="H935" s="6"/>
     </row>
     <row r="936">
-      <c r="H936" s="8"/>
+      <c r="H936" s="6"/>
     </row>
     <row r="937">
-      <c r="H937" s="8"/>
+      <c r="H937" s="6"/>
     </row>
     <row r="938">
-      <c r="H938" s="8"/>
+      <c r="H938" s="6"/>
     </row>
     <row r="939">
-      <c r="H939" s="8"/>
+      <c r="H939" s="6"/>
     </row>
     <row r="940">
-      <c r="H940" s="8"/>
+      <c r="H940" s="6"/>
     </row>
     <row r="941">
-      <c r="H941" s="8"/>
+      <c r="H941" s="6"/>
     </row>
     <row r="942">
-      <c r="H942" s="8"/>
+      <c r="H942" s="6"/>
     </row>
     <row r="943">
-      <c r="H943" s="8"/>
+      <c r="H943" s="6"/>
     </row>
     <row r="944">
-      <c r="H944" s="8"/>
+      <c r="H944" s="6"/>
     </row>
     <row r="945">
-      <c r="H945" s="8"/>
+      <c r="H945" s="6"/>
     </row>
     <row r="946">
-      <c r="H946" s="8"/>
+      <c r="H946" s="6"/>
     </row>
     <row r="947">
-      <c r="H947" s="8"/>
+      <c r="H947" s="6"/>
     </row>
     <row r="948">
-      <c r="H948" s="8"/>
+      <c r="H948" s="6"/>
     </row>
     <row r="949">
-      <c r="H949" s="8"/>
+      <c r="H949" s="6"/>
     </row>
     <row r="950">
-      <c r="H950" s="8"/>
+      <c r="H950" s="6"/>
     </row>
     <row r="951">
-      <c r="H951" s="8"/>
+      <c r="H951" s="6"/>
     </row>
     <row r="952">
-      <c r="H952" s="8"/>
+      <c r="H952" s="6"/>
     </row>
     <row r="953">
-      <c r="H953" s="8"/>
+      <c r="H953" s="6"/>
     </row>
     <row r="954">
-      <c r="H954" s="8"/>
+      <c r="H954" s="6"/>
     </row>
     <row r="955">
-      <c r="H955" s="8"/>
+      <c r="H955" s="6"/>
     </row>
     <row r="956">
-      <c r="H956" s="8"/>
+      <c r="H956" s="6"/>
     </row>
     <row r="957">
-      <c r="H957" s="8"/>
+      <c r="H957" s="6"/>
     </row>
     <row r="958">
-      <c r="H958" s="8"/>
+      <c r="H958" s="6"/>
     </row>
     <row r="959">
-      <c r="H959" s="8"/>
+      <c r="H959" s="6"/>
     </row>
     <row r="960">
-      <c r="H960" s="8"/>
+      <c r="H960" s="6"/>
     </row>
     <row r="961">
-      <c r="H961" s="8"/>
+      <c r="H961" s="6"/>
     </row>
     <row r="962">
-      <c r="H962" s="8"/>
+      <c r="H962" s="6"/>
     </row>
     <row r="963">
-      <c r="H963" s="8"/>
+      <c r="H963" s="6"/>
     </row>
     <row r="964">
-      <c r="H964" s="8"/>
+      <c r="H964" s="6"/>
     </row>
     <row r="965">
-      <c r="H965" s="8"/>
+      <c r="H965" s="6"/>
     </row>
     <row r="966">
-      <c r="H966" s="8"/>
+      <c r="H966" s="6"/>
     </row>
     <row r="967">
-      <c r="H967" s="8"/>
+      <c r="H967" s="6"/>
     </row>
     <row r="968">
-      <c r="H968" s="8"/>
+      <c r="H968" s="6"/>
     </row>
     <row r="969">
-      <c r="H969" s="8"/>
+      <c r="H969" s="6"/>
     </row>
     <row r="970">
-      <c r="H970" s="8"/>
+      <c r="H970" s="6"/>
     </row>
     <row r="971">
-      <c r="H971" s="8"/>
+      <c r="H971" s="6"/>
     </row>
     <row r="972">
-      <c r="H972" s="8"/>
+      <c r="H972" s="6"/>
     </row>
     <row r="973">
-      <c r="H973" s="8"/>
+      <c r="H973" s="6"/>
     </row>
     <row r="974">
-      <c r="H974" s="8"/>
+      <c r="H974" s="6"/>
     </row>
     <row r="975">
-      <c r="H975" s="8"/>
+      <c r="H975" s="6"/>
     </row>
     <row r="976">
-      <c r="H976" s="8"/>
+      <c r="H976" s="6"/>
     </row>
     <row r="977">
-      <c r="H977" s="8"/>
+      <c r="H977" s="6"/>
     </row>
     <row r="978">
-      <c r="H978" s="8"/>
+      <c r="H978" s="6"/>
     </row>
     <row r="979">
-      <c r="H979" s="8"/>
+      <c r="H979" s="6"/>
     </row>
     <row r="980">
-      <c r="H980" s="8"/>
+      <c r="H980" s="6"/>
     </row>
     <row r="981">
-      <c r="H981" s="8"/>
+      <c r="H981" s="6"/>
     </row>
     <row r="982">
-      <c r="H982" s="8"/>
+      <c r="H982" s="6"/>
     </row>
     <row r="983">
-      <c r="H983" s="8"/>
+      <c r="H983" s="6"/>
     </row>
     <row r="984">
-      <c r="H984" s="8"/>
+      <c r="H984" s="6"/>
     </row>
     <row r="985">
-      <c r="H985" s="8"/>
+      <c r="H985" s="6"/>
     </row>
     <row r="986">
-      <c r="H986" s="8"/>
+      <c r="H986" s="6"/>
     </row>
     <row r="987">
-      <c r="H987" s="8"/>
+      <c r="H987" s="6"/>
     </row>
     <row r="988">
-      <c r="H988" s="8"/>
+      <c r="H988" s="6"/>
     </row>
     <row r="989">
-      <c r="H989" s="8"/>
+      <c r="H989" s="6"/>
     </row>
     <row r="990">
-      <c r="H990" s="8"/>
+      <c r="H990" s="6"/>
     </row>
     <row r="991">
-      <c r="H991" s="8"/>
+      <c r="H991" s="6"/>
     </row>
     <row r="992">
-      <c r="H992" s="8"/>
+      <c r="H992" s="6"/>
     </row>
     <row r="993">
-      <c r="H993" s="8"/>
+      <c r="H993" s="6"/>
     </row>
     <row r="994">
-      <c r="H994" s="8"/>
+      <c r="H994" s="6"/>
     </row>
     <row r="995">
-      <c r="H995" s="8"/>
+      <c r="H995" s="6"/>
     </row>
     <row r="996">
-      <c r="H996" s="8"/>
+      <c r="H996" s="6"/>
     </row>
     <row r="997">
-      <c r="H997" s="8"/>
+      <c r="H997" s="6"/>
     </row>
     <row r="998">
-      <c r="H998" s="8"/>
+      <c r="H998" s="6"/>
     </row>
     <row r="999">
-      <c r="H999" s="8"/>
+      <c r="H999" s="6"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="8"/>
+      <c r="H1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -384,12 +384,12 @@
 Chickpea and quinoa tabouleh with lemon, tomato, parsley salad (LG,VG)</t>
   </si>
   <si>
-    <t>Heirloom tomato, cucumber and raddichio panzanella bread salad with 
-orange, raddish (DF)
-Selection of seasonal fruits and fresh garden components
-Beef farfalle pasta with mushroom and rose sauce
-Gluten free eggplant parmigiana lasagne with roasted tomato and fennel 
-chips (V, LG)</t>
+    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Indonesian “Mie Goreng” fried noodle with chicken, chilli, sliced cucumber(DF)
+Fried soybean tempeh (LG,VG)
+On the side: Chilli sambal oeiek, fried shallot and prawn cracker
+Heirloom tomato, cucumber, and radicchio panzanella bread salad and orange, radish (VG).
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -445,11 +445,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sandwich Bar w/roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Indonesian “Mie Goreng” fried noodle with chicken, chili, sliced cucumber (DF)
-Fried soybean tempeh (LG,VG)
-On the side: Chili sambal oelek, fried shallot and prawn cracker
-Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish (VG)
+    <t xml:space="preserve">PASTA NIGHT:
+1. Choose your pasta
+2. Pick your sauce
+3.Grab some garlic bread
+4. Sprinkle cheese
+5. Add some veggies
+Spinach and pear salad, with onion, rocket, watermelon, broccoli and sultana (LG,VG)
+Selection of ice-cream cups
 </t>
   </si>
   <si>

--- a/src/bssrBotFunctions/menu/menu.xlsx
+++ b/src/bssrBotFunctions/menu/menu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Monday</t>
   </si>
@@ -72,7 +72,7 @@
 Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
 Natural yoghurt &amp; flavoured yoghurt with accompaniments
 Selection of breads and gluten free bread with spreads
-Eggs, sausage patty, baked beans, hash browns &amp; English muffin
+Eggs, bacon, beef sausages, tomato spaghetti
 </t>
   </si>
   <si>
@@ -83,14 +83,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Eggs, turkey bacon, roasted tomato. baked beans, spaghetti
-Waffles with maple syrup
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-Eggs, turkey bacon, baked beans, spaghetti, hash browns
-Buttermilk Pancakes
+PANCAKE DAY:
+1. Choose between buttermilk pancakes or dairy free pancakes
+2. Choose your garnish(ricotta, Nutella, whipped cream)
+3. Add your fruit(blueberry, banana, strawberry)
+4. Finish with your favourite syrup and sprinkles(maple, chocolate or berry)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Eggs, turkey bacon, baked beans, tomato spaghetti, hash browns, english muffin
 </t>
   </si>
   <si>
@@ -98,18 +101,16 @@
   </si>
   <si>
     <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Chicken &amp; leek pie with puff pastry
-Mediterranean casserole with green peas, eggplant, celery(LG, VG)
-Mashed potato with peas &amp; gravy(V,LG)
-Tuscan tomato &amp; capsicum soup(LG,VG)
-Chickpea and quinoa tabouleh with lemon, tomato &amp; parsley salad(LG,VG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Chicken schnitzel with peas, chat potato &amp; rich tomato sauce
-Grilled tofu tagine with mint couscous (V, DF)
-Potato and seeded mustard salad with sweet potato, roasted carrots &amp; dill (V, LG)
-</t>
+Beef mince pie mix with roasted pumpkin
+Indian potato and mushroom pie(VG)
+Mashed potato with peas &amp; gravy(V,GF)
+Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives and feta(V,GF)</t>
+  </si>
+  <si>
+    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Beef meatballs with creamy black pepper and onion sauce(GF)
+Veg Empanada(vegan, contains soy) with mango relish
+Pasta salad with cherry tomatoes, radicchio, kalamta olives and pesto dressing(V)</t>
   </si>
   <si>
     <t xml:space="preserve">SANDWICH DAY:
@@ -118,88 +119,92 @@
 3. Add your salad
 4. Finish with your sauce
 5. Wrap or Fold
-Butternut pumpkin &amp; coconut soup (LG,VG)
-Pasta salad with cherry tomatoes, bocconcini, radicchio, kalamata olives and pesto dressing (V)
+Potato and Leek soup(GF,V, contains dairy and soy)
+Thai rainbow slaw, bean sprouts, cucumber, rice noodles, red onion, fried onion, mint, lime (GF,VG)
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Lasagna of layered beef mince sauce, bechamel, fresh herbs, mozzarella &amp; parmesan
-Baked zucchini with mozzarella cheese &amp; tomato sugo (V, LG)
-Roasted peaches &amp; bocconcini salad with green beans, basil, baby gem leaves &amp; pomegranates dressing (V, LG)
+Chicken fricasse with diced carrot and celery (GF,DF)
+Yellow pumpkin and cauliflower curry (GF,VG)
+Tofu larb, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander and naam jim cressing(GF,VG)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Spicy chicken Pad Thai (LG, DF, NO EGG)
-Puffed tofu Pad Thai (LG, VG)
-On the side: chili oil, fried shallot, pickled chili, bean sprouts
-Cream of cauliflower soup (V, LG)
-Greek salad with Roma tomato, Lebanese cucumber, Spanish onion, capsicum, kalamata olives &amp; feta (V, LG)
+Chicken sausages with salsa verde, tomato sugo and creamy mash potato (GF,DF)
+Plant-based “chicken” nuggets with mango chutney (VG - contains gluten)
+Chickpea and quinoa tabouleh with lemon, tomato and parsley salad(GF,VG)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef sausages with a rich napolitana sauce and creamy mash potato (LG, DF)
-Nachos with spiced mushroom and tomato salsa with Mexican cheese (V, LG)
-Waldorf salad: Iceberg, grape, celery, apple, onion, rocket &amp; creamy French dressing (V, LG)
+Fried noodle with chicken, chili, sliced cucumber(DF)
+Fried soybean tempeh (GF,VG)
+On the side: chili sambal oelek, fried shallot and prawn cracker
+Heirloom tomato, cucumber and radicchio salad panzaella bread salad with orange, radish and sherry dressing(VG)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef Burger with shoestring fries, selectio nof sliced cheese, tomato, lettuce and burger sauce
-Tofu/veggie burger with shoestring fries, selectio nof sliced cheese, tomato, lettuce and burger sauce(V)
-Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn (LG,VG)
+CHEFS ROAST:
+Chefs selection of roast with seasonal vegetables, roasted potato and gravy
+Caesar salad wit hbaby cos, boiled egg, cherry tomato and parmesan cheese (V,GF) (croutons on the side)
 </t>
   </si>
   <si>
     <t>Dinner</t>
   </si>
   <si>
-    <t xml:space="preserve">Baked market fish in lemongrass, coconut, ginger (LG,DF)
-Fried chicken bites with eggplant caponata (DF)
-Potato gnocchi with eggplant caponata (V,DF)
-Selection of rice, vegetables &amp; polenta
-Spinach and pear salad, with onion, rocket, watermelon, broccoli &amp; sultana (LG,VG)
-Selection of ice-cream cups (GF)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroccan lamb with sultans (LG,DF)
-Thai green chicken curry with bamboo shoots. Coriander &amp; coconut milk (LG, DF)
-Thai stir-fry with cauliflower, sweet potato, carrot, eggplant, chili &amp; coriander (LG,VG)
-Selection of rice, vegetables &amp; polenta
-Heirloom tomato, cucumber &amp; radicchio panzanella bread salad &amp; orange, radish (VG)
-Vanilla Brulee (LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet &amp; sour chicken with pineapple, red capsicum &amp; shallots (LG,DF)
-Baked Fish Tandoori (LG,DF)
-Tandoori Gobi with tofu &amp; cauliflower (LG, VG)
-Selection of rice, vegetables &amp; potato
-Minted tofu larb salad with toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing (LG, VG)
-Tiramisu with coffee jelly
+    <t xml:space="preserve">Beef ravioli with tomato, roasted capsicum and shaved parmesan
+Stir freid chicken with broccoli &amp; oyster sauce(GF,DF)
+Tofu and baby corn stir fry (GF,VG)
+Selection of vegetables and steamed rice
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed(GF,VG)
+Selection of ice-cream cups(GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basil and mustard beef with slow cooked potato (GF,DF)
+Soy and ginger chicken
+Roast vegetables frittata(V,GF)
+Selection of rice, vegetables and potato
+Beetroot, gren beans, rocket, kale salad with balsamic vinegar and feta cheese(V,GF)
+Chocolate Brownie(GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Laksa with rice noodle, shredded carrots and cabbage(GF,DF)
+Lasagna of layered beef mince sauce, benchamel, fresh herbs, mozzarella and parmesan
+Roasted cauliflower and chickpea laksa curry
+Selection of rice, vegetables and potato
+Potato and seeded mustard salad with sweet potato, roasted carrots and dill(V,GF)
+Lychee and coconut-rice pudding (DF,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs Pizza of the Week(GF,VG Options Available)
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy French dressing(V,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGER NIGHT:
+Selection of chicken and beef burger with coleslaw and sweet potato chips, selection of sliced cheese, tomato, burger sauce
+Plant based burger with coleslaw and sweet potato chips, selectio nof sliced cheese, tomato and burger saucre(V)
+Superfood-salad with turmeric cauliflower, pumpkin, green bean, red quinoa, fresh mint, spinach(GF,VG)
+Milo pannacotta(GF)
 </t>
   </si>
   <si>
     <t xml:space="preserve">CURRY NIGHT:
-Chicken Masala (LG, DF)
-Thai lamb (LG, DF)
-Chickpea and Cabbage (LG, VG)
-Naan bread, basmati rice &amp; assorted vegetables (V)
-Garden salad with tomato, green lettuce, Spanish onion, baby spinach ,shredded carrot &amp; cabbage (VG, LG)
-Apple and Cinnamon Crumble
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIZZA NIGHT:
-Chefs Pizza of the Week
-BBQ Chicken
-Roast capsicum, pumpkin harissa sauce, pepitas and feta cheese
-Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
-Matcha Bread Pudding
+Thai green chicken(GF,DF)
+Beef Rogan Josh (GF,DF)
+Tofu and vegetable korma (GF,VG)
+Jasmin rice, potato and assorted vegetables (V)
+Spinach and pear salad, with onion, rocket, watermelon, broccoli and sultana (GF,VG)
+Bread Butter Pudding
 </t>
   </si>
   <si>
@@ -209,30 +214,49 @@
 3.Grab some garlic bread
 4. Sprinkle cheese
 5. Add some veggies
-Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
-Lemon Meringue Tart
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEFS ROAST:
-Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
-Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed(LG,VG)
-Chocolate Brownie(LG)
-</t>
-  </si>
-  <si>
-    <t>Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef &amp; Mushroom pie with puff pastry
-Capsicum, zucchini and tomato casserole(VG)
-Mashed potato with peas &amp; gravy(V,LG)
-Tuscan tomato &amp; capsicum soup(LG,VG)
-Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea, capsicum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Beef meatballs with creamy black pepper and onion sauce and mashed potato
-Eggs, tofu, kimchi, vegetables and brown fried rice(V,LG,DF)
-Chickpea and quinoa tabouleh with lemon, tomato and parsley salad(LG,VG)
+Charred green bean, chilli flakes, garlic, capsicum, fried onion, celery and sesame dressing
+Chcoloate Mousse(GF, contains soy and dairy)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection of cereals &amp; gluten free cereal
+Porridge with accompaniments
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads
+Eggs, pork bacon, baked beans, beef sausages, hash browns
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection of cereals &amp; gluten free cereal
+Porridge with accompaniments
+Congee with accompaniments(GF,DF)
+Fresh seasonal fruit salad &amp; whole fruitsLG,DF)
+Natural yoghurt &amp; flavoured yoghurt with accompaniments
+Selection of breads and gluten free bread with spreads
+Eggs, pork bacon, beef sausages, tomato spaghetti (DF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Eggs, turkey bacon, baked beans, spaghetti, hash browns, english muffin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich Bar: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients and condiments
+PIE DAY:
+Chicken curry pie with puff pastry
+Baked veggie curry casserole(GF,VG)
+Mashed potato with peas and gravy
+Chickepea and Quinoa tabouleh with lemon, tomato, parsley salad(GF,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich bar: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients and condiments
+Sechuoan pepper chicken wings and corn on the cob (DF,GF)
+Aloo Gobio with tofu and cauliflower (GF,VG)
+Potato and seeded mustard salad with sweet potato, roasted carrots and dill (V,GF)
 </t>
   </si>
   <si>
@@ -242,223 +266,218 @@
 3. Add your salad
 4. Finish with your sauce
 5. Wrap or Fold
-Butternut pumpkin &amp; coconut soup (LG,VG)
-Minted tofu larb salad, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander, naam jim dressing(LG,VG)
+Tomato minestrone soup (GF,V G)
+Heirloom tomato, cucumber and radicchio salad panzanella bread salad with orange, radish and sherry dressing (VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich bar: roast chicken, roast beefm turkey, sliced cheese, assorted salad ingredients and condiments
+Sausage sizzle: selection of beef or chicken sausages, carmelized onion and roasted potato (GF,DF)
+Grilled spiced tofu (VG, GF)
+Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamta olives and feta (V,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
+Chicken pad thai (GF,DF,NO EGG)
+Puffed tofu pad thai (GF,VG)
+On the side: chili oil, fried shallot, pickled chilli, bean sprouts
+Pasta salad with cherry tomatoes, radicchio, kalamta olives and pesto dressing
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Mongolian beef and Singaporian noodles stir fry(DF)
-Chinese wombok and bok choy with Singaporean noodles stir fry (V, DF)
-On the side: chilli oil, fried shallot, soy sauce
-Heirloom tomato, cucumber and radicchio panzanella bread salad and orange, radish(VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Panko crumbed chicken with Japanese curry sauce(DF)
-Corn fritters with potato and apply curry sauce(LG,VG)
-Cream of cauliflower soup(V,LG)
-Roasted peaches and bocconcini salad with green beans, basil, baby gem leaves and pomegranate dressing (V, LG)
+Beef and fennel sausage roll with tomato chutney
+Vegeterian sausage roll (GF,V)
+Waldorf salad: Iceberg grape, celery ,apple, onion, rocket and creamy French dressing (V,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables, roasted potato and gravy
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, pumpkin seed (GF,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef ravioli with mushroom cream sauce
+Cajun chicken with roasted capsicum and pineapple
+Ricotta, bean, chickpea and spinach bake (VG,GF)
+Selection of rice, vegetables and potato
+Spinach and pear salad with onion, rocket, watermelon, broccoli and sultana (GF,VG)
+Selection of ice-cream cups
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroccan lamb (GF,DF)
+Sweet and sour chicken with carrot and lychee (GF,DF)
+Baked falafel with chickpea hummus (V)
+Selection of rice, vegetables and potato
+Cheesy pasta salad with green peas, corn, garlic and parpkia-mustard mayo(contain egg)
+Chocolate Brownie
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baked fish tandoori (GF,DF)
+Chicken schnitzel parmigiana
+Baked pumpkin, carrot and sweet potato tandoori (VG,GF)
+Selection of rice, vegetables and potato
+Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce, green pea and capsicum (GF,VG)
+Lychee and coconut rice pudding (DF,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIZZA NIGHT:
+Chefs pizza of the week
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese(V,GF) (croutons on the side)
+Pear and berry crumble (DF,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGER NIGHT: 
+Selection of chicken and beef burger with coleslaw and sweet potato chips, selection of sliced cheese, tomato, burger sauce 
+Plant based burger with coleslaw and sweet potato chips, selectio nof sliced cheese, tomato and burger saucre(V) 
+Minted tofu larb salad with toasted rice, cucumber, tomato, onion, shallot, green  kale, coriander and naam jim dressing (GF,VG)
+Milo pannacotta(GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Butter Chicken (GF,DF)
+Thai Beef curry (GF,DF)
+Chickpea and cabbage (GF,VG)
+Jasmin rice, potato and assorted vegetables (V)
+Garden salad with tomato, green lettuce, spanish onion, baby spinach, shredded carrot and cabbage (VG,GF)
+Bread butter pudding
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Fish and Chips with tartare sauce(DF)
-Roast vegetable lasagne(LG,VG)
-Green power salad with avocado, spinach, green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts and pumpkin seed (LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toastie Station: roast chicken, roast beef, turkey, sliced cheese, assorted salad ingredients &amp; condiments
-Lasagna of layered beef mince sauce, becamel, fresh herbs, mozzarella and parmesan
-Pastizi filled with spinach and ricotta (V)
-Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beef stew cooked in a rich sauce(LG,DF)
-Crispy chicken stir fry with chili and basil(DF)
-Mushroom, tofu, cabbage and pea fried rice(LG,VG)
-Selection of vegetables and potato
-Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage(LG,VG)
-Mango and Coconut Saga(LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khao soi chicken with egg noodle(DF)
-Fishermen pie with peas and corn
-Deep fry tofu with baby corn, green beans and thai basil(LG,VG)
+PASTA NIGHT:
+Choose your pasta
+Pick your sauce
+Grab some garlic bread
+Sprinkle cheese
+Add some veggies
+Roasted peaches and feta salad with green beans, basil, baby gem leaves and pomegranates dressing (V,GF)
+Chocolate mousse (GF, contains soy and dairy)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+PIE DAY:
+Beef Stronganoof pie with puff pastry capsicum, zucchini and tomato casserole (VG)
+Mashed potato with peas and gravy (V,GF)
+Charred green bean, chili flakes, garlic, capsicum, fried onion, celery and sesame dressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich bar w/roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Coke chicken wings and corn on the cob (GF)
+Curry puff with raita yogurt sauce (V)
+Pasta salad with cherry tomatoes, radicchio, kalamata olives and pesto dressing (V)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDWICH DAY: 
+1. Choose your bread 
+2. Pick your protein 
+3. Add your salad 
+4. Finish with your sauce 
+5. Wrap or Fold 
+Cream of mushroom soup (V,GF) 
+Minted tofu larb salad, toasted rice, cucumber, tomato, onion, shallot, green kale, coriander and naam jim dressing (GF,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Mongolian beef and singaporean noodle (DF)
+Singaporean stir fry rice noodle (VG, GF)
+On the side, chili oil, fried shallot, soy sauce
+Heirloom tomato, cucumber and radicchio salad panzanella bread salad with orange radish and sherry dressing (VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poke Bowl Bar: brown rice, diced chicken, tuna mayo, edamame, lettuce, nori, seasoned seaweed, toasted pumpkin, diced beetroot, pickled radish, pickled ginger, roasted sesame dressing and kewpie mayo (containd egg, soy and sesame)
+Fish and Chips:
+Battered market fish with fries and tartare sauce
+Plant based “chicken” nuggets with mango chutney (VG - contains gluten)
+Cheesy pasta salad, with green peas, corn garlic and paprika-mustard mayo (contains egg)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
+Crumbed chicken with korean BBQ glaze (DF)
+Spiced chilli-glazed agedashi tofu (VG, GF)
+Green power salad with avocado, spinach, green beans, celery, kale, broccoli, edamame, asparagus, snow pea sprouts and pumpkin seed (GF,VG)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS ROAST:
+Chefs selection of roast served with seasonal vegetables, roasted potato and gravy
+Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy French dressing (V)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef chili corn carne(GF,DF)
+Crispy chicken stir fry with chili and basil (DF)
+Tofu Vegan Chilli con carne (VG,GF)
+Selection of vegetables, steamed rice and potato
+Garden salad with tomato, green lettuce, Spanish onion, baby spinach, shredded carrot and cabbage (GF,VG)
+Selection of ice-cream cups (GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khao soi tofu with fried noodle (VG)
+Chicken tortellini with pumpkin cream sauce 
 Selection of rice, vegetables and potato
-Potato and seeded mustard salad with sweet potato, roasted carrots and vill (V,LG)
-Cheesecake with butter crumbs and passionfruit jelly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Lamb and chickpea Tagine(LG,DF)
-Korean glazed chicken with cabbage and capsicum(LG,DF)
-Moroccan spiced cauliflower with chickpea, apricot and zucchini(LG,VG)
-Selection of rice, vegetables and polenta
-Pasta salad with cherry tomatoes, bocconci, radicchio, kalamata olives and pesto dressing(V)
-Chai Tea Bread pudding.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRY NIGHT:
-Tandoori Chicken (LG, DF)
-Slow cook Malaysian beef massaman (LG,DF)
-Paneer in lentil dahl(LG,VG)
-Naan bread, basmati rice &amp; assorted vegetables (V)
-Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn(LG,VG)
-Vanilla Brulee(LG)
+Potato and sedded mustard salad with sweet potato, roasted carrots and dill (V,GF)
+Chocolate brownie (GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamb and chickpea tagine (GF,DF)
+Chicken kiev stuffed with garlic butter
+Eggs, tofu, kimchi, vegetables and brown fried rice (V,GF,DF)
+Selection of rice, vegetables and potato
+Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V,GF) (croutons on the side)
+Lychee and coconut rice pudding (DF,GF)
 </t>
   </si>
   <si>
     <t xml:space="preserve">PIZZA NIGHT:
 Chefs Pizza of the Week
-Meat Lover: turkey bacon, beef salami, beef sausage, mozzarella and tomato
-Basil, spinach, zucchini and ricotta(V)
-Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V, LG)
-Selection of ice-cream cups(GF)
+Chickpea and quinoa tabouleh with lemon, tomato and parsley salad (GF,VG)
+Pear and berry crumble (DF,GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black pepper chicken stir fry (DF, GF)
+Beef meatballs with tomato sugo and salsa verde (DF)
+Spinach pastizzi
+Roastred peaches and feta salad with green beans, basil, baby gem leaves and pomegranates dressing (V,GF)
+Milo pannacotta (GF)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRY NIGHT:
+Chicken rendang curry (GF,DF)
+Slow cooked malaytsian beef massaman (GF,DF)
+Paneer in lentil dahl (GF,V)
+Jasmin rice, potato and assorted vegetables (V)
+Chili bean salad with chickpea, capsicum, cucumber, lime, coriander and corn (GF, VG)
+Bread butter pudding
 </t>
   </si>
   <si>
     <t xml:space="preserve">PASTA NIGHT:
-1. Choose your pasta
-2. Pick your sauce
-3.Grab some garlic bread
-4. Sprinkle cheese
-5. Add some veggies
-Nicoise salad: Potato, green beans, capers, onion, black olives, green lettuce green pea &amp; capsicum (LG, VG)
-Chocolate Brownie(LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEFS ROAST:
-Chefs selection of roast served with seasonal vegetables, polenta &amp; gravy
-Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy french dressing (V)
-Apple and Cinammon Crumble
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwich bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Beef sausage roll
-Vegetarian sausage roll (V)
-Mashed potato with pea and gras (V,LG)
-Tuscan tomato and capsicum soup (LG,VG)
-Thai rainbow slaw, bean sprouts, cucumber, rice noodles, red onion, fried onion, mint, lime (LG,VG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwich bar w/roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Chicken schnitzel parmigiana 
-Roasted eggplant topped with tomato &amp; melted cheese (V,LG)
-Beetroot, green beans, radicchio, kale salad with balsamic vinegar &amp; feta cheese (V, LG)
-</t>
-  </si>
-  <si>
-    <t>SANDWICH DAY:
-1. Choose your bread
-2. Pick your protein
-3. Add your salad
-4. Finish with your sauce
-5. Wrap or Fold
-Butternut pumpkin &amp; coconut soup (LG,VG)
-Chili bean salad with chickpea, capsicum, cucumber, lime, coriander &amp; corn(V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Quiche “Lorraine” with turkey bacon
-Vegetable quiche with leek, onion and swiss cheese (V)
-Minted tofu larb, toasted rice, cucumber, tomato, onion, shallot, gree  kale, coriander and naam jim dressing (LG,VG)
-</t>
-  </si>
-  <si>
-    <t>Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Beef meatballs with potato and salsa verde(DF)
-Roasted vegetable frittata (V,LG)
-Cream of cauliflower soup (V,LG)
-Chickpea and quinoa tabouleh with lemon, tomato, parsley salad (LG,VG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwich Bar w/ roast chicken, roast beef, turkey, sliced cheese, assorted salad fillings and condiments
-Indonesian “Mie Goreng” fried noodle with chicken, chilli, sliced cucumber(DF)
-Fried soybean tempeh (LG,VG)
-On the side: Chilli sambal oeiek, fried shallot and prawn cracker
-Heirloom tomato, cucumber, and radicchio panzanella bread salad and orange, radish (VG).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BURGER DAY
-Chicken Burger with coleslaw, sweet potato chips, selection of sliced cheese, tomato and burger sauce (V)
-Tofu/Veggie Burger with coleslaw sweet potato chips, selection of sliced cheese, tomato and burger sauce (V)
-Waldorf salad: Iceberg, grape, celery, apple, onion, rocket and creamy French dressing (V,LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beef ravioli with tomato, green bean and broccoli(DF)
-Stir-fried chicken with asparagus and oyster sauce(LG,DF)
-Chinese broccoli and green bean stir-fried rice (LG,VG)
-Selection of vegetables and potato
-Green power salad with avocado, spinach, green beans, celery, kale, broccoli, snow pea sprouts, and pumpkin seed (LG,VG)
-Tiramisu with coffee jelly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basil and mustard beef with slow cooked potato(LG,DF)
-Yellow chicken in coconut sauce with cauliflower, cabbage and chickpea (LG,DF)
-Sweet potato frittata
-Selection of rice, vegetables and potato
-Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives and feta (V,LG)
-Matcha Bread Pudding
-</t>
-  </si>
-  <si>
-    <t>Fish Laksa with rice noodle, shredded carrots and cabbage (LG,DF)
-Lasagna of layered beef mince sauce, bechamel, fresh herbs, mozzarella and parmesan
-Aloo Gobi (LG,VG)
-Selection of rice, vegetables and polenta
-Potato and seeded mustard salad with sweet potato, roasted carrots and dill (V,LG)
-Selection of ice-cream cups (GF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRY NIGHT:
-Thai green chicken (LG,DF)
-Beef Rogan Josh (LG,DF)
-Vegetable Korma (LG,VG)
-Naan bread, jasmin rice and assorted vegetables(V)
-Pasta salad with cherry tomatoes, bocconcini, radicchio, kalamta olives and a pesto dressing(V)
-Chocolate brownie (LG)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIZZA NIGHT:
-Chefs Pizza of the Week
-Hawaiian turkey bacon, pineapple and tomato
-Pesto, mushroom and broccoli (V)
-Superfood salad with turmeric cauliflower, pumpkin, green bean, red quinoa, fresh mint, spinach (LG,VG)
-Lemon Meringue Tart
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA NIGHT:
-1. Choose your pasta
-2. Pick your sauce
-3.Grab some garlic bread
-4. Sprinkle cheese
-5. Add some veggies
-Spinach and pear salad, with onion, rocket, watermelon, broccoli and sultana (LG,VG)
-Selection of ice-cream cups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEFS ROAST:
-Chefs selection of roast served with seasonal vegetables , polenta and gravy
-Caesar salad with baby cos, boiled egg, cherry tomato and parmesan cheese (V,LG)
+Choose your pasta
+Pick your sauce
+Grab some garlic bread
+Sprinkle cheese
+Add some veggies
+Greek salad with roma tomato, lebanese cucumber, spanish onion, capsicum, kalamata olives and feta (V, GF)
+Chocolate Mousse (GF - contains soy and dairy)
 </t>
   </si>
 </sst>
@@ -971,13 +990,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -1004,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1012,25 +1031,25 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1038,25 +1057,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1115,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -1148,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="264.0" customHeight="1">
@@ -1156,25 +1175,25 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="198.75" customHeight="1">
@@ -1182,25 +1201,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
